--- a/Code/Results/Cases/Case_0_41/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_41/res_line/loading_percent.xlsx
@@ -415,34 +415,34 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>7.606194000004336</v>
+        <v>7.606194000004371</v>
       </c>
       <c r="D2">
-        <v>4.110330502344898</v>
+        <v>4.110330502344761</v>
       </c>
       <c r="E2">
         <v>7.108574282915338</v>
       </c>
       <c r="F2">
-        <v>37.33745471258356</v>
+        <v>37.33745471258333</v>
       </c>
       <c r="G2">
-        <v>29.38154049430954</v>
+        <v>29.38154049430933</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>4.674916318436398</v>
+        <v>4.674916318436406</v>
       </c>
       <c r="J2">
-        <v>61.99733137176299</v>
+        <v>61.99733137176289</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>38.74304043542583</v>
+        <v>38.74304043542577</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -456,31 +456,31 @@
         <v>7.011781476261625</v>
       </c>
       <c r="D3">
-        <v>3.679005874068882</v>
+        <v>3.679005874069043</v>
       </c>
       <c r="E3">
-        <v>6.89351818373262</v>
+        <v>6.893518183732683</v>
       </c>
       <c r="F3">
-        <v>34.10321193982001</v>
+        <v>34.10321193981999</v>
       </c>
       <c r="G3">
-        <v>26.72990314912776</v>
+        <v>26.72990314912778</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>4.810127905894792</v>
+        <v>4.8101279058948</v>
       </c>
       <c r="J3">
-        <v>57.44709268316097</v>
+        <v>57.44709268316102</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>35.8862877507291</v>
+        <v>35.88628775072911</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -491,34 +491,34 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>6.635673724362418</v>
+        <v>6.635673724362251</v>
       </c>
       <c r="D4">
-        <v>3.41601986542115</v>
+        <v>3.416019865420966</v>
       </c>
       <c r="E4">
-        <v>6.762856223173451</v>
+        <v>6.76285622317339</v>
       </c>
       <c r="F4">
-        <v>32.15582404794245</v>
+        <v>32.15582404794231</v>
       </c>
       <c r="G4">
-        <v>25.1248710322576</v>
+        <v>25.12487103225737</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>4.901356390734881</v>
+        <v>4.90135639073491</v>
       </c>
       <c r="J4">
-        <v>54.5395781863506</v>
+        <v>54.53957818635041</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>34.06329458720639</v>
+        <v>34.06329458720626</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -529,25 +529,25 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>6.479305903558105</v>
+        <v>6.479305903558099</v>
       </c>
       <c r="D5">
-        <v>3.308903389944087</v>
+        <v>3.308903389943972</v>
       </c>
       <c r="E5">
-        <v>6.709955627639216</v>
+        <v>6.709955627639008</v>
       </c>
       <c r="F5">
-        <v>31.4756123967051</v>
+        <v>31.47561239670517</v>
       </c>
       <c r="G5">
-        <v>24.51389223325297</v>
+        <v>24.51389223325302</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>4.940358394651147</v>
+        <v>4.940358394651023</v>
       </c>
       <c r="J5">
         <v>53.32444072472288</v>
@@ -556,7 +556,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>33.3019474953914</v>
+        <v>33.30194749539142</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -567,34 +567,34 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>6.453146001716665</v>
+        <v>6.453146001716729</v>
       </c>
       <c r="D6">
-        <v>3.291109267522756</v>
+        <v>3.291109267522593</v>
       </c>
       <c r="E6">
-        <v>6.701192581977964</v>
+        <v>6.701192581977949</v>
       </c>
       <c r="F6">
         <v>31.36360172463079</v>
       </c>
       <c r="G6">
-        <v>24.43074311466178</v>
+        <v>24.43074311466177</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>4.946938987945034</v>
+        <v>4.946938987945058</v>
       </c>
       <c r="J6">
-        <v>53.12079249572559</v>
+        <v>53.12079249572557</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>33.17438162107442</v>
+        <v>33.17438162107443</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -605,34 +605,34 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>6.633577809915886</v>
+        <v>6.63357780991575</v>
       </c>
       <c r="D7">
-        <v>3.414575534519042</v>
+        <v>3.414575534519023</v>
       </c>
       <c r="E7">
-        <v>6.762141381967473</v>
+        <v>6.762141381967441</v>
       </c>
       <c r="F7">
-        <v>32.14658711804354</v>
+        <v>32.14658711804355</v>
       </c>
       <c r="G7">
-        <v>25.116093793582</v>
+        <v>25.11609379358194</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>4.901875267923645</v>
+        <v>4.901875267923567</v>
       </c>
       <c r="J7">
-        <v>54.52331519480116</v>
+        <v>54.52331519480111</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>34.05310291184632</v>
+        <v>34.05310291184629</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -643,28 +643,28 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>7.403353775001031</v>
+        <v>7.403353775001014</v>
       </c>
       <c r="D8">
-        <v>3.960952290251376</v>
+        <v>3.960952290251391</v>
       </c>
       <c r="E8">
-        <v>7.034129004686246</v>
+        <v>7.034129004686336</v>
       </c>
       <c r="F8">
-        <v>36.21348616945169</v>
+        <v>36.21348616945181</v>
       </c>
       <c r="G8">
-        <v>28.46148810235859</v>
+        <v>28.46148810235874</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>4.719671268614768</v>
+        <v>4.719671268614894</v>
       </c>
       <c r="J8">
-        <v>60.45086798798216</v>
+        <v>60.45086798798218</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -681,34 +681,34 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>8.841662784999341</v>
+        <v>8.841662784999473</v>
       </c>
       <c r="D9">
-        <v>5.070999730728556</v>
+        <v>5.070999730728729</v>
       </c>
       <c r="E9">
-        <v>7.579679862600666</v>
+        <v>7.579679862600668</v>
       </c>
       <c r="F9">
-        <v>44.59949494899853</v>
+        <v>44.59949494899823</v>
       </c>
       <c r="G9">
-        <v>35.30078564080171</v>
+        <v>35.30078564080147</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>4.862463211817002</v>
+        <v>4.862463211817055</v>
       </c>
       <c r="J9">
-        <v>71.2698534280224</v>
+        <v>71.26985342802232</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>44.58018762461647</v>
+        <v>44.58018762461641</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -719,34 +719,34 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>9.887490559254729</v>
+        <v>9.887490559254612</v>
       </c>
       <c r="D10">
-        <v>5.956319870866823</v>
+        <v>5.95631987086703</v>
       </c>
       <c r="E10">
-        <v>7.9919370368562</v>
+        <v>7.991937036856156</v>
       </c>
       <c r="F10">
-        <v>51.25898987436121</v>
+        <v>51.25898987436095</v>
       </c>
       <c r="G10">
-        <v>40.70652509818684</v>
+        <v>40.7065250981867</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>5.455667085368802</v>
+        <v>5.455667085368973</v>
       </c>
       <c r="J10">
-        <v>78.90867669462287</v>
+        <v>78.90867669462295</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>49.40692439478568</v>
+        <v>49.40692439478572</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -757,34 +757,34 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>10.37226021759412</v>
+        <v>10.3722602175941</v>
       </c>
       <c r="D11">
-        <v>6.390695989527054</v>
+        <v>6.3906959895272</v>
       </c>
       <c r="E11">
-        <v>8.183848246124633</v>
+        <v>8.183848246124734</v>
       </c>
       <c r="F11">
-        <v>54.49514812474418</v>
+        <v>54.49514812474482</v>
       </c>
       <c r="G11">
-        <v>43.32968607894884</v>
+        <v>43.32968607894941</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>5.732253516463902</v>
+        <v>5.732253516463793</v>
       </c>
       <c r="J11">
-        <v>82.37857579352378</v>
+        <v>82.37857579352406</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>51.60565496455455</v>
+        <v>51.6056549645547</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -795,34 +795,34 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>10.55861629012637</v>
+        <v>10.55861629012639</v>
       </c>
       <c r="D12">
-        <v>6.561921692309985</v>
+        <v>6.561921692310162</v>
       </c>
       <c r="E12">
-        <v>8.257420572063973</v>
+        <v>8.257420572064046</v>
       </c>
       <c r="F12">
-        <v>55.7638147439575</v>
+        <v>55.76381474395781</v>
       </c>
       <c r="G12">
-        <v>44.35767125055614</v>
+        <v>44.35767125055644</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>5.838799222821645</v>
+        <v>5.83879922282164</v>
       </c>
       <c r="J12">
-        <v>83.69985642768688</v>
+        <v>83.6998564276871</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>52.44401894117392</v>
+        <v>52.44401894117405</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -833,34 +833,34 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>10.51832612496229</v>
+        <v>10.51832612496227</v>
       </c>
       <c r="D13">
-        <v>6.524699369233475</v>
+        <v>6.524699369233364</v>
       </c>
       <c r="E13">
-        <v>8.241529615109908</v>
+        <v>8.24152961510986</v>
       </c>
       <c r="F13">
-        <v>55.48837643393814</v>
+        <v>55.48837643393789</v>
       </c>
       <c r="G13">
-        <v>44.13450028331039</v>
+        <v>44.13450028331015</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>5.815754965618791</v>
+        <v>5.815754965618807</v>
       </c>
       <c r="J13">
-        <v>83.41480248052009</v>
+        <v>83.41480248051988</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>52.26309533549482</v>
+        <v>52.26309533549469</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -871,34 +871,34 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>10.38752507300459</v>
+        <v>10.38752507300464</v>
       </c>
       <c r="D14">
-        <v>6.404631595895196</v>
+        <v>6.404631595895315</v>
       </c>
       <c r="E14">
-        <v>8.189881009742848</v>
+        <v>8.189881009742836</v>
       </c>
       <c r="F14">
-        <v>54.59855555749203</v>
+        <v>54.59855555749221</v>
       </c>
       <c r="G14">
-        <v>43.41348212382121</v>
+        <v>43.41348212382137</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>5.740976762620012</v>
+        <v>5.740976762620031</v>
       </c>
       <c r="J14">
-        <v>82.48707301707449</v>
+        <v>82.48707301707448</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>51.67447334036732</v>
+        <v>51.67447334036736</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -909,34 +909,34 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>10.30782383341671</v>
+        <v>10.30782383341669</v>
       </c>
       <c r="D15">
-        <v>6.332046097339294</v>
+        <v>6.332046097339266</v>
       </c>
       <c r="E15">
-        <v>8.1583722629356</v>
+        <v>8.158372262935586</v>
       </c>
       <c r="F15">
-        <v>54.05965060427462</v>
+        <v>54.05965060427494</v>
       </c>
       <c r="G15">
-        <v>42.97676775174067</v>
+        <v>42.97676775174089</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>5.695439369785941</v>
+        <v>5.695439369785902</v>
       </c>
       <c r="J15">
-        <v>81.92006197202511</v>
+        <v>81.92006197202517</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>51.31487242858275</v>
+        <v>51.31487242858284</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -947,34 +947,34 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>9.85610421237468</v>
+        <v>9.856104212374724</v>
       </c>
       <c r="D16">
-        <v>5.928734723424542</v>
+        <v>5.928734723424737</v>
       </c>
       <c r="E16">
-        <v>7.979503468775236</v>
+        <v>7.979503468775263</v>
       </c>
       <c r="F16">
-        <v>51.05267543363875</v>
+        <v>51.05267543363905</v>
       </c>
       <c r="G16">
-        <v>40.53923158754766</v>
+        <v>40.53923158754799</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>5.437791426095997</v>
+        <v>5.437791426095996</v>
       </c>
       <c r="J16">
-        <v>78.68242095889431</v>
+        <v>78.6824209588944</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>49.26369799696865</v>
+        <v>49.26369799696869</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -985,34 +985,34 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>9.582172731922986</v>
+        <v>9.582172731923119</v>
       </c>
       <c r="D17">
-        <v>5.690698888428638</v>
+        <v>5.690698888428862</v>
       </c>
       <c r="E17">
-        <v>7.871048392534228</v>
+        <v>7.871048392534297</v>
       </c>
       <c r="F17">
-        <v>49.26875757413514</v>
+        <v>49.26875757413542</v>
       </c>
       <c r="G17">
-        <v>39.09232943223518</v>
+        <v>39.09232943223546</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>5.2819585403397</v>
+        <v>5.281958540339721</v>
       </c>
       <c r="J17">
-        <v>76.69968203345839</v>
+        <v>76.69968203345857</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>48.00928031273646</v>
+        <v>48.00928031273658</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1023,34 +1023,34 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>9.425347372609828</v>
+        <v>9.42534737260984</v>
       </c>
       <c r="D18">
-        <v>5.556593697794191</v>
+        <v>5.556593697794324</v>
       </c>
       <c r="E18">
-        <v>7.809057627673583</v>
+        <v>7.809057627673574</v>
       </c>
       <c r="F18">
-        <v>48.26108478512996</v>
+        <v>48.26108478513015</v>
       </c>
       <c r="G18">
-        <v>38.27467771347827</v>
+        <v>38.27467771347847</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>5.192896892194946</v>
+        <v>5.192896892194962</v>
       </c>
       <c r="J18">
-        <v>75.5581654207235</v>
+        <v>75.55816542072355</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>47.2876440420078</v>
+        <v>47.28764404200786</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1064,31 +1064,31 @@
         <v>9.372339139019321</v>
       </c>
       <c r="D19">
-        <v>5.511617865959988</v>
+        <v>5.511617865960091</v>
       </c>
       <c r="E19">
-        <v>7.788129268933647</v>
+        <v>7.788129268933669</v>
       </c>
       <c r="F19">
         <v>47.92274427601853</v>
       </c>
       <c r="G19">
-        <v>38.00007522826159</v>
+        <v>38.00007522826161</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>5.162819388152477</v>
+        <v>5.162819388152495</v>
       </c>
       <c r="J19">
-        <v>75.17128512700052</v>
+        <v>75.17128512700057</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>47.04316006508666</v>
+        <v>47.0431600650867</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1099,34 +1099,34 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>9.611248556621826</v>
+        <v>9.611248556621813</v>
       </c>
       <c r="D20">
-        <v>5.71573484325211</v>
+        <v>5.715734843251984</v>
       </c>
       <c r="E20">
-        <v>7.88255172388449</v>
+        <v>7.882551723884444</v>
       </c>
       <c r="F20">
-        <v>49.45667669200064</v>
+        <v>49.45667669200041</v>
       </c>
       <c r="G20">
-        <v>39.24478216373951</v>
+        <v>39.24478216373927</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>5.298483244302948</v>
+        <v>5.298483244302941</v>
       </c>
       <c r="J20">
-        <v>76.9108138076367</v>
+        <v>76.91081380763647</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>48.14279689160369</v>
+        <v>48.14279689160355</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1137,34 +1137,34 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>10.42585367848881</v>
+        <v>10.42585367848896</v>
       </c>
       <c r="D21">
-        <v>6.439692999021104</v>
+        <v>6.439692999021098</v>
       </c>
       <c r="E21">
-        <v>8.205024193364524</v>
+        <v>8.205024193364512</v>
       </c>
       <c r="F21">
-        <v>54.85860485382283</v>
+        <v>54.85860485382297</v>
       </c>
       <c r="G21">
-        <v>43.62420743798046</v>
+        <v>43.62420743798054</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>5.762883376835819</v>
+        <v>5.762883376835852</v>
       </c>
       <c r="J21">
-        <v>82.7592893699552</v>
+        <v>82.75928936995534</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>51.8471554188728</v>
+        <v>51.84715541887289</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1175,34 +1175,34 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>10.97575431446099</v>
+        <v>10.97575431446096</v>
       </c>
       <c r="D22">
-        <v>6.954014478721181</v>
+        <v>6.954014478721245</v>
       </c>
       <c r="E22">
-        <v>8.421265299092846</v>
+        <v>8.421265299092811</v>
       </c>
       <c r="F22">
-        <v>58.65279177554356</v>
+        <v>58.65279177554339</v>
       </c>
       <c r="G22">
-        <v>46.69811177981573</v>
+        <v>46.69811177981562</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>6.077631980964189</v>
+        <v>6.077631980964193</v>
       </c>
       <c r="J22">
-        <v>86.63102361172491</v>
+        <v>86.63102361172481</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>54.30623133639519</v>
+        <v>54.30623133639514</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1213,19 +1213,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>10.67996521055881</v>
+        <v>10.6799652105588</v>
       </c>
       <c r="D23">
-        <v>6.674714781068598</v>
+        <v>6.674714781068528</v>
       </c>
       <c r="E23">
-        <v>8.305221402436645</v>
+        <v>8.305221402436564</v>
       </c>
       <c r="F23">
-        <v>56.5972358648234</v>
+        <v>56.59723586482326</v>
       </c>
       <c r="G23">
-        <v>45.03290330822487</v>
+        <v>45.03290330822472</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1234,13 +1234,13 @@
         <v>5.908233572988145</v>
       </c>
       <c r="J23">
-        <v>84.55635899788</v>
+        <v>84.55635899787988</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>52.98782422341844</v>
+        <v>52.9878242234184</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1251,34 +1251,34 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>9.598101417630572</v>
+        <v>9.59810141763043</v>
       </c>
       <c r="D24">
-        <v>5.704407687898116</v>
+        <v>5.70440768789801</v>
       </c>
       <c r="E24">
-        <v>7.877349960132729</v>
+        <v>7.877349960132629</v>
       </c>
       <c r="F24">
-        <v>49.37166354208733</v>
+        <v>49.37166354208714</v>
       </c>
       <c r="G24">
-        <v>39.1758148329696</v>
+        <v>39.17581483296942</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>5.291010836647277</v>
+        <v>5.291010836647283</v>
       </c>
       <c r="J24">
-        <v>76.81536670916284</v>
+        <v>76.8153667091627</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>48.08243582754877</v>
+        <v>48.08243582754868</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1289,34 +1289,34 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>8.457395109857577</v>
+        <v>8.457395109857609</v>
       </c>
       <c r="D25">
-        <v>4.762639354217487</v>
+        <v>4.762639354217721</v>
       </c>
       <c r="E25">
-        <v>7.430514272916103</v>
+        <v>7.430514272916208</v>
       </c>
       <c r="F25">
-        <v>42.26747412795913</v>
+        <v>42.26747412795944</v>
       </c>
       <c r="G25">
-        <v>33.40374016442178</v>
+        <v>33.40374016442208</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>4.645860861684826</v>
+        <v>4.645860861684809</v>
       </c>
       <c r="J25">
-        <v>68.41354860881852</v>
+        <v>68.41354860881873</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>42.77973371643278</v>
+        <v>42.77973371643289</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_41/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_41/res_line/loading_percent.xlsx
@@ -415,34 +415,34 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>7.606194000004371</v>
+        <v>7.606194000004336</v>
       </c>
       <c r="D2">
-        <v>4.110330502344761</v>
+        <v>4.110330502344898</v>
       </c>
       <c r="E2">
         <v>7.108574282915338</v>
       </c>
       <c r="F2">
-        <v>37.33745471258333</v>
+        <v>37.33745471258356</v>
       </c>
       <c r="G2">
-        <v>29.38154049430933</v>
+        <v>29.38154049430954</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>4.674916318436406</v>
+        <v>4.674916318436398</v>
       </c>
       <c r="J2">
-        <v>61.99733137176289</v>
+        <v>61.99733137176299</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>38.74304043542577</v>
+        <v>38.74304043542583</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -456,31 +456,31 @@
         <v>7.011781476261625</v>
       </c>
       <c r="D3">
-        <v>3.679005874069043</v>
+        <v>3.679005874068882</v>
       </c>
       <c r="E3">
-        <v>6.893518183732683</v>
+        <v>6.89351818373262</v>
       </c>
       <c r="F3">
-        <v>34.10321193981999</v>
+        <v>34.10321193982001</v>
       </c>
       <c r="G3">
-        <v>26.72990314912778</v>
+        <v>26.72990314912776</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>4.8101279058948</v>
+        <v>4.810127905894792</v>
       </c>
       <c r="J3">
-        <v>57.44709268316102</v>
+        <v>57.44709268316097</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>35.88628775072911</v>
+        <v>35.8862877507291</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -491,34 +491,34 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>6.635673724362251</v>
+        <v>6.635673724362418</v>
       </c>
       <c r="D4">
-        <v>3.416019865420966</v>
+        <v>3.41601986542115</v>
       </c>
       <c r="E4">
-        <v>6.76285622317339</v>
+        <v>6.762856223173451</v>
       </c>
       <c r="F4">
-        <v>32.15582404794231</v>
+        <v>32.15582404794245</v>
       </c>
       <c r="G4">
-        <v>25.12487103225737</v>
+        <v>25.1248710322576</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>4.90135639073491</v>
+        <v>4.901356390734881</v>
       </c>
       <c r="J4">
-        <v>54.53957818635041</v>
+        <v>54.5395781863506</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>34.06329458720626</v>
+        <v>34.06329458720639</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -529,25 +529,25 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>6.479305903558099</v>
+        <v>6.479305903558105</v>
       </c>
       <c r="D5">
-        <v>3.308903389943972</v>
+        <v>3.308903389944087</v>
       </c>
       <c r="E5">
-        <v>6.709955627639008</v>
+        <v>6.709955627639216</v>
       </c>
       <c r="F5">
-        <v>31.47561239670517</v>
+        <v>31.4756123967051</v>
       </c>
       <c r="G5">
-        <v>24.51389223325302</v>
+        <v>24.51389223325297</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>4.940358394651023</v>
+        <v>4.940358394651147</v>
       </c>
       <c r="J5">
         <v>53.32444072472288</v>
@@ -556,7 +556,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>33.30194749539142</v>
+        <v>33.3019474953914</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -567,34 +567,34 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>6.453146001716729</v>
+        <v>6.453146001716665</v>
       </c>
       <c r="D6">
-        <v>3.291109267522593</v>
+        <v>3.291109267522756</v>
       </c>
       <c r="E6">
-        <v>6.701192581977949</v>
+        <v>6.701192581977964</v>
       </c>
       <c r="F6">
         <v>31.36360172463079</v>
       </c>
       <c r="G6">
-        <v>24.43074311466177</v>
+        <v>24.43074311466178</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>4.946938987945058</v>
+        <v>4.946938987945034</v>
       </c>
       <c r="J6">
-        <v>53.12079249572557</v>
+        <v>53.12079249572559</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>33.17438162107443</v>
+        <v>33.17438162107442</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -605,34 +605,34 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>6.63357780991575</v>
+        <v>6.633577809915886</v>
       </c>
       <c r="D7">
-        <v>3.414575534519023</v>
+        <v>3.414575534519042</v>
       </c>
       <c r="E7">
-        <v>6.762141381967441</v>
+        <v>6.762141381967473</v>
       </c>
       <c r="F7">
-        <v>32.14658711804355</v>
+        <v>32.14658711804354</v>
       </c>
       <c r="G7">
-        <v>25.11609379358194</v>
+        <v>25.116093793582</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>4.901875267923567</v>
+        <v>4.901875267923645</v>
       </c>
       <c r="J7">
-        <v>54.52331519480111</v>
+        <v>54.52331519480116</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>34.05310291184629</v>
+        <v>34.05310291184632</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -643,28 +643,28 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>7.403353775001014</v>
+        <v>7.403353775001031</v>
       </c>
       <c r="D8">
-        <v>3.960952290251391</v>
+        <v>3.960952290251376</v>
       </c>
       <c r="E8">
-        <v>7.034129004686336</v>
+        <v>7.034129004686246</v>
       </c>
       <c r="F8">
-        <v>36.21348616945181</v>
+        <v>36.21348616945169</v>
       </c>
       <c r="G8">
-        <v>28.46148810235874</v>
+        <v>28.46148810235859</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>4.719671268614894</v>
+        <v>4.719671268614768</v>
       </c>
       <c r="J8">
-        <v>60.45086798798218</v>
+        <v>60.45086798798216</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -681,34 +681,34 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>8.841662784999473</v>
+        <v>8.841662784999341</v>
       </c>
       <c r="D9">
-        <v>5.070999730728729</v>
+        <v>5.070999730728556</v>
       </c>
       <c r="E9">
-        <v>7.579679862600668</v>
+        <v>7.579679862600666</v>
       </c>
       <c r="F9">
-        <v>44.59949494899823</v>
+        <v>44.59949494899853</v>
       </c>
       <c r="G9">
-        <v>35.30078564080147</v>
+        <v>35.30078564080171</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>4.862463211817055</v>
+        <v>4.862463211817002</v>
       </c>
       <c r="J9">
-        <v>71.26985342802232</v>
+        <v>71.2698534280224</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>44.58018762461641</v>
+        <v>44.58018762461647</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -719,34 +719,34 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>9.887490559254612</v>
+        <v>9.887490559254729</v>
       </c>
       <c r="D10">
-        <v>5.95631987086703</v>
+        <v>5.956319870866823</v>
       </c>
       <c r="E10">
-        <v>7.991937036856156</v>
+        <v>7.9919370368562</v>
       </c>
       <c r="F10">
-        <v>51.25898987436095</v>
+        <v>51.25898987436121</v>
       </c>
       <c r="G10">
-        <v>40.7065250981867</v>
+        <v>40.70652509818684</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>5.455667085368973</v>
+        <v>5.455667085368802</v>
       </c>
       <c r="J10">
-        <v>78.90867669462295</v>
+        <v>78.90867669462287</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>49.40692439478572</v>
+        <v>49.40692439478568</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -757,34 +757,34 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>10.3722602175941</v>
+        <v>10.37226021759412</v>
       </c>
       <c r="D11">
-        <v>6.3906959895272</v>
+        <v>6.390695989527054</v>
       </c>
       <c r="E11">
-        <v>8.183848246124734</v>
+        <v>8.183848246124633</v>
       </c>
       <c r="F11">
-        <v>54.49514812474482</v>
+        <v>54.49514812474418</v>
       </c>
       <c r="G11">
-        <v>43.32968607894941</v>
+        <v>43.32968607894884</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>5.732253516463793</v>
+        <v>5.732253516463902</v>
       </c>
       <c r="J11">
-        <v>82.37857579352406</v>
+        <v>82.37857579352378</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>51.6056549645547</v>
+        <v>51.60565496455455</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -795,34 +795,34 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>10.55861629012639</v>
+        <v>10.55861629012637</v>
       </c>
       <c r="D12">
-        <v>6.561921692310162</v>
+        <v>6.561921692309985</v>
       </c>
       <c r="E12">
-        <v>8.257420572064046</v>
+        <v>8.257420572063973</v>
       </c>
       <c r="F12">
-        <v>55.76381474395781</v>
+        <v>55.7638147439575</v>
       </c>
       <c r="G12">
-        <v>44.35767125055644</v>
+        <v>44.35767125055614</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>5.83879922282164</v>
+        <v>5.838799222821645</v>
       </c>
       <c r="J12">
-        <v>83.6998564276871</v>
+        <v>83.69985642768688</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>52.44401894117405</v>
+        <v>52.44401894117392</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -833,34 +833,34 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>10.51832612496227</v>
+        <v>10.51832612496229</v>
       </c>
       <c r="D13">
-        <v>6.524699369233364</v>
+        <v>6.524699369233475</v>
       </c>
       <c r="E13">
-        <v>8.24152961510986</v>
+        <v>8.241529615109908</v>
       </c>
       <c r="F13">
-        <v>55.48837643393789</v>
+        <v>55.48837643393814</v>
       </c>
       <c r="G13">
-        <v>44.13450028331015</v>
+        <v>44.13450028331039</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>5.815754965618807</v>
+        <v>5.815754965618791</v>
       </c>
       <c r="J13">
-        <v>83.41480248051988</v>
+        <v>83.41480248052009</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>52.26309533549469</v>
+        <v>52.26309533549482</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -871,34 +871,34 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>10.38752507300464</v>
+        <v>10.38752507300459</v>
       </c>
       <c r="D14">
-        <v>6.404631595895315</v>
+        <v>6.404631595895196</v>
       </c>
       <c r="E14">
-        <v>8.189881009742836</v>
+        <v>8.189881009742848</v>
       </c>
       <c r="F14">
-        <v>54.59855555749221</v>
+        <v>54.59855555749203</v>
       </c>
       <c r="G14">
-        <v>43.41348212382137</v>
+        <v>43.41348212382121</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>5.740976762620031</v>
+        <v>5.740976762620012</v>
       </c>
       <c r="J14">
-        <v>82.48707301707448</v>
+        <v>82.48707301707449</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>51.67447334036736</v>
+        <v>51.67447334036732</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -909,34 +909,34 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>10.30782383341669</v>
+        <v>10.30782383341671</v>
       </c>
       <c r="D15">
-        <v>6.332046097339266</v>
+        <v>6.332046097339294</v>
       </c>
       <c r="E15">
-        <v>8.158372262935586</v>
+        <v>8.1583722629356</v>
       </c>
       <c r="F15">
-        <v>54.05965060427494</v>
+        <v>54.05965060427462</v>
       </c>
       <c r="G15">
-        <v>42.97676775174089</v>
+        <v>42.97676775174067</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>5.695439369785902</v>
+        <v>5.695439369785941</v>
       </c>
       <c r="J15">
-        <v>81.92006197202517</v>
+        <v>81.92006197202511</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>51.31487242858284</v>
+        <v>51.31487242858275</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -947,34 +947,34 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>9.856104212374724</v>
+        <v>9.85610421237468</v>
       </c>
       <c r="D16">
-        <v>5.928734723424737</v>
+        <v>5.928734723424542</v>
       </c>
       <c r="E16">
-        <v>7.979503468775263</v>
+        <v>7.979503468775236</v>
       </c>
       <c r="F16">
-        <v>51.05267543363905</v>
+        <v>51.05267543363875</v>
       </c>
       <c r="G16">
-        <v>40.53923158754799</v>
+        <v>40.53923158754766</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>5.437791426095996</v>
+        <v>5.437791426095997</v>
       </c>
       <c r="J16">
-        <v>78.6824209588944</v>
+        <v>78.68242095889431</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>49.26369799696869</v>
+        <v>49.26369799696865</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -985,34 +985,34 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>9.582172731923119</v>
+        <v>9.582172731922986</v>
       </c>
       <c r="D17">
-        <v>5.690698888428862</v>
+        <v>5.690698888428638</v>
       </c>
       <c r="E17">
-        <v>7.871048392534297</v>
+        <v>7.871048392534228</v>
       </c>
       <c r="F17">
-        <v>49.26875757413542</v>
+        <v>49.26875757413514</v>
       </c>
       <c r="G17">
-        <v>39.09232943223546</v>
+        <v>39.09232943223518</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>5.281958540339721</v>
+        <v>5.2819585403397</v>
       </c>
       <c r="J17">
-        <v>76.69968203345857</v>
+        <v>76.69968203345839</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>48.00928031273658</v>
+        <v>48.00928031273646</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1023,34 +1023,34 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>9.42534737260984</v>
+        <v>9.425347372609828</v>
       </c>
       <c r="D18">
-        <v>5.556593697794324</v>
+        <v>5.556593697794191</v>
       </c>
       <c r="E18">
-        <v>7.809057627673574</v>
+        <v>7.809057627673583</v>
       </c>
       <c r="F18">
-        <v>48.26108478513015</v>
+        <v>48.26108478512996</v>
       </c>
       <c r="G18">
-        <v>38.27467771347847</v>
+        <v>38.27467771347827</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>5.192896892194962</v>
+        <v>5.192896892194946</v>
       </c>
       <c r="J18">
-        <v>75.55816542072355</v>
+        <v>75.5581654207235</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>47.28764404200786</v>
+        <v>47.2876440420078</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1064,31 +1064,31 @@
         <v>9.372339139019321</v>
       </c>
       <c r="D19">
-        <v>5.511617865960091</v>
+        <v>5.511617865959988</v>
       </c>
       <c r="E19">
-        <v>7.788129268933669</v>
+        <v>7.788129268933647</v>
       </c>
       <c r="F19">
         <v>47.92274427601853</v>
       </c>
       <c r="G19">
-        <v>38.00007522826161</v>
+        <v>38.00007522826159</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>5.162819388152495</v>
+        <v>5.162819388152477</v>
       </c>
       <c r="J19">
-        <v>75.17128512700057</v>
+        <v>75.17128512700052</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>47.0431600650867</v>
+        <v>47.04316006508666</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1099,34 +1099,34 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>9.611248556621813</v>
+        <v>9.611248556621826</v>
       </c>
       <c r="D20">
-        <v>5.715734843251984</v>
+        <v>5.71573484325211</v>
       </c>
       <c r="E20">
-        <v>7.882551723884444</v>
+        <v>7.88255172388449</v>
       </c>
       <c r="F20">
-        <v>49.45667669200041</v>
+        <v>49.45667669200064</v>
       </c>
       <c r="G20">
-        <v>39.24478216373927</v>
+        <v>39.24478216373951</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>5.298483244302941</v>
+        <v>5.298483244302948</v>
       </c>
       <c r="J20">
-        <v>76.91081380763647</v>
+        <v>76.9108138076367</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>48.14279689160355</v>
+        <v>48.14279689160369</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1137,34 +1137,34 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>10.42585367848896</v>
+        <v>10.42585367848881</v>
       </c>
       <c r="D21">
-        <v>6.439692999021098</v>
+        <v>6.439692999021104</v>
       </c>
       <c r="E21">
-        <v>8.205024193364512</v>
+        <v>8.205024193364524</v>
       </c>
       <c r="F21">
-        <v>54.85860485382297</v>
+        <v>54.85860485382283</v>
       </c>
       <c r="G21">
-        <v>43.62420743798054</v>
+        <v>43.62420743798046</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>5.762883376835852</v>
+        <v>5.762883376835819</v>
       </c>
       <c r="J21">
-        <v>82.75928936995534</v>
+        <v>82.7592893699552</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>51.84715541887289</v>
+        <v>51.8471554188728</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1175,34 +1175,34 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>10.97575431446096</v>
+        <v>10.97575431446099</v>
       </c>
       <c r="D22">
-        <v>6.954014478721245</v>
+        <v>6.954014478721181</v>
       </c>
       <c r="E22">
-        <v>8.421265299092811</v>
+        <v>8.421265299092846</v>
       </c>
       <c r="F22">
-        <v>58.65279177554339</v>
+        <v>58.65279177554356</v>
       </c>
       <c r="G22">
-        <v>46.69811177981562</v>
+        <v>46.69811177981573</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>6.077631980964193</v>
+        <v>6.077631980964189</v>
       </c>
       <c r="J22">
-        <v>86.63102361172481</v>
+        <v>86.63102361172491</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>54.30623133639514</v>
+        <v>54.30623133639519</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1213,19 +1213,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>10.6799652105588</v>
+        <v>10.67996521055881</v>
       </c>
       <c r="D23">
-        <v>6.674714781068528</v>
+        <v>6.674714781068598</v>
       </c>
       <c r="E23">
-        <v>8.305221402436564</v>
+        <v>8.305221402436645</v>
       </c>
       <c r="F23">
-        <v>56.59723586482326</v>
+        <v>56.5972358648234</v>
       </c>
       <c r="G23">
-        <v>45.03290330822472</v>
+        <v>45.03290330822487</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1234,13 +1234,13 @@
         <v>5.908233572988145</v>
       </c>
       <c r="J23">
-        <v>84.55635899787988</v>
+        <v>84.55635899788</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>52.9878242234184</v>
+        <v>52.98782422341844</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1251,34 +1251,34 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>9.59810141763043</v>
+        <v>9.598101417630572</v>
       </c>
       <c r="D24">
-        <v>5.70440768789801</v>
+        <v>5.704407687898116</v>
       </c>
       <c r="E24">
-        <v>7.877349960132629</v>
+        <v>7.877349960132729</v>
       </c>
       <c r="F24">
-        <v>49.37166354208714</v>
+        <v>49.37166354208733</v>
       </c>
       <c r="G24">
-        <v>39.17581483296942</v>
+        <v>39.1758148329696</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>5.291010836647283</v>
+        <v>5.291010836647277</v>
       </c>
       <c r="J24">
-        <v>76.8153667091627</v>
+        <v>76.81536670916284</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>48.08243582754868</v>
+        <v>48.08243582754877</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1289,34 +1289,34 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>8.457395109857609</v>
+        <v>8.457395109857577</v>
       </c>
       <c r="D25">
-        <v>4.762639354217721</v>
+        <v>4.762639354217487</v>
       </c>
       <c r="E25">
-        <v>7.430514272916208</v>
+        <v>7.430514272916103</v>
       </c>
       <c r="F25">
-        <v>42.26747412795944</v>
+        <v>42.26747412795913</v>
       </c>
       <c r="G25">
-        <v>33.40374016442208</v>
+        <v>33.40374016442178</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>4.645860861684809</v>
+        <v>4.645860861684826</v>
       </c>
       <c r="J25">
-        <v>68.41354860881873</v>
+        <v>68.41354860881852</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>42.77973371643289</v>
+        <v>42.77973371643278</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_41/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_41/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,8 +406,11 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -415,37 +418,40 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>7.606194000004336</v>
+        <v>7.605658603819957</v>
       </c>
       <c r="D2">
-        <v>4.110330502344898</v>
+        <v>4.10291294042897</v>
       </c>
       <c r="E2">
-        <v>7.108574282915338</v>
+        <v>7.104961925367148</v>
       </c>
       <c r="F2">
-        <v>37.33745471258356</v>
+        <v>37.29734257845207</v>
       </c>
       <c r="G2">
-        <v>29.38154049430954</v>
+        <v>29.41896234025417</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>29.07139254864262</v>
       </c>
       <c r="I2">
-        <v>4.674916318436398</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>61.99733137176299</v>
+        <v>4.675562852738118</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>61.99257892398273</v>
       </c>
       <c r="L2">
-        <v>38.74304043542583</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>38.74082284020861</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -453,37 +459,40 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>7.011781476261625</v>
+        <v>7.011399759229294</v>
       </c>
       <c r="D3">
-        <v>3.679005874068882</v>
+        <v>3.67242745343628</v>
       </c>
       <c r="E3">
-        <v>6.89351818373262</v>
+        <v>6.890384164486893</v>
       </c>
       <c r="F3">
-        <v>34.10321193982001</v>
+        <v>34.06679291741687</v>
       </c>
       <c r="G3">
-        <v>26.72990314912776</v>
+        <v>26.76420762486507</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>26.5454318477309</v>
       </c>
       <c r="I3">
-        <v>4.810127905894792</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>57.44709268316097</v>
+        <v>4.810612414896885</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>57.44348192777539</v>
       </c>
       <c r="L3">
-        <v>35.8862877507291</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>35.88474716915529</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -491,37 +500,40 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>6.635673724362418</v>
+        <v>6.63537309111976</v>
       </c>
       <c r="D4">
-        <v>3.41601986542115</v>
+        <v>3.409945974501504</v>
       </c>
       <c r="E4">
-        <v>6.762856223173451</v>
+        <v>6.760041554568877</v>
       </c>
       <c r="F4">
-        <v>32.15582404794245</v>
+        <v>32.12258694870773</v>
       </c>
       <c r="G4">
-        <v>25.1248710322576</v>
+        <v>25.15727057400352</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>25.05205622276864</v>
       </c>
       <c r="I4">
-        <v>4.901356390734881</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>54.5395781863506</v>
+        <v>4.901761282707386</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>54.5365925770358</v>
       </c>
       <c r="L4">
-        <v>34.06329458720639</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>34.06212061226613</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -529,37 +541,40 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>6.479305903558105</v>
+        <v>6.479035694679261</v>
       </c>
       <c r="D5">
-        <v>3.308903389944087</v>
+        <v>3.303033765509207</v>
       </c>
       <c r="E5">
-        <v>6.709955627639216</v>
+        <v>6.707277499797043</v>
       </c>
       <c r="F5">
-        <v>31.4756123967051</v>
+        <v>31.4432672091209</v>
       </c>
       <c r="G5">
-        <v>24.51389223325297</v>
+        <v>24.50692431546378</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>24.54517414975826</v>
       </c>
       <c r="I5">
-        <v>4.940358394651147</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>53.32444072472288</v>
+        <v>4.940735105181317</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>53.3216950153374</v>
       </c>
       <c r="L5">
-        <v>33.3019474953914</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>33.30091329860235</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -567,37 +582,40 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>6.453146001716665</v>
+        <v>6.452880704349202</v>
       </c>
       <c r="D6">
-        <v>3.291109267522756</v>
+        <v>3.285273514245884</v>
       </c>
       <c r="E6">
-        <v>6.701192581977964</v>
+        <v>6.698537510641889</v>
       </c>
       <c r="F6">
-        <v>31.36360172463079</v>
+        <v>31.33140399940001</v>
       </c>
       <c r="G6">
-        <v>24.43074311466178</v>
+        <v>24.39917834441373</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>24.4619284481724</v>
       </c>
       <c r="I6">
-        <v>4.946938987945034</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>53.12079249572559</v>
+        <v>4.947311256442961</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>53.11808582875658</v>
       </c>
       <c r="L6">
-        <v>33.17438162107442</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>33.17337012090631</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -605,37 +623,40 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>6.633577809915886</v>
+        <v>6.633277596766344</v>
       </c>
       <c r="D7">
-        <v>3.414575534519042</v>
+        <v>3.408504402258036</v>
       </c>
       <c r="E7">
-        <v>6.762141381967473</v>
+        <v>6.759328528987192</v>
       </c>
       <c r="F7">
-        <v>32.14658711804354</v>
+        <v>32.11336209369116</v>
       </c>
       <c r="G7">
-        <v>25.116093793582</v>
+        <v>25.14848291476472</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>25.04515802400265</v>
       </c>
       <c r="I7">
-        <v>4.901875267923645</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>54.52331519480116</v>
+        <v>4.902279763485101</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>54.52033287616508</v>
       </c>
       <c r="L7">
-        <v>34.05310291184632</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>34.05193085781922</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -643,37 +664,40 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>7.403353775001031</v>
+        <v>7.402874620733881</v>
       </c>
       <c r="D8">
-        <v>3.960952290251376</v>
+        <v>3.953827223192696</v>
       </c>
       <c r="E8">
-        <v>7.034129004686246</v>
+        <v>7.030676249488021</v>
       </c>
       <c r="F8">
-        <v>36.21348616945169</v>
+        <v>36.17467127632699</v>
       </c>
       <c r="G8">
-        <v>28.46148810235859</v>
+        <v>28.497835262461</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>28.191898179883</v>
       </c>
       <c r="I8">
-        <v>4.719671268614768</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>60.45086798798216</v>
+        <v>4.720257350756222</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>60.44652784707439</v>
       </c>
       <c r="L8">
-        <v>37.77159956096261</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>37.76962746126389</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -681,37 +705,40 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>8.841662784999341</v>
+        <v>8.840680418998549</v>
       </c>
       <c r="D9">
-        <v>5.070999730728556</v>
+        <v>5.061635377144825</v>
       </c>
       <c r="E9">
-        <v>7.579679862600666</v>
+        <v>7.575173321893539</v>
       </c>
       <c r="F9">
-        <v>44.59949494899853</v>
+        <v>44.55048765546336</v>
       </c>
       <c r="G9">
-        <v>35.30078564080171</v>
+        <v>35.34478542928237</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>34.78703103075739</v>
       </c>
       <c r="I9">
-        <v>4.862463211817002</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>71.2698534280224</v>
+        <v>4.865764466359277</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>71.26197647729012</v>
       </c>
       <c r="L9">
-        <v>44.58018762461647</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>44.57608175098985</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -719,37 +746,40 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>9.887490559254729</v>
+        <v>9.885939356628642</v>
       </c>
       <c r="D10">
-        <v>5.956319870866823</v>
+        <v>5.945011305836599</v>
       </c>
       <c r="E10">
-        <v>7.9919370368562</v>
+        <v>7.986765360626226</v>
       </c>
       <c r="F10">
-        <v>51.25898987436121</v>
+        <v>51.20066968555295</v>
       </c>
       <c r="G10">
-        <v>40.70652509818684</v>
+        <v>40.75567782858081</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>40.06588795959367</v>
       </c>
       <c r="I10">
-        <v>5.455667085368802</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>78.90867669462287</v>
+        <v>5.459336147174442</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>78.89706098078003</v>
       </c>
       <c r="L10">
-        <v>49.40692439478568</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>49.40051460648048</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -757,37 +787,40 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>10.37226021759412</v>
+        <v>10.37036045642113</v>
       </c>
       <c r="D11">
-        <v>6.390695989527054</v>
+        <v>6.378355489189873</v>
       </c>
       <c r="E11">
-        <v>8.183848246124633</v>
+        <v>8.178389672582524</v>
       </c>
       <c r="F11">
-        <v>54.49514812474418</v>
+        <v>54.43172238590356</v>
       </c>
       <c r="G11">
-        <v>43.32968607894884</v>
+        <v>43.3808872336276</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>42.64084306123398</v>
       </c>
       <c r="I11">
-        <v>5.732253516463902</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>82.37857579352378</v>
+        <v>5.736070565627054</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>82.3647498358464</v>
       </c>
       <c r="L11">
-        <v>51.60565496455455</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>51.59786782916094</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -795,37 +828,40 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>10.55861629012637</v>
+        <v>10.55656423578002</v>
       </c>
       <c r="D12">
-        <v>6.561921692309985</v>
+        <v>6.549156383821162</v>
       </c>
       <c r="E12">
-        <v>8.257420572063973</v>
+        <v>8.251854226208552</v>
       </c>
       <c r="F12">
-        <v>55.7638147439575</v>
+        <v>55.69825643505688</v>
       </c>
       <c r="G12">
-        <v>44.35767125055614</v>
+        <v>44.40957128483874</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>43.65178929073056</v>
       </c>
       <c r="I12">
-        <v>5.838799222821645</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>83.69985642768688</v>
+        <v>5.842667666948837</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>83.68507916601482</v>
       </c>
       <c r="L12">
-        <v>52.44401894117392</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>52.43563623512474</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -833,37 +869,40 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>10.51832612496229</v>
+        <v>10.51630794550037</v>
       </c>
       <c r="D13">
-        <v>6.524699369233475</v>
+        <v>6.512027361476972</v>
       </c>
       <c r="E13">
-        <v>8.241529615109908</v>
+        <v>8.235986474509835</v>
       </c>
       <c r="F13">
-        <v>55.48837643393814</v>
+        <v>55.42328799909385</v>
       </c>
       <c r="G13">
-        <v>44.13450028331039</v>
+        <v>44.1862540681777</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>43.43223649878248</v>
       </c>
       <c r="I13">
-        <v>5.815754965618791</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>83.41480248052009</v>
+        <v>5.819612594445452</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>83.40023613928599</v>
       </c>
       <c r="L13">
-        <v>52.26309533549482</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>52.25484480807128</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -871,37 +910,40 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>10.38752507300459</v>
+        <v>10.3856132495944</v>
       </c>
       <c r="D14">
-        <v>6.404631595895196</v>
+        <v>6.39225693184964</v>
       </c>
       <c r="E14">
-        <v>8.189881009742848</v>
+        <v>8.184413563819835</v>
       </c>
       <c r="F14">
-        <v>54.59855555749203</v>
+        <v>54.53495896430296</v>
       </c>
       <c r="G14">
-        <v>43.41348212382121</v>
+        <v>43.46474260952234</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>42.7232138654996</v>
       </c>
       <c r="I14">
-        <v>5.740976762620012</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>82.48707301707449</v>
+        <v>5.744798149392145</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>82.47317141883889</v>
       </c>
       <c r="L14">
-        <v>51.67447334036732</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>51.66663890604957</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -909,37 +951,40 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>10.30782383341671</v>
+        <v>10.30597421050535</v>
       </c>
       <c r="D15">
-        <v>6.332046097339294</v>
+        <v>6.319848613141072</v>
       </c>
       <c r="E15">
-        <v>8.1583722629356</v>
+        <v>8.152951237623608</v>
       </c>
       <c r="F15">
-        <v>54.05965060427462</v>
+        <v>53.99693884678543</v>
       </c>
       <c r="G15">
-        <v>42.97676775174067</v>
+        <v>43.02771460499166</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>42.29400064995838</v>
       </c>
       <c r="I15">
-        <v>5.695439369785941</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>81.92006197202511</v>
+        <v>5.699237871437622</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>81.906550989697</v>
       </c>
       <c r="L15">
-        <v>51.31487242858275</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>51.30728214220879</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -947,37 +992,40 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>9.85610421237468</v>
+        <v>9.854573450090598</v>
       </c>
       <c r="D16">
-        <v>5.928734723424542</v>
+        <v>5.917489701089517</v>
       </c>
       <c r="E16">
-        <v>7.979503468775236</v>
+        <v>7.974350759243134</v>
       </c>
       <c r="F16">
-        <v>51.05267543363875</v>
+        <v>50.99466605637701</v>
       </c>
       <c r="G16">
-        <v>40.53923158754766</v>
+        <v>40.58824210728878</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>39.90192345286159</v>
       </c>
       <c r="I16">
-        <v>5.437791426095997</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>78.68242095889431</v>
+        <v>5.441450298872781</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>78.67093647175368</v>
       </c>
       <c r="L16">
-        <v>49.26369799696865</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>49.2573696725469</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -985,37 +1033,40 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>9.582172731922986</v>
+        <v>9.58081060242945</v>
       </c>
       <c r="D17">
-        <v>5.690698888428638</v>
+        <v>5.679993418397436</v>
       </c>
       <c r="E17">
-        <v>7.871048392534228</v>
+        <v>7.866063574903112</v>
       </c>
       <c r="F17">
-        <v>49.26875757413514</v>
+        <v>49.2133701827367</v>
       </c>
       <c r="G17">
-        <v>39.09232943223518</v>
+        <v>39.14005880633989</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>38.48523953195798</v>
       </c>
       <c r="I17">
-        <v>5.2819585403397</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>76.69968203345839</v>
+        <v>5.285525867738903</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>76.6892880103315</v>
       </c>
       <c r="L17">
-        <v>48.00928031273646</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>48.00362741341571</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1023,37 +1074,40 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>9.425347372609828</v>
+        <v>9.424074396738517</v>
       </c>
       <c r="D18">
-        <v>5.556593697794191</v>
+        <v>5.546185736245126</v>
       </c>
       <c r="E18">
-        <v>7.809057627673583</v>
+        <v>7.804170970032817</v>
       </c>
       <c r="F18">
-        <v>48.26108478512996</v>
+        <v>48.20712982126411</v>
       </c>
       <c r="G18">
-        <v>38.27467771347827</v>
+        <v>38.3216452968685</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>37.68587301098108</v>
       </c>
       <c r="I18">
-        <v>5.192896892194946</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>75.5581654207235</v>
+        <v>5.196409906972298</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>75.54835404178938</v>
       </c>
       <c r="L18">
-        <v>47.2876440420078</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>47.28235083739861</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1061,37 +1115,40 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>9.372339139019321</v>
+        <v>9.371095161128142</v>
       </c>
       <c r="D19">
-        <v>5.511617865959988</v>
+        <v>5.501308711046902</v>
       </c>
       <c r="E19">
-        <v>7.788129268933647</v>
+        <v>7.783276148868727</v>
       </c>
       <c r="F19">
-        <v>47.92274427601853</v>
+        <v>47.86926291426957</v>
       </c>
       <c r="G19">
-        <v>38.00007522826159</v>
+        <v>38.04678129135808</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>37.41762143723595</v>
       </c>
       <c r="I19">
-        <v>5.162819388152477</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>75.17128512700052</v>
+        <v>5.166313765306146</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>75.16166425515866</v>
       </c>
       <c r="L19">
-        <v>47.04316006508666</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>47.03798427657571</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1099,37 +1156,40 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>9.611248556621826</v>
+        <v>9.609869326955476</v>
       </c>
       <c r="D20">
-        <v>5.71573484325211</v>
+        <v>5.704973334238217</v>
       </c>
       <c r="E20">
-        <v>7.88255172388449</v>
+        <v>7.877548876236571</v>
       </c>
       <c r="F20">
-        <v>49.45667669200064</v>
+        <v>49.40101841846227</v>
       </c>
       <c r="G20">
-        <v>39.24478216373951</v>
+        <v>39.29265066984799</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>38.63438294447793</v>
       </c>
       <c r="I20">
-        <v>5.298483244302948</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>76.9108138076367</v>
+        <v>5.302060497745361</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>76.90030853681174</v>
       </c>
       <c r="L20">
-        <v>48.14279689160369</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>48.13707521584994</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1137,37 +1197,40 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>10.42585367848881</v>
+        <v>10.42391125042797</v>
       </c>
       <c r="D21">
-        <v>6.439692999021104</v>
+        <v>6.427232065561399</v>
       </c>
       <c r="E21">
-        <v>8.205024193364524</v>
+        <v>8.199534506544522</v>
       </c>
       <c r="F21">
-        <v>54.85860485382283</v>
+        <v>54.79457631372426</v>
       </c>
       <c r="G21">
-        <v>43.62420743798046</v>
+        <v>43.67561531194824</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>42.9303841001058</v>
       </c>
       <c r="I21">
-        <v>5.762883376835819</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>82.7592893699552</v>
+        <v>5.766715557426037</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>82.7451960862668</v>
       </c>
       <c r="L21">
-        <v>51.8471554188728</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>51.83920107689991</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1175,37 +1238,40 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>10.97575431446099</v>
+        <v>10.97331750752943</v>
       </c>
       <c r="D22">
-        <v>6.954014478721181</v>
+        <v>6.940230947660031</v>
       </c>
       <c r="E22">
-        <v>8.421265299092846</v>
+        <v>8.415460943497481</v>
       </c>
       <c r="F22">
-        <v>58.65279177554356</v>
+        <v>58.58205255262845</v>
       </c>
       <c r="G22">
-        <v>46.69811177981573</v>
+        <v>46.75134371638585</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>45.95676316018961</v>
       </c>
       <c r="I22">
-        <v>6.077631980964189</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>86.63102361172491</v>
+        <v>6.081601391856794</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>86.61387521403309</v>
       </c>
       <c r="L22">
-        <v>54.30623133639519</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>54.29635803478309</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1213,37 +1279,40 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>10.67996521055881</v>
+        <v>10.67780780357884</v>
       </c>
       <c r="D23">
-        <v>6.674714781068598</v>
+        <v>6.661663356808199</v>
       </c>
       <c r="E23">
-        <v>8.305221402436645</v>
+        <v>8.299585440025677</v>
       </c>
       <c r="F23">
-        <v>56.5972358648234</v>
+        <v>56.5302314689368</v>
       </c>
       <c r="G23">
-        <v>45.03290330822487</v>
+        <v>45.0852264186045</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>44.31633549224547</v>
       </c>
       <c r="I23">
-        <v>5.908233572988145</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>84.55635899788</v>
+        <v>5.912133534202912</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>84.54092811858588</v>
       </c>
       <c r="L23">
-        <v>52.98782422341844</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>52.9790314607566</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1251,37 +1320,40 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>9.598101417630572</v>
+        <v>9.596729942756063</v>
       </c>
       <c r="D24">
-        <v>5.704407687898116</v>
+        <v>5.693671552792239</v>
       </c>
       <c r="E24">
-        <v>7.877349960132729</v>
+        <v>7.872355258669033</v>
       </c>
       <c r="F24">
-        <v>49.37166354208733</v>
+        <v>49.31612796311652</v>
       </c>
       <c r="G24">
-        <v>39.1758148329696</v>
+        <v>39.22362051398433</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>38.56690890388437</v>
       </c>
       <c r="I24">
-        <v>5.291010836647277</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>76.81536670916284</v>
+        <v>5.294583607649162</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>76.80491186867376</v>
       </c>
       <c r="L24">
-        <v>48.08243582754877</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>48.07674533302598</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1289,34 +1361,37 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>8.457395109857577</v>
+        <v>8.456573399955456</v>
       </c>
       <c r="D25">
-        <v>4.762639354217487</v>
+        <v>4.753914455883822</v>
       </c>
       <c r="E25">
-        <v>7.430514272916103</v>
+        <v>7.426272051339514</v>
       </c>
       <c r="F25">
-        <v>42.26747412795913</v>
+        <v>42.22143762440647</v>
       </c>
       <c r="G25">
-        <v>33.40374016442178</v>
+        <v>33.44571191161148</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>32.94614890978237</v>
       </c>
       <c r="I25">
-        <v>4.645860861684826</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>68.41354860881852</v>
+        <v>4.649016437095142</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>68.40676939604916</v>
       </c>
       <c r="L25">
-        <v>42.77973371643278</v>
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>42.77629608076598</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_41/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_41/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,8 +409,14 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -418,40 +424,46 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>7.605658603819957</v>
+        <v>1.797245189137787</v>
       </c>
       <c r="D2">
-        <v>4.10291294042897</v>
+        <v>8.095058402302266</v>
       </c>
       <c r="E2">
-        <v>7.104961925367148</v>
+        <v>11.54368378242714</v>
       </c>
       <c r="F2">
-        <v>37.29734257845207</v>
+        <v>39.88789477832724</v>
       </c>
       <c r="G2">
-        <v>29.41896234025417</v>
+        <v>1.954070969101567</v>
       </c>
       <c r="H2">
-        <v>29.07139254864262</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>4.675562852738118</v>
+        <v>7.081404545942107</v>
       </c>
       <c r="K2">
-        <v>61.99257892398273</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>9.576673116736528</v>
       </c>
       <c r="M2">
-        <v>38.74082284020861</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>100.5532558135312</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>33.3403043278977</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -459,40 +471,46 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>7.011399759229294</v>
+        <v>2.423378003112301</v>
       </c>
       <c r="D3">
-        <v>3.67242745343628</v>
+        <v>7.272498968043271</v>
       </c>
       <c r="E3">
-        <v>6.890384164486893</v>
+        <v>10.51868342074475</v>
       </c>
       <c r="F3">
-        <v>34.06679291741687</v>
+        <v>35.98693213580596</v>
       </c>
       <c r="G3">
-        <v>26.76420762486507</v>
+        <v>2.006763171905495</v>
       </c>
       <c r="H3">
-        <v>26.5454318477309</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>4.810612414896885</v>
+        <v>6.306977699513556</v>
       </c>
       <c r="K3">
-        <v>57.44348192777539</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>8.83368881204559</v>
       </c>
       <c r="M3">
-        <v>35.88474716915529</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>92.26086714543568</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>29.86734395360967</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -500,40 +518,46 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>6.63537309111976</v>
+        <v>2.798747563578693</v>
       </c>
       <c r="D4">
-        <v>3.409945974501504</v>
+        <v>6.78836156205486</v>
       </c>
       <c r="E4">
-        <v>6.760041554568877</v>
+        <v>9.901932882654258</v>
       </c>
       <c r="F4">
-        <v>32.12258694870773</v>
+        <v>34.66477836003018</v>
       </c>
       <c r="G4">
-        <v>25.15727057400352</v>
+        <v>2.036401914003485</v>
       </c>
       <c r="H4">
-        <v>25.05205622276864</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>4.901761282707386</v>
+        <v>5.862387126514838</v>
       </c>
       <c r="K4">
-        <v>54.5365925770358</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>8.384163962193286</v>
       </c>
       <c r="M4">
-        <v>34.06212061226613</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>87.25599421535428</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>28.75973728779756</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -541,40 +565,46 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>6.479035694679261</v>
+        <v>2.948624385298566</v>
       </c>
       <c r="D5">
-        <v>3.303033765509207</v>
+        <v>6.593469777955328</v>
       </c>
       <c r="E5">
-        <v>6.707277499797043</v>
+        <v>9.650821921002088</v>
       </c>
       <c r="F5">
-        <v>31.4432672091209</v>
+        <v>34.27586536237637</v>
       </c>
       <c r="G5">
-        <v>24.50692431546378</v>
+        <v>2.048046449291831</v>
       </c>
       <c r="H5">
-        <v>24.54517414975826</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>4.940735105181317</v>
+        <v>5.68555743216013</v>
       </c>
       <c r="K5">
-        <v>53.3216950153374</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>8.200865009086593</v>
       </c>
       <c r="M5">
-        <v>33.30091329860235</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>85.2164851211048</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>28.41985010064252</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -582,40 +612,46 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>6.452880704349202</v>
+        <v>2.97333853540815</v>
       </c>
       <c r="D6">
-        <v>3.285273514245884</v>
+        <v>6.561192000274955</v>
       </c>
       <c r="E6">
-        <v>6.698537510641889</v>
+        <v>9.609075320487804</v>
       </c>
       <c r="F6">
-        <v>31.33140399940001</v>
+        <v>34.21939523129648</v>
       </c>
       <c r="G6">
-        <v>24.39917834441373</v>
+        <v>2.049959135587983</v>
       </c>
       <c r="H6">
-        <v>24.4619284481724</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>4.947311256442961</v>
+        <v>5.656384321256577</v>
       </c>
       <c r="K6">
-        <v>53.11808582875658</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>8.170383719831593</v>
       </c>
       <c r="M6">
-        <v>33.17337012090631</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>84.87736468676196</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>28.36944780467652</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -623,40 +659,46 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>6.633277596766344</v>
+        <v>2.800780845797047</v>
       </c>
       <c r="D7">
-        <v>3.408504402258036</v>
+        <v>6.785726350945549</v>
       </c>
       <c r="E7">
-        <v>6.759328528987192</v>
+        <v>9.898548397634684</v>
       </c>
       <c r="F7">
-        <v>32.11336209369116</v>
+        <v>34.65897014529033</v>
       </c>
       <c r="G7">
-        <v>25.14848291476472</v>
+        <v>2.036560461272156</v>
       </c>
       <c r="H7">
-        <v>25.04515802400265</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>4.902279763485101</v>
+        <v>5.859988195957994</v>
       </c>
       <c r="K7">
-        <v>54.52033287616508</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>8.381694175254397</v>
       </c>
       <c r="M7">
-        <v>34.05193085781922</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>87.22851045530746</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>28.75473442234497</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -664,40 +706,46 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>7.402874620733881</v>
+        <v>2.013316870209423</v>
       </c>
       <c r="D8">
-        <v>3.953827223192696</v>
+        <v>7.804874799771764</v>
       </c>
       <c r="E8">
-        <v>7.030676249488021</v>
+        <v>11.18536126548914</v>
       </c>
       <c r="F8">
-        <v>36.17467127632699</v>
+        <v>38.25161477162957</v>
       </c>
       <c r="G8">
-        <v>28.497835262461</v>
+        <v>1.972996319981535</v>
       </c>
       <c r="H8">
-        <v>28.191898179883</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>4.720257350756222</v>
+        <v>6.805302576683046</v>
       </c>
       <c r="K8">
-        <v>60.44652784707439</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>9.317708869716448</v>
       </c>
       <c r="M8">
-        <v>37.76962746126389</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>97.65910304184146</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>31.91200617523312</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -705,40 +753,46 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>8.840680418998549</v>
+        <v>3.000422237516213</v>
       </c>
       <c r="D9">
-        <v>5.061635377144825</v>
+        <v>10.28673157893578</v>
       </c>
       <c r="E9">
-        <v>7.575173321893539</v>
+        <v>14.13362158067489</v>
       </c>
       <c r="F9">
-        <v>44.55048765546336</v>
+        <v>56.28912497849329</v>
       </c>
       <c r="G9">
-        <v>35.34478542928237</v>
+        <v>1.799148154830885</v>
       </c>
       <c r="H9">
-        <v>34.78703103075739</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>4.865764466359277</v>
+        <v>9.285053727960207</v>
       </c>
       <c r="K9">
-        <v>71.26197647729012</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>11.40583162118921</v>
       </c>
       <c r="M9">
-        <v>44.57608175098985</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>121.493550566694</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>46.8493251830064</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -746,40 +800,46 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>9.885939356628642</v>
+        <v>3.000422237516213</v>
       </c>
       <c r="D10">
-        <v>5.945011305836599</v>
+        <v>10.28673157893578</v>
       </c>
       <c r="E10">
-        <v>7.986765360626226</v>
+        <v>14.13362158067489</v>
       </c>
       <c r="F10">
-        <v>51.20066968555295</v>
+        <v>56.28912497849329</v>
       </c>
       <c r="G10">
-        <v>40.75567782858081</v>
+        <v>1.799148154830885</v>
       </c>
       <c r="H10">
-        <v>40.06588795959367</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>5.459336147174442</v>
+        <v>9.285053727960207</v>
       </c>
       <c r="K10">
-        <v>78.89706098078003</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>11.40583162118921</v>
       </c>
       <c r="M10">
-        <v>49.40051460648048</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>121.493550566694</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>46.8493251830064</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -787,40 +847,46 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>10.37036045642113</v>
+        <v>3.000422237516213</v>
       </c>
       <c r="D11">
-        <v>6.378355489189873</v>
+        <v>10.28673157893578</v>
       </c>
       <c r="E11">
-        <v>8.178389672582524</v>
+        <v>14.13362158067489</v>
       </c>
       <c r="F11">
-        <v>54.43172238590356</v>
+        <v>56.28912497849329</v>
       </c>
       <c r="G11">
-        <v>43.3808872336276</v>
+        <v>1.799148154830885</v>
       </c>
       <c r="H11">
-        <v>42.64084306123398</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>5.736070565627054</v>
+        <v>9.285053727960207</v>
       </c>
       <c r="K11">
-        <v>82.3647498358464</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>11.40583162118921</v>
       </c>
       <c r="M11">
-        <v>51.59786782916094</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>121.493550566694</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>46.8493251830064</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -828,40 +894,46 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>10.55656423578002</v>
+        <v>3.000422237516213</v>
       </c>
       <c r="D12">
-        <v>6.549156383821162</v>
+        <v>10.28673157893578</v>
       </c>
       <c r="E12">
-        <v>8.251854226208552</v>
+        <v>14.13362158067489</v>
       </c>
       <c r="F12">
-        <v>55.69825643505688</v>
+        <v>56.28912497849329</v>
       </c>
       <c r="G12">
-        <v>44.40957128483874</v>
+        <v>1.799148154830885</v>
       </c>
       <c r="H12">
-        <v>43.65178929073056</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>5.842667666948837</v>
+        <v>9.285053727960207</v>
       </c>
       <c r="K12">
-        <v>83.68507916601482</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>11.40583162118921</v>
       </c>
       <c r="M12">
-        <v>52.43563623512474</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>121.493550566694</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>46.8493251830064</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -869,40 +941,46 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>10.51630794550037</v>
+        <v>3.000422237516213</v>
       </c>
       <c r="D13">
-        <v>6.512027361476972</v>
+        <v>10.28673157893578</v>
       </c>
       <c r="E13">
-        <v>8.235986474509835</v>
+        <v>14.13362158067489</v>
       </c>
       <c r="F13">
-        <v>55.42328799909385</v>
+        <v>56.28912497849329</v>
       </c>
       <c r="G13">
-        <v>44.1862540681777</v>
+        <v>1.799148154830885</v>
       </c>
       <c r="H13">
-        <v>43.43223649878248</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>5.819612594445452</v>
+        <v>9.285053727960207</v>
       </c>
       <c r="K13">
-        <v>83.40023613928599</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>11.40583162118921</v>
       </c>
       <c r="M13">
-        <v>52.25484480807128</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>121.493550566694</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>46.8493251830064</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -910,40 +988,46 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>10.3856132495944</v>
+        <v>3.000422237516213</v>
       </c>
       <c r="D14">
-        <v>6.39225693184964</v>
+        <v>10.28673157893578</v>
       </c>
       <c r="E14">
-        <v>8.184413563819835</v>
+        <v>14.13362158067489</v>
       </c>
       <c r="F14">
-        <v>54.53495896430296</v>
+        <v>56.28912497849329</v>
       </c>
       <c r="G14">
-        <v>43.46474260952234</v>
+        <v>1.799148154830885</v>
       </c>
       <c r="H14">
-        <v>42.7232138654996</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>5.744798149392145</v>
+        <v>9.285053727960207</v>
       </c>
       <c r="K14">
-        <v>82.47317141883889</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>11.40583162118921</v>
       </c>
       <c r="M14">
-        <v>51.66663890604957</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>121.493550566694</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>46.8493251830064</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -951,40 +1035,46 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>10.30597421050535</v>
+        <v>3.000422237516213</v>
       </c>
       <c r="D15">
-        <v>6.319848613141072</v>
+        <v>10.28673157893578</v>
       </c>
       <c r="E15">
-        <v>8.152951237623608</v>
+        <v>14.13362158067489</v>
       </c>
       <c r="F15">
-        <v>53.99693884678543</v>
+        <v>56.28912497849329</v>
       </c>
       <c r="G15">
-        <v>43.02771460499166</v>
+        <v>1.799148154830885</v>
       </c>
       <c r="H15">
-        <v>42.29400064995838</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>5.699237871437622</v>
+        <v>9.285053727960207</v>
       </c>
       <c r="K15">
-        <v>81.906550989697</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>11.40583162118921</v>
       </c>
       <c r="M15">
-        <v>51.30728214220879</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>121.493550566694</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>46.8493251830064</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -992,40 +1082,46 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>9.854573450090598</v>
+        <v>3.000422237516213</v>
       </c>
       <c r="D16">
-        <v>5.917489701089517</v>
+        <v>10.28673157893578</v>
       </c>
       <c r="E16">
-        <v>7.974350759243134</v>
+        <v>14.13362158067489</v>
       </c>
       <c r="F16">
-        <v>50.99466605637701</v>
+        <v>56.28912497849329</v>
       </c>
       <c r="G16">
-        <v>40.58824210728878</v>
+        <v>1.799148154830885</v>
       </c>
       <c r="H16">
-        <v>39.90192345286159</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>5.441450298872781</v>
+        <v>9.285053727960207</v>
       </c>
       <c r="K16">
-        <v>78.67093647175368</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>11.40583162118921</v>
       </c>
       <c r="M16">
-        <v>49.2573696725469</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>121.493550566694</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>46.8493251830064</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1033,40 +1129,46 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>9.58081060242945</v>
+        <v>3.000422237516213</v>
       </c>
       <c r="D17">
-        <v>5.679993418397436</v>
+        <v>10.28673157893578</v>
       </c>
       <c r="E17">
-        <v>7.866063574903112</v>
+        <v>14.13362158067489</v>
       </c>
       <c r="F17">
-        <v>49.2133701827367</v>
+        <v>56.28912497849329</v>
       </c>
       <c r="G17">
-        <v>39.14005880633989</v>
+        <v>1.799148154830885</v>
       </c>
       <c r="H17">
-        <v>38.48523953195798</v>
+        <v>0</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>5.285525867738903</v>
+        <v>9.285053727960207</v>
       </c>
       <c r="K17">
-        <v>76.6892880103315</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>11.40583162118921</v>
       </c>
       <c r="M17">
-        <v>48.00362741341571</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>121.493550566694</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>46.8493251830064</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1074,40 +1176,46 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>9.424074396738517</v>
+        <v>3.000422237516213</v>
       </c>
       <c r="D18">
-        <v>5.546185736245126</v>
+        <v>10.28673157893578</v>
       </c>
       <c r="E18">
-        <v>7.804170970032817</v>
+        <v>14.13362158067489</v>
       </c>
       <c r="F18">
-        <v>48.20712982126411</v>
+        <v>56.28912497849329</v>
       </c>
       <c r="G18">
-        <v>38.3216452968685</v>
+        <v>1.799148154830885</v>
       </c>
       <c r="H18">
-        <v>37.68587301098108</v>
+        <v>0</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>5.196409906972298</v>
+        <v>9.285053727960207</v>
       </c>
       <c r="K18">
-        <v>75.54835404178938</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>11.40583162118921</v>
       </c>
       <c r="M18">
-        <v>47.28235083739861</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>121.493550566694</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>46.8493251830064</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1115,40 +1223,46 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>9.371095161128142</v>
+        <v>3.000422237516213</v>
       </c>
       <c r="D19">
-        <v>5.501308711046902</v>
+        <v>10.28673157893578</v>
       </c>
       <c r="E19">
-        <v>7.783276148868727</v>
+        <v>14.13362158067489</v>
       </c>
       <c r="F19">
-        <v>47.86926291426957</v>
+        <v>56.28912497849329</v>
       </c>
       <c r="G19">
-        <v>38.04678129135808</v>
+        <v>1.799148154830885</v>
       </c>
       <c r="H19">
-        <v>37.41762143723595</v>
+        <v>0</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>5.166313765306146</v>
+        <v>9.285053727960207</v>
       </c>
       <c r="K19">
-        <v>75.16166425515866</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>11.40583162118921</v>
       </c>
       <c r="M19">
-        <v>47.03798427657571</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>121.493550566694</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>46.8493251830064</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1156,40 +1270,46 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>9.609869326955476</v>
+        <v>3.000422237516213</v>
       </c>
       <c r="D20">
-        <v>5.704973334238217</v>
+        <v>10.28673157893578</v>
       </c>
       <c r="E20">
-        <v>7.877548876236571</v>
+        <v>14.13362158067489</v>
       </c>
       <c r="F20">
-        <v>49.40101841846227</v>
+        <v>56.28912497849329</v>
       </c>
       <c r="G20">
-        <v>39.29265066984799</v>
+        <v>1.799148154830885</v>
       </c>
       <c r="H20">
-        <v>38.63438294447793</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>5.302060497745361</v>
+        <v>9.285053727960207</v>
       </c>
       <c r="K20">
-        <v>76.90030853681174</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>11.40583162118921</v>
       </c>
       <c r="M20">
-        <v>48.13707521584994</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>121.493550566694</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>46.8493251830064</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1197,40 +1317,46 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>10.42391125042797</v>
+        <v>3.000422237516213</v>
       </c>
       <c r="D21">
-        <v>6.427232065561399</v>
+        <v>10.28673157893578</v>
       </c>
       <c r="E21">
-        <v>8.199534506544522</v>
+        <v>14.13362158067489</v>
       </c>
       <c r="F21">
-        <v>54.79457631372426</v>
+        <v>56.28912497849329</v>
       </c>
       <c r="G21">
-        <v>43.67561531194824</v>
+        <v>1.799148154830885</v>
       </c>
       <c r="H21">
-        <v>42.9303841001058</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>5.766715557426037</v>
+        <v>9.285053727960207</v>
       </c>
       <c r="K21">
-        <v>82.7451960862668</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>11.40583162118921</v>
       </c>
       <c r="M21">
-        <v>51.83920107689991</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>121.493550566694</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>46.8493251830064</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1238,40 +1364,46 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>10.97331750752943</v>
+        <v>3.000422237516213</v>
       </c>
       <c r="D22">
-        <v>6.940230947660031</v>
+        <v>10.28673157893578</v>
       </c>
       <c r="E22">
-        <v>8.415460943497481</v>
+        <v>14.13362158067489</v>
       </c>
       <c r="F22">
-        <v>58.58205255262845</v>
+        <v>56.28912497849329</v>
       </c>
       <c r="G22">
-        <v>46.75134371638585</v>
+        <v>1.799148154830885</v>
       </c>
       <c r="H22">
-        <v>45.95676316018961</v>
+        <v>0</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>6.081601391856794</v>
+        <v>9.285053727960207</v>
       </c>
       <c r="K22">
-        <v>86.61387521403309</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>11.40583162118921</v>
       </c>
       <c r="M22">
-        <v>54.29635803478309</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>121.493550566694</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>46.8493251830064</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1279,40 +1411,46 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>10.67780780357884</v>
+        <v>3.000422237516213</v>
       </c>
       <c r="D23">
-        <v>6.661663356808199</v>
+        <v>10.28673157893578</v>
       </c>
       <c r="E23">
-        <v>8.299585440025677</v>
+        <v>14.13362158067489</v>
       </c>
       <c r="F23">
-        <v>56.5302314689368</v>
+        <v>56.28912497849329</v>
       </c>
       <c r="G23">
-        <v>45.0852264186045</v>
+        <v>1.799148154830885</v>
       </c>
       <c r="H23">
-        <v>44.31633549224547</v>
+        <v>0</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>5.912133534202912</v>
+        <v>9.285053727960207</v>
       </c>
       <c r="K23">
-        <v>84.54092811858588</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>11.40583162118921</v>
       </c>
       <c r="M23">
-        <v>52.9790314607566</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>121.493550566694</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>46.8493251830064</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1320,40 +1458,46 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>9.596729942756063</v>
+        <v>3.000422237516213</v>
       </c>
       <c r="D24">
-        <v>5.693671552792239</v>
+        <v>10.28673157893578</v>
       </c>
       <c r="E24">
-        <v>7.872355258669033</v>
+        <v>14.13362158067489</v>
       </c>
       <c r="F24">
-        <v>49.31612796311652</v>
+        <v>56.28912497849329</v>
       </c>
       <c r="G24">
-        <v>39.22362051398433</v>
+        <v>1.799148154830885</v>
       </c>
       <c r="H24">
-        <v>38.56690890388437</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>5.294583607649162</v>
+        <v>9.285053727960207</v>
       </c>
       <c r="K24">
-        <v>76.80491186867376</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>11.40583162118921</v>
       </c>
       <c r="M24">
-        <v>48.07674533302598</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>121.493550566694</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>46.8493251830064</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1361,37 +1505,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>8.456573399955456</v>
+        <v>3.000422237516213</v>
       </c>
       <c r="D25">
-        <v>4.753914455883822</v>
+        <v>10.28673157893578</v>
       </c>
       <c r="E25">
-        <v>7.426272051339514</v>
+        <v>14.13362158067489</v>
       </c>
       <c r="F25">
-        <v>42.22143762440647</v>
+        <v>56.28912497849329</v>
       </c>
       <c r="G25">
-        <v>33.44571191161148</v>
+        <v>1.799148154830885</v>
       </c>
       <c r="H25">
-        <v>32.94614890978237</v>
+        <v>0</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>4.649016437095142</v>
+        <v>9.285053727960207</v>
       </c>
       <c r="K25">
-        <v>68.40676939604916</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>11.40583162118921</v>
       </c>
       <c r="M25">
-        <v>42.77629608076598</v>
+        <v>121.493550566694</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>46.8493251830064</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_41/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_41/res_line/loading_percent.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1.797245189137787</v>
+        <v>9.491735949196393</v>
       </c>
       <c r="D2">
-        <v>8.095058402302266</v>
+        <v>5.144397282034888</v>
       </c>
       <c r="E2">
-        <v>11.54368378242714</v>
+        <v>8.118701122183511</v>
       </c>
       <c r="F2">
-        <v>39.88789477832724</v>
+        <v>26.76525386425661</v>
       </c>
       <c r="G2">
-        <v>1.954070969101567</v>
+        <v>2.112061309113294</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>7.081404545942107</v>
+        <v>6.089512720713838</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>17.93770210091249</v>
       </c>
       <c r="L2">
-        <v>9.576673116736528</v>
+        <v>5.326432444616171</v>
       </c>
       <c r="M2">
-        <v>100.5532558135312</v>
+        <v>15.16837912674177</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>13.1496469673826</v>
       </c>
       <c r="O2">
-        <v>33.3403043278977</v>
+        <v>19.86930164749897</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,19 +471,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>2.423378003112301</v>
+        <v>9.203719049159231</v>
       </c>
       <c r="D3">
-        <v>7.272498968043271</v>
+        <v>5.006409182478269</v>
       </c>
       <c r="E3">
-        <v>10.51868342074475</v>
+        <v>8.078263280939915</v>
       </c>
       <c r="F3">
-        <v>35.98693213580596</v>
+        <v>26.4378909616674</v>
       </c>
       <c r="G3">
-        <v>2.006763171905495</v>
+        <v>2.118136635852651</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>6.306977699513556</v>
+        <v>6.138605180983887</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>16.84414182225185</v>
       </c>
       <c r="L3">
-        <v>8.83368881204559</v>
+        <v>5.355489554960832</v>
       </c>
       <c r="M3">
-        <v>92.26086714543568</v>
+        <v>14.50427891380939</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>13.31448868063647</v>
       </c>
       <c r="O3">
-        <v>29.86734395360967</v>
+        <v>19.76437031715596</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,19 +518,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>2.798747563578693</v>
+        <v>9.028018180877563</v>
       </c>
       <c r="D4">
-        <v>6.78836156205486</v>
+        <v>4.921383258525439</v>
       </c>
       <c r="E4">
-        <v>9.901932882654258</v>
+        <v>8.056910753675673</v>
       </c>
       <c r="F4">
-        <v>34.66477836003018</v>
+        <v>26.25818607029894</v>
       </c>
       <c r="G4">
-        <v>2.036401914003485</v>
+        <v>2.121982644585079</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>5.862387126514838</v>
+        <v>6.170514239006212</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>16.1398685737648</v>
       </c>
       <c r="L4">
-        <v>8.384163962193286</v>
+        <v>5.374200686113202</v>
       </c>
       <c r="M4">
-        <v>87.25599421535428</v>
+        <v>14.08591562407723</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>13.41907577639802</v>
       </c>
       <c r="O4">
-        <v>28.75973728779756</v>
+        <v>19.71695002949413</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>2.948624385298566</v>
+        <v>8.956802005588349</v>
       </c>
       <c r="D5">
-        <v>6.593469777955328</v>
+        <v>4.886704074040099</v>
       </c>
       <c r="E5">
-        <v>9.650821921002088</v>
+        <v>8.049071603416111</v>
       </c>
       <c r="F5">
-        <v>34.27586536237637</v>
+        <v>26.19021547801314</v>
       </c>
       <c r="G5">
-        <v>2.048046449291831</v>
+        <v>2.123579769173593</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>5.68555743216013</v>
+        <v>6.183957749713175</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>15.84476710755576</v>
       </c>
       <c r="L5">
-        <v>8.200865009086593</v>
+        <v>5.382045564361825</v>
       </c>
       <c r="M5">
-        <v>85.2164851211048</v>
+        <v>13.9129908773477</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>13.46254641346064</v>
       </c>
       <c r="O5">
-        <v>28.41985010064252</v>
+        <v>19.7017604178438</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,19 +612,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>2.97333853540815</v>
+        <v>8.945002656566924</v>
       </c>
       <c r="D6">
-        <v>6.561192000274955</v>
+        <v>4.88094514781074</v>
       </c>
       <c r="E6">
-        <v>9.609075320487804</v>
+        <v>8.04782162508957</v>
       </c>
       <c r="F6">
-        <v>34.21939523129648</v>
+        <v>26.17924368926647</v>
       </c>
       <c r="G6">
-        <v>2.049959135587983</v>
+        <v>2.123846794125464</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>5.656384321256577</v>
+        <v>6.186216524553451</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>15.79528146717177</v>
       </c>
       <c r="L6">
-        <v>8.170383719831593</v>
+        <v>5.38336151880547</v>
       </c>
       <c r="M6">
-        <v>84.87736468676196</v>
+        <v>13.88413687061385</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>13.46981612888522</v>
       </c>
       <c r="O6">
-        <v>28.36944780467652</v>
+        <v>19.69948364613664</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>2.800780845797047</v>
+        <v>9.027056052361743</v>
       </c>
       <c r="D7">
-        <v>6.785726350945549</v>
+        <v>4.920915624772129</v>
       </c>
       <c r="E7">
-        <v>9.898548397634684</v>
+        <v>8.056801557669035</v>
       </c>
       <c r="F7">
-        <v>34.65897014529033</v>
+        <v>26.25724823082201</v>
       </c>
       <c r="G7">
-        <v>2.036560461272156</v>
+        <v>2.122004062166601</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>5.859988195957994</v>
+        <v>6.170693764806717</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>16.13592131782447</v>
       </c>
       <c r="L7">
-        <v>8.381694175254397</v>
+        <v>5.374305592784258</v>
       </c>
       <c r="M7">
-        <v>87.22851045530746</v>
+        <v>14.08359304860176</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>13.41965858929581</v>
       </c>
       <c r="O7">
-        <v>28.75473442234497</v>
+        <v>19.71672862839616</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>2.013316870209423</v>
+        <v>9.392246673093672</v>
       </c>
       <c r="D8">
-        <v>7.804874799771764</v>
+        <v>5.096907752341407</v>
       </c>
       <c r="E8">
-        <v>11.18536126548914</v>
+        <v>8.104029617183009</v>
       </c>
       <c r="F8">
-        <v>38.25161477162957</v>
+        <v>26.64790623317848</v>
       </c>
       <c r="G8">
-        <v>1.972996319981535</v>
+        <v>2.114132519757738</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>6.805302576683046</v>
+        <v>6.106070855453516</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>17.56753153112603</v>
       </c>
       <c r="L8">
-        <v>9.317708869716448</v>
+        <v>5.33627149694767</v>
       </c>
       <c r="M8">
-        <v>97.65910304184146</v>
+        <v>14.94172503619916</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>13.20578533069477</v>
       </c>
       <c r="O8">
-        <v>31.91200617523312</v>
+        <v>19.82950748943418</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>3.000422237516213</v>
+        <v>10.11351992850915</v>
       </c>
       <c r="D9">
-        <v>10.28673157893578</v>
+        <v>5.437790854405961</v>
       </c>
       <c r="E9">
-        <v>14.13362158067489</v>
+        <v>8.22473392004806</v>
       </c>
       <c r="F9">
-        <v>56.28912497849329</v>
+        <v>27.58652657532734</v>
       </c>
       <c r="G9">
-        <v>1.799148154830885</v>
+        <v>2.099579192243545</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>9.285053727960207</v>
+        <v>5.993548348725724</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>20.28562272919397</v>
       </c>
       <c r="L9">
-        <v>11.40583162118921</v>
+        <v>5.268534810646815</v>
       </c>
       <c r="M9">
-        <v>121.493550566694</v>
+        <v>16.53196236708432</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>12.81308190287553</v>
       </c>
       <c r="O9">
-        <v>46.8493251830064</v>
+        <v>20.19167603392426</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>3.000422237516213</v>
+        <v>10.64182328209885</v>
       </c>
       <c r="D10">
-        <v>10.28673157893578</v>
+        <v>5.683394735096541</v>
       </c>
       <c r="E10">
-        <v>14.13362158067489</v>
+        <v>8.331197516996989</v>
       </c>
       <c r="F10">
-        <v>56.28912497849329</v>
+        <v>28.38535377030794</v>
       </c>
       <c r="G10">
-        <v>1.799148154830885</v>
+        <v>2.089372342472799</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>9.285053727960207</v>
+        <v>5.919831888149501</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>22.12542888467733</v>
       </c>
       <c r="L10">
-        <v>11.40583162118921</v>
+        <v>5.222866151672452</v>
       </c>
       <c r="M10">
-        <v>121.493550566694</v>
+        <v>17.63468310513643</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>12.54081143394859</v>
       </c>
       <c r="O10">
-        <v>46.8493251830064</v>
+        <v>20.55156260570634</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>3.000422237516213</v>
+        <v>10.88097453011849</v>
       </c>
       <c r="D11">
-        <v>10.28673157893578</v>
+        <v>5.793664508420256</v>
       </c>
       <c r="E11">
-        <v>14.13362158067489</v>
+        <v>8.383622646948387</v>
       </c>
       <c r="F11">
-        <v>56.28912497849329</v>
+        <v>28.77313735330582</v>
       </c>
       <c r="G11">
-        <v>1.799148154830885</v>
+        <v>2.084821901194724</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>9.285053727960207</v>
+        <v>5.888316830146885</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>22.9186310184086</v>
       </c>
       <c r="L11">
-        <v>11.40583162118921</v>
+        <v>5.202963105289195</v>
       </c>
       <c r="M11">
-        <v>121.493550566694</v>
+        <v>18.12068407363594</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>12.42049706595897</v>
       </c>
       <c r="O11">
-        <v>46.8493251830064</v>
+        <v>20.73719857853136</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>3.000422237516213</v>
+        <v>10.97130801908864</v>
       </c>
       <c r="D12">
-        <v>10.28673157893578</v>
+        <v>5.835181900040842</v>
       </c>
       <c r="E12">
-        <v>14.13362158067489</v>
+        <v>8.404059039430207</v>
       </c>
       <c r="F12">
-        <v>56.28912497849329</v>
+        <v>28.92353144269541</v>
       </c>
       <c r="G12">
-        <v>1.799148154830885</v>
+        <v>2.083110991695002</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>9.285053727960207</v>
+        <v>5.876680620579418</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>23.21279364768424</v>
       </c>
       <c r="L12">
-        <v>11.40583162118921</v>
+        <v>5.195550358076177</v>
       </c>
       <c r="M12">
-        <v>121.493550566694</v>
+        <v>18.30238603420986</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>12.37545101417894</v>
       </c>
       <c r="O12">
-        <v>46.8493251830064</v>
+        <v>20.81076426163597</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>3.000422237516213</v>
+        <v>10.95186405313214</v>
       </c>
       <c r="D13">
-        <v>10.28673157893578</v>
+        <v>5.826251469944211</v>
       </c>
       <c r="E13">
-        <v>14.13362158067489</v>
+        <v>8.399631562563316</v>
       </c>
       <c r="F13">
-        <v>56.28912497849329</v>
+        <v>28.89098292433431</v>
       </c>
       <c r="G13">
-        <v>1.799148154830885</v>
+        <v>2.083478940278502</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>9.285053727960207</v>
+        <v>5.879173309965831</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>23.14971510562851</v>
       </c>
       <c r="L13">
-        <v>11.40583162118921</v>
+        <v>5.19714132663592</v>
       </c>
       <c r="M13">
-        <v>121.493550566694</v>
+        <v>18.26335834160207</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>12.3851295101817</v>
       </c>
       <c r="O13">
-        <v>46.8493251830064</v>
+        <v>20.794773359481</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>3.000422237516213</v>
+        <v>10.88841118979042</v>
       </c>
       <c r="D14">
-        <v>10.28673157893578</v>
+        <v>5.797085124800676</v>
       </c>
       <c r="E14">
-        <v>14.13362158067489</v>
+        <v>8.385292198749228</v>
       </c>
       <c r="F14">
-        <v>56.28912497849329</v>
+        <v>28.7854390163414</v>
       </c>
       <c r="G14">
-        <v>1.799148154830885</v>
+        <v>2.084680904763542</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>9.285053727960207</v>
+        <v>5.887353496422326</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>22.9429558398707</v>
       </c>
       <c r="L14">
-        <v>11.40583162118921</v>
+        <v>5.202350774205409</v>
       </c>
       <c r="M14">
-        <v>121.493550566694</v>
+        <v>18.13568005097633</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>12.41678075579264</v>
       </c>
       <c r="O14">
-        <v>46.8493251830064</v>
+        <v>20.74318469620437</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>3.000422237516213</v>
+        <v>10.84951322286872</v>
       </c>
       <c r="D15">
-        <v>10.28673157893578</v>
+        <v>5.779187897897871</v>
       </c>
       <c r="E15">
-        <v>14.13362158067489</v>
+        <v>8.376585283841672</v>
       </c>
       <c r="F15">
-        <v>56.28912497849329</v>
+        <v>28.72125365817648</v>
       </c>
       <c r="G15">
-        <v>1.799148154830885</v>
+        <v>2.085418703622235</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>9.285053727960207</v>
+        <v>5.892403125140687</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>22.81550416755083</v>
       </c>
       <c r="L15">
-        <v>11.40583162118921</v>
+        <v>5.205557835387747</v>
       </c>
       <c r="M15">
-        <v>121.493550566694</v>
+        <v>18.05716693417629</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>12.43623522608401</v>
       </c>
       <c r="O15">
-        <v>46.8493251830064</v>
+        <v>20.71201430491168</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>3.000422237516213</v>
+        <v>10.62616527090523</v>
       </c>
       <c r="D16">
-        <v>10.28673157893578</v>
+        <v>5.676156392511663</v>
       </c>
       <c r="E16">
-        <v>14.13362158067489</v>
+        <v>8.327852623892836</v>
       </c>
       <c r="F16">
-        <v>56.28912497849329</v>
+        <v>28.36050565531589</v>
       </c>
       <c r="G16">
-        <v>1.799148154830885</v>
+        <v>2.089671498826764</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>9.285053727960207</v>
+        <v>5.921932722732226</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>22.07271824082946</v>
       </c>
       <c r="L16">
-        <v>11.40583162118921</v>
+        <v>5.224184298644275</v>
       </c>
       <c r="M16">
-        <v>121.493550566694</v>
+        <v>17.60259921106561</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>12.5487459297129</v>
       </c>
       <c r="O16">
-        <v>46.8493251830064</v>
+        <v>20.53988210591472</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>3.000422237516213</v>
+        <v>10.48880236377534</v>
       </c>
       <c r="D17">
-        <v>10.28673157893578</v>
+        <v>5.612554355642938</v>
       </c>
       <c r="E17">
-        <v>14.13362158067489</v>
+        <v>8.298986740483674</v>
       </c>
       <c r="F17">
-        <v>56.28912497849329</v>
+        <v>28.14547666243346</v>
       </c>
       <c r="G17">
-        <v>1.799148154830885</v>
+        <v>2.092303445818145</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>9.285053727960207</v>
+        <v>5.940570373515006</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>21.60589976569183</v>
       </c>
       <c r="L17">
-        <v>11.40583162118921</v>
+        <v>5.235833438147282</v>
       </c>
       <c r="M17">
-        <v>121.493550566694</v>
+        <v>17.31966323189175</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>12.61867792088325</v>
       </c>
       <c r="O17">
-        <v>46.8493251830064</v>
+        <v>20.43998425030701</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>3.000422237516213</v>
+        <v>10.40968701778613</v>
       </c>
       <c r="D18">
-        <v>10.28673157893578</v>
+        <v>5.575836593584823</v>
       </c>
       <c r="E18">
-        <v>14.13362158067489</v>
+        <v>8.282759243030666</v>
       </c>
       <c r="F18">
-        <v>56.28912497849329</v>
+        <v>28.0240915586677</v>
       </c>
       <c r="G18">
-        <v>1.799148154830885</v>
+        <v>2.093826067556379</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>9.285053727960207</v>
+        <v>5.951479788738894</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>21.33327642255943</v>
       </c>
       <c r="L18">
-        <v>11.40583162118921</v>
+        <v>5.242615855211297</v>
       </c>
       <c r="M18">
-        <v>121.493550566694</v>
+        <v>17.15545839662039</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>12.65923401674617</v>
       </c>
       <c r="O18">
-        <v>46.8493251830064</v>
+        <v>20.3845823969965</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>3.000422237516213</v>
+        <v>10.38288334669443</v>
       </c>
       <c r="D19">
-        <v>10.28673157893578</v>
+        <v>5.563382281141946</v>
       </c>
       <c r="E19">
-        <v>14.13362158067489</v>
+        <v>8.277329066203869</v>
       </c>
       <c r="F19">
-        <v>56.28912497849329</v>
+        <v>27.98338530725698</v>
       </c>
       <c r="G19">
-        <v>1.799148154830885</v>
+        <v>2.094343143609545</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>9.285053727960207</v>
+        <v>5.955205865328853</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>21.24026045393783</v>
       </c>
       <c r="L19">
-        <v>11.40583162118921</v>
+        <v>5.244926411028636</v>
       </c>
       <c r="M19">
-        <v>121.493550566694</v>
+        <v>17.0996124489253</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>12.67302269869889</v>
       </c>
       <c r="O19">
-        <v>46.8493251830064</v>
+        <v>20.36617387649439</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>3.000422237516213</v>
+        <v>10.50343649620089</v>
       </c>
       <c r="D20">
-        <v>10.28673157893578</v>
+        <v>5.619339158716195</v>
       </c>
       <c r="E20">
-        <v>14.13362158067489</v>
+        <v>8.30202064004725</v>
       </c>
       <c r="F20">
-        <v>56.28912497849329</v>
+        <v>28.16812914791365</v>
       </c>
       <c r="G20">
-        <v>1.799148154830885</v>
+        <v>2.092022367901256</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>9.285053727960207</v>
+        <v>5.938566696047667</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>21.65601937742267</v>
       </c>
       <c r="L20">
-        <v>11.40583162118921</v>
+        <v>5.234584875288234</v>
       </c>
       <c r="M20">
-        <v>121.493550566694</v>
+        <v>17.34993484165509</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>12.61119904055362</v>
       </c>
       <c r="O20">
-        <v>46.8493251830064</v>
+        <v>20.45040481718367</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>3.000422237516213</v>
+        <v>10.90705543869034</v>
       </c>
       <c r="D21">
-        <v>10.28673157893578</v>
+        <v>5.805658703940932</v>
       </c>
       <c r="E21">
-        <v>14.13362158067489</v>
+        <v>8.389488086919405</v>
       </c>
       <c r="F21">
-        <v>56.28912497849329</v>
+        <v>28.81634319282378</v>
       </c>
       <c r="G21">
-        <v>1.799148154830885</v>
+        <v>2.084327535420469</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>9.285053727960207</v>
+        <v>5.884942629242188</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>23.00385379190912</v>
       </c>
       <c r="L21">
-        <v>11.40583162118921</v>
+        <v>5.200817275214582</v>
       </c>
       <c r="M21">
-        <v>121.493550566694</v>
+        <v>18.17324625731256</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>12.40747000827898</v>
       </c>
       <c r="O21">
-        <v>46.8493251830064</v>
+        <v>20.75824789986255</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>3.000422237516213</v>
+        <v>11.16949507279935</v>
       </c>
       <c r="D22">
-        <v>10.28673157893578</v>
+        <v>5.926022783098187</v>
       </c>
       <c r="E22">
-        <v>14.13362158067489</v>
+        <v>8.450062415187013</v>
       </c>
       <c r="F22">
-        <v>56.28912497849329</v>
+        <v>29.26069162799417</v>
       </c>
       <c r="G22">
-        <v>1.799148154830885</v>
+        <v>2.079369321384016</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>9.285053727960207</v>
+        <v>5.851636477400973</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>23.84861043136799</v>
       </c>
       <c r="L22">
-        <v>11.40583162118921</v>
+        <v>5.179470969794043</v>
       </c>
       <c r="M22">
-        <v>121.493550566694</v>
+        <v>18.69768524573549</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>12.2773233137055</v>
       </c>
       <c r="O22">
-        <v>46.8493251830064</v>
+        <v>20.97854847504816</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>3.000422237516213</v>
+        <v>11.02956637595028</v>
       </c>
       <c r="D23">
-        <v>10.28673157893578</v>
+        <v>5.861919821632744</v>
       </c>
       <c r="E23">
-        <v>14.13362158067489</v>
+        <v>8.417417591846583</v>
       </c>
       <c r="F23">
-        <v>56.28912497849329</v>
+        <v>29.02162722090111</v>
       </c>
       <c r="G23">
-        <v>1.799148154830885</v>
+        <v>2.082009515165927</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>9.285053727960207</v>
+        <v>5.869250644832563</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>23.40102551738796</v>
       </c>
       <c r="L23">
-        <v>11.40583162118921</v>
+        <v>5.190798184929883</v>
       </c>
       <c r="M23">
-        <v>121.493550566694</v>
+        <v>18.41905430893497</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>12.34650821359375</v>
       </c>
       <c r="O23">
-        <v>46.8493251830064</v>
+        <v>20.85918418333993</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>3.000422237516213</v>
+        <v>10.49682084758284</v>
       </c>
       <c r="D24">
-        <v>10.28673157893578</v>
+        <v>5.616272220703369</v>
       </c>
       <c r="E24">
-        <v>14.13362158067489</v>
+        <v>8.300647868917366</v>
       </c>
       <c r="F24">
-        <v>56.28912497849329</v>
+        <v>28.15788099170546</v>
       </c>
       <c r="G24">
-        <v>1.799148154830885</v>
+        <v>2.092149413616994</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>9.285053727960207</v>
+        <v>5.939471953735384</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>21.63337352378438</v>
       </c>
       <c r="L24">
-        <v>11.40583162118921</v>
+        <v>5.235149085170699</v>
       </c>
       <c r="M24">
-        <v>121.493550566694</v>
+        <v>17.3362538403635</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>12.61457914859342</v>
       </c>
       <c r="O24">
-        <v>46.8493251830064</v>
+        <v>20.4456873624698</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>3.000422237516213</v>
+        <v>9.918366373470414</v>
       </c>
       <c r="D25">
-        <v>10.28673157893578</v>
+        <v>5.346272326509395</v>
       </c>
       <c r="E25">
-        <v>14.13362158067489</v>
+        <v>8.189002692825351</v>
       </c>
       <c r="F25">
-        <v>56.28912497849329</v>
+        <v>27.31367227543945</v>
       </c>
       <c r="G25">
-        <v>1.799148154830885</v>
+        <v>2.103426991288496</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>9.285053727960207</v>
+        <v>6.022439820064424</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>19.56877969117365</v>
       </c>
       <c r="L25">
-        <v>11.40583162118921</v>
+        <v>5.286134180092362</v>
       </c>
       <c r="M25">
-        <v>121.493550566694</v>
+        <v>16.11272602716522</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>12.91646743214391</v>
       </c>
       <c r="O25">
-        <v>46.8493251830064</v>
+        <v>20.07776953611727</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_41/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_41/res_line/loading_percent.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>9.491735949196393</v>
+        <v>13.20963693679378</v>
       </c>
       <c r="D2">
-        <v>5.144397282034888</v>
+        <v>7.881186435122017</v>
       </c>
       <c r="E2">
-        <v>8.118701122183511</v>
+        <v>13.6945360507812</v>
       </c>
       <c r="F2">
-        <v>26.76525386425661</v>
+        <v>40.69777765117924</v>
       </c>
       <c r="G2">
-        <v>2.112061309113294</v>
+        <v>3.70654522015496</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>6.089512720713838</v>
+        <v>10.80080169445698</v>
       </c>
       <c r="K2">
-        <v>17.93770210091249</v>
+        <v>17.35962654059482</v>
       </c>
       <c r="L2">
-        <v>5.326432444616171</v>
+        <v>9.46195815782611</v>
       </c>
       <c r="M2">
-        <v>15.16837912674177</v>
+        <v>19.78728721444257</v>
       </c>
       <c r="N2">
-        <v>13.1496469673826</v>
+        <v>19.64231612616365</v>
       </c>
       <c r="O2">
-        <v>19.86930164749897</v>
+        <v>31.43149510503807</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,19 +471,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>9.203719049159231</v>
+        <v>13.19284855831593</v>
       </c>
       <c r="D3">
-        <v>5.006409182478269</v>
+        <v>7.870321294100675</v>
       </c>
       <c r="E3">
-        <v>8.078263280939915</v>
+        <v>13.7164388702485</v>
       </c>
       <c r="F3">
-        <v>26.4378909616674</v>
+        <v>40.78182227029627</v>
       </c>
       <c r="G3">
-        <v>2.118136635852651</v>
+        <v>3.708886641905894</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>6.138605180983887</v>
+        <v>10.8251291443859</v>
       </c>
       <c r="K3">
-        <v>16.84414182225185</v>
+        <v>17.07190179699658</v>
       </c>
       <c r="L3">
-        <v>5.355489554960832</v>
+        <v>9.475756496461733</v>
       </c>
       <c r="M3">
-        <v>14.50427891380939</v>
+        <v>19.68642967762725</v>
       </c>
       <c r="N3">
-        <v>13.31448868063647</v>
+        <v>19.69714928907865</v>
       </c>
       <c r="O3">
-        <v>19.76437031715596</v>
+        <v>31.51899584697338</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,19 +518,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>9.028018180877563</v>
+        <v>13.18509345778682</v>
       </c>
       <c r="D4">
-        <v>4.921383258525439</v>
+        <v>7.864535925870994</v>
       </c>
       <c r="E4">
-        <v>8.056910753675673</v>
+        <v>13.73156341128211</v>
       </c>
       <c r="F4">
-        <v>26.25818607029894</v>
+        <v>40.84229094211128</v>
       </c>
       <c r="G4">
-        <v>2.121982644585079</v>
+        <v>3.71040108481766</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>6.170514239006212</v>
+        <v>10.84100278575613</v>
       </c>
       <c r="K4">
-        <v>16.1398685737648</v>
+        <v>16.89527845037528</v>
       </c>
       <c r="L4">
-        <v>5.374200686113202</v>
+        <v>9.484739571326047</v>
       </c>
       <c r="M4">
-        <v>14.08591562407723</v>
+        <v>19.62701506254915</v>
       </c>
       <c r="N4">
-        <v>13.41907577639802</v>
+        <v>19.73268595868009</v>
       </c>
       <c r="O4">
-        <v>19.71695002949413</v>
+        <v>31.57915267924656</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>8.956802005588349</v>
+        <v>13.18257799541644</v>
       </c>
       <c r="D5">
-        <v>4.886704074040099</v>
+        <v>7.862402845898749</v>
       </c>
       <c r="E5">
-        <v>8.049071603416111</v>
+        <v>13.73814864460826</v>
       </c>
       <c r="F5">
-        <v>26.19021547801314</v>
+        <v>40.86915712363207</v>
       </c>
       <c r="G5">
-        <v>2.123579769173593</v>
+        <v>3.711037606983839</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.183957749713175</v>
+        <v>10.84770741606979</v>
       </c>
       <c r="K5">
-        <v>15.84476710755576</v>
+        <v>16.82340100110103</v>
       </c>
       <c r="L5">
-        <v>5.382045564361825</v>
+        <v>9.488529064689233</v>
       </c>
       <c r="M5">
-        <v>13.9129908773477</v>
+        <v>19.60345247203895</v>
       </c>
       <c r="N5">
-        <v>13.46254641346064</v>
+        <v>19.74763850268974</v>
       </c>
       <c r="O5">
-        <v>19.7017604178438</v>
+        <v>31.60528095185629</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,19 +612,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>8.945002656566924</v>
+        <v>13.1821993232159</v>
       </c>
       <c r="D6">
-        <v>4.88094514781074</v>
+        <v>7.862062257988418</v>
       </c>
       <c r="E6">
-        <v>8.04782162508957</v>
+        <v>13.73926760764684</v>
       </c>
       <c r="F6">
-        <v>26.17924368926647</v>
+        <v>40.87375245988213</v>
       </c>
       <c r="G6">
-        <v>2.123846794125464</v>
+        <v>3.711144473001485</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.186216524553451</v>
+        <v>10.8488349830907</v>
       </c>
       <c r="K6">
-        <v>15.79528146717177</v>
+        <v>16.81147430639786</v>
       </c>
       <c r="L6">
-        <v>5.38336151880547</v>
+        <v>9.489166098111774</v>
       </c>
       <c r="M6">
-        <v>13.88413687061385</v>
+        <v>19.59957963925804</v>
       </c>
       <c r="N6">
-        <v>13.46981612888522</v>
+        <v>19.75014984533354</v>
       </c>
       <c r="O6">
-        <v>19.69948364613664</v>
+        <v>31.6097169072676</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>9.027056052361743</v>
+        <v>13.18505691918646</v>
       </c>
       <c r="D7">
-        <v>4.920915624772129</v>
+        <v>7.86450624716548</v>
       </c>
       <c r="E7">
-        <v>8.056801557669035</v>
+        <v>13.73165051345283</v>
       </c>
       <c r="F7">
-        <v>26.25724823082201</v>
+        <v>40.84264426735887</v>
       </c>
       <c r="G7">
-        <v>2.122004062166601</v>
+        <v>3.71040959064923</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6.170693764806717</v>
+        <v>10.84109225054927</v>
       </c>
       <c r="K7">
-        <v>16.13592131782447</v>
+        <v>16.8943085725756</v>
       </c>
       <c r="L7">
-        <v>5.374305592784258</v>
+        <v>9.484790155698636</v>
       </c>
       <c r="M7">
-        <v>14.08359304860176</v>
+        <v>19.62669463739339</v>
       </c>
       <c r="N7">
-        <v>13.41965858929581</v>
+        <v>19.73288570512218</v>
       </c>
       <c r="O7">
-        <v>19.71672862839616</v>
+        <v>31.57949852421233</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>9.392246673093672</v>
+        <v>13.20332024470788</v>
       </c>
       <c r="D8">
-        <v>5.096907752341407</v>
+        <v>7.877257348159977</v>
       </c>
       <c r="E8">
-        <v>8.104029617183009</v>
+        <v>13.70174050288348</v>
       </c>
       <c r="F8">
-        <v>26.64790623317848</v>
+        <v>40.72491377796565</v>
       </c>
       <c r="G8">
-        <v>2.114132519757738</v>
+        <v>3.707336639975736</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>6.106070855453516</v>
+        <v>10.80899573465157</v>
       </c>
       <c r="K8">
-        <v>17.56753153112603</v>
+        <v>17.26046287820109</v>
       </c>
       <c r="L8">
-        <v>5.33627149694767</v>
+        <v>9.466610018634803</v>
       </c>
       <c r="M8">
-        <v>14.94172503619916</v>
+        <v>19.75200090175288</v>
       </c>
       <c r="N8">
-        <v>13.20578533069477</v>
+        <v>19.66083538345036</v>
       </c>
       <c r="O8">
-        <v>19.82950748943418</v>
+        <v>31.46032869070396</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>10.11351992850915</v>
+        <v>13.25924971663992</v>
       </c>
       <c r="D9">
-        <v>5.437790854405961</v>
+        <v>7.909211036473248</v>
       </c>
       <c r="E9">
-        <v>8.22473392004806</v>
+        <v>13.65636895480938</v>
       </c>
       <c r="F9">
-        <v>27.58652657532734</v>
+        <v>40.56456558366426</v>
       </c>
       <c r="G9">
-        <v>2.099579192243545</v>
+        <v>3.701917130667086</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>5.993548348725724</v>
+        <v>10.75346237977541</v>
       </c>
       <c r="K9">
-        <v>20.28562272919397</v>
+        <v>17.97502642532358</v>
       </c>
       <c r="L9">
-        <v>5.268534810646815</v>
+        <v>9.434995716212743</v>
       </c>
       <c r="M9">
-        <v>16.53196236708432</v>
+        <v>20.0168530712047</v>
       </c>
       <c r="N9">
-        <v>12.81308190287553</v>
+        <v>19.53432313601002</v>
       </c>
       <c r="O9">
-        <v>20.19167603392426</v>
+        <v>31.27780453372159</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>10.64182328209885</v>
+        <v>13.31238740212929</v>
       </c>
       <c r="D10">
-        <v>5.683394735096541</v>
+        <v>7.936810972478272</v>
       </c>
       <c r="E10">
-        <v>8.331197516996989</v>
+        <v>13.63110742164126</v>
       </c>
       <c r="F10">
-        <v>28.38535377030794</v>
+        <v>40.48997118991144</v>
       </c>
       <c r="G10">
-        <v>2.089372342472799</v>
+        <v>3.698301206287086</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>5.919831888149501</v>
+        <v>10.71714644781798</v>
       </c>
       <c r="K10">
-        <v>22.12542888467733</v>
+        <v>18.4929687301218</v>
       </c>
       <c r="L10">
-        <v>5.222866151672452</v>
+        <v>9.414206980700369</v>
       </c>
       <c r="M10">
-        <v>17.63468310513643</v>
+        <v>20.22197428672398</v>
       </c>
       <c r="N10">
-        <v>12.54081143394859</v>
+        <v>19.45031355753176</v>
       </c>
       <c r="O10">
-        <v>20.55156260570634</v>
+        <v>31.1750806257956</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>10.88097453011849</v>
+        <v>13.33912161509298</v>
       </c>
       <c r="D11">
-        <v>5.793664508420256</v>
+        <v>7.950236157927526</v>
       </c>
       <c r="E11">
-        <v>8.383622646948387</v>
+        <v>13.62136257163345</v>
       </c>
       <c r="F11">
-        <v>28.77313735330582</v>
+        <v>40.46545616682551</v>
       </c>
       <c r="G11">
-        <v>2.084821901194724</v>
+        <v>3.696734811288499</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>5.888316830146885</v>
+        <v>10.70159249244172</v>
       </c>
       <c r="K11">
-        <v>22.9186310184086</v>
+        <v>18.7260696750887</v>
       </c>
       <c r="L11">
-        <v>5.202963105289195</v>
+        <v>9.405274290966682</v>
       </c>
       <c r="M11">
-        <v>18.12068407363594</v>
+        <v>20.31732415688667</v>
       </c>
       <c r="N11">
-        <v>12.42049706595897</v>
+        <v>19.41402179327268</v>
       </c>
       <c r="O11">
-        <v>20.73719857853136</v>
+        <v>31.13519754841904</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>10.97130801908864</v>
+        <v>13.34960811586207</v>
       </c>
       <c r="D12">
-        <v>5.835181900040842</v>
+        <v>7.955442599264165</v>
       </c>
       <c r="E12">
-        <v>8.404059039430207</v>
+        <v>13.61792309377881</v>
       </c>
       <c r="F12">
-        <v>28.92353144269541</v>
+        <v>40.45752925551705</v>
       </c>
       <c r="G12">
-        <v>2.083110991695002</v>
+        <v>3.696152883326093</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>5.876680620579418</v>
+        <v>10.69584107490874</v>
       </c>
       <c r="K12">
-        <v>23.21279364768424</v>
+        <v>18.8138988511379</v>
       </c>
       <c r="L12">
-        <v>5.195550358076177</v>
+        <v>9.401966727144726</v>
       </c>
       <c r="M12">
-        <v>18.30238603420986</v>
+        <v>20.35370179438007</v>
       </c>
       <c r="N12">
-        <v>12.37545101417894</v>
+        <v>19.4005547374367</v>
       </c>
       <c r="O12">
-        <v>20.81076426163597</v>
+        <v>31.12108196313059</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>10.95186405313214</v>
+        <v>13.34733361558141</v>
       </c>
       <c r="D13">
-        <v>5.826251469944211</v>
+        <v>7.954315885991556</v>
       </c>
       <c r="E13">
-        <v>8.399631562563316</v>
+        <v>13.61865270585277</v>
       </c>
       <c r="F13">
-        <v>28.89098292433431</v>
+        <v>40.45917610564456</v>
       </c>
       <c r="G13">
-        <v>2.083478940278502</v>
+        <v>3.696277713295416</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>5.879173309965831</v>
+        <v>10.69707359132527</v>
       </c>
       <c r="K13">
-        <v>23.14971510562851</v>
+        <v>18.79500411292172</v>
       </c>
       <c r="L13">
-        <v>5.19714132663592</v>
+        <v>9.402675737446389</v>
       </c>
       <c r="M13">
-        <v>18.26335834160207</v>
+        <v>20.34585554208939</v>
       </c>
       <c r="N13">
-        <v>12.3851295101817</v>
+        <v>19.40344285470668</v>
       </c>
       <c r="O13">
-        <v>20.794773359481</v>
+        <v>31.12407805660665</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>10.88841118979042</v>
+        <v>13.33997710721931</v>
       </c>
       <c r="D14">
-        <v>5.797085124800676</v>
+        <v>7.950662052092411</v>
       </c>
       <c r="E14">
-        <v>8.385292198749228</v>
+        <v>13.62107458257851</v>
       </c>
       <c r="F14">
-        <v>28.7854390163414</v>
+        <v>40.46477682135287</v>
       </c>
       <c r="G14">
-        <v>2.084680904763542</v>
+        <v>3.696686710949609</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>5.887353496422326</v>
+        <v>10.70111654600612</v>
       </c>
       <c r="K14">
-        <v>22.9429558398707</v>
+        <v>18.7333047174227</v>
       </c>
       <c r="L14">
-        <v>5.202350774205409</v>
+        <v>9.405000673421837</v>
       </c>
       <c r="M14">
-        <v>18.13568005097633</v>
+        <v>20.32031167197025</v>
       </c>
       <c r="N14">
-        <v>12.41678075579264</v>
+        <v>19.41290832721536</v>
       </c>
       <c r="O14">
-        <v>20.74318469620437</v>
+        <v>31.13401644944959</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>10.84951322286872</v>
+        <v>13.33551811403863</v>
       </c>
       <c r="D15">
-        <v>5.779187897897871</v>
+        <v>7.948439866473117</v>
       </c>
       <c r="E15">
-        <v>8.376585283841672</v>
+        <v>13.62259068331779</v>
       </c>
       <c r="F15">
-        <v>28.72125365817648</v>
+        <v>40.4683841143878</v>
       </c>
       <c r="G15">
-        <v>2.085418703622235</v>
+        <v>3.696938694841525</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>5.892403125140687</v>
+        <v>10.70361100019431</v>
       </c>
       <c r="K15">
-        <v>22.81550416755083</v>
+        <v>18.69545231227378</v>
       </c>
       <c r="L15">
-        <v>5.205557835387747</v>
+        <v>9.406434528101096</v>
       </c>
       <c r="M15">
-        <v>18.05716693417629</v>
+        <v>20.30469989330123</v>
       </c>
       <c r="N15">
-        <v>12.43623522608401</v>
+        <v>19.41874209933876</v>
       </c>
       <c r="O15">
-        <v>20.71201430491168</v>
+        <v>31.1402326513296</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>10.62616527090523</v>
+        <v>13.3106913423569</v>
       </c>
       <c r="D16">
-        <v>5.676156392511663</v>
+        <v>7.935950899876857</v>
       </c>
       <c r="E16">
-        <v>8.327852623892836</v>
+        <v>13.63177937808123</v>
       </c>
       <c r="F16">
-        <v>28.36050565531589</v>
+        <v>40.49176301488083</v>
       </c>
       <c r="G16">
-        <v>2.089671498826764</v>
+        <v>3.698405148731462</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>5.921932722732226</v>
+        <v>10.71818234369291</v>
       </c>
       <c r="K16">
-        <v>22.07271824082946</v>
+        <v>18.47767756369105</v>
       </c>
       <c r="L16">
-        <v>5.224184298644275</v>
+        <v>9.414801273253353</v>
       </c>
       <c r="M16">
-        <v>17.60259921106561</v>
+        <v>20.21578206634896</v>
       </c>
       <c r="N16">
-        <v>12.5487459297129</v>
+        <v>19.45272395956431</v>
       </c>
       <c r="O16">
-        <v>20.53988210591472</v>
+        <v>31.17782508864963</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>10.48880236377534</v>
+        <v>13.29611321997203</v>
       </c>
       <c r="D17">
-        <v>5.612554355642938</v>
+        <v>7.928510387231495</v>
       </c>
       <c r="E17">
-        <v>8.298986740483674</v>
+        <v>13.63786338833766</v>
       </c>
       <c r="F17">
-        <v>28.14547666243346</v>
+        <v>40.50851913193257</v>
       </c>
       <c r="G17">
-        <v>2.092303445818145</v>
+        <v>3.69932483727287</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>5.940570373515006</v>
+        <v>10.72736858614957</v>
       </c>
       <c r="K17">
-        <v>21.60589976569183</v>
+        <v>18.34337819963264</v>
       </c>
       <c r="L17">
-        <v>5.235833438147282</v>
+        <v>9.420068028310819</v>
       </c>
       <c r="M17">
-        <v>17.31966323189175</v>
+        <v>20.16174025522437</v>
       </c>
       <c r="N17">
-        <v>12.61867792088325</v>
+        <v>19.47406301565646</v>
       </c>
       <c r="O17">
-        <v>20.43998425030701</v>
+        <v>31.20264242199855</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>10.40968701778613</v>
+        <v>13.28796973881888</v>
       </c>
       <c r="D18">
-        <v>5.575836593584823</v>
+        <v>7.924312828471362</v>
       </c>
       <c r="E18">
-        <v>8.282759243030666</v>
+        <v>13.64152719423973</v>
       </c>
       <c r="F18">
-        <v>28.0240915586677</v>
+        <v>40.51904322236257</v>
       </c>
       <c r="G18">
-        <v>2.093826067556379</v>
+        <v>3.699861210663121</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>5.951479788738894</v>
+        <v>10.73274325214302</v>
       </c>
       <c r="K18">
-        <v>21.33327642255943</v>
+        <v>18.26590070545619</v>
       </c>
       <c r="L18">
-        <v>5.242615855211297</v>
+        <v>9.423146687155057</v>
       </c>
       <c r="M18">
-        <v>17.15545839662039</v>
+        <v>20.13085015043798</v>
       </c>
       <c r="N18">
-        <v>12.65923401674617</v>
+        <v>19.48651788302217</v>
       </c>
       <c r="O18">
-        <v>20.3845823969965</v>
+        <v>31.21756097479534</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>10.38288334669443</v>
+        <v>13.28525412983401</v>
       </c>
       <c r="D19">
-        <v>5.563382281141946</v>
+        <v>7.922905768925172</v>
       </c>
       <c r="E19">
-        <v>8.277329066203869</v>
+        <v>13.64279595387711</v>
       </c>
       <c r="F19">
-        <v>27.98338530725698</v>
+        <v>40.52275866860359</v>
       </c>
       <c r="G19">
-        <v>2.094343143609545</v>
+        <v>3.70004408896556</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>5.955205865328853</v>
+        <v>10.73457866123824</v>
       </c>
       <c r="K19">
-        <v>21.24026045393783</v>
+        <v>18.239630788285</v>
       </c>
       <c r="L19">
-        <v>5.244926411028636</v>
+        <v>9.424197555947059</v>
       </c>
       <c r="M19">
-        <v>17.0996124489253</v>
+        <v>20.12042517338076</v>
       </c>
       <c r="N19">
-        <v>12.67302269869889</v>
+        <v>19.49076603763769</v>
       </c>
       <c r="O19">
-        <v>20.36617387649439</v>
+        <v>31.22272270859846</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>10.50343649620089</v>
+        <v>13.29764013347682</v>
       </c>
       <c r="D20">
-        <v>5.619339158716195</v>
+        <v>7.929293970532093</v>
       </c>
       <c r="E20">
-        <v>8.30202064004725</v>
+        <v>13.63719871918124</v>
       </c>
       <c r="F20">
-        <v>28.16812914791365</v>
+        <v>40.50664365716495</v>
       </c>
       <c r="G20">
-        <v>2.092022367901256</v>
+        <v>3.699226170140511</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>5.938566696047667</v>
+        <v>10.7263812817723</v>
       </c>
       <c r="K20">
-        <v>21.65601937742267</v>
+        <v>18.35769920122808</v>
       </c>
       <c r="L20">
-        <v>5.234584875288234</v>
+        <v>9.419502266995071</v>
       </c>
       <c r="M20">
-        <v>17.34993484165509</v>
+        <v>20.16747325268956</v>
       </c>
       <c r="N20">
-        <v>12.61119904055362</v>
+        <v>19.47177268914165</v>
       </c>
       <c r="O20">
-        <v>20.45040481718367</v>
+        <v>31.19993387337505</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>10.90705543869034</v>
+        <v>13.34212809094343</v>
       </c>
       <c r="D21">
-        <v>5.805658703940932</v>
+        <v>7.951731964105943</v>
       </c>
       <c r="E21">
-        <v>8.389488086919405</v>
+        <v>13.62035641927649</v>
       </c>
       <c r="F21">
-        <v>28.81634319282378</v>
+        <v>40.46309492995596</v>
       </c>
       <c r="G21">
-        <v>2.084327535420469</v>
+        <v>3.69656627405155</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>5.884942629242188</v>
+        <v>10.69992527601739</v>
       </c>
       <c r="K21">
-        <v>23.00385379190912</v>
+        <v>18.75143991295414</v>
       </c>
       <c r="L21">
-        <v>5.200817275214582</v>
+        <v>9.404315749087838</v>
       </c>
       <c r="M21">
-        <v>18.17324625731256</v>
+        <v>20.32780736024024</v>
       </c>
       <c r="N21">
-        <v>12.40747000827898</v>
+        <v>19.41012060920202</v>
       </c>
       <c r="O21">
-        <v>20.75824789986255</v>
+        <v>31.13107048758985</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>11.16949507279935</v>
+        <v>13.37331556172422</v>
       </c>
       <c r="D22">
-        <v>5.926022783098187</v>
+        <v>7.967109968602736</v>
       </c>
       <c r="E22">
-        <v>8.450062415187013</v>
+        <v>13.61080993285545</v>
       </c>
       <c r="F22">
-        <v>29.26069162799417</v>
+        <v>40.44253993837041</v>
       </c>
       <c r="G22">
-        <v>2.079369321384016</v>
+        <v>3.694893319560209</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>5.851636477400973</v>
+        <v>10.68344199694426</v>
       </c>
       <c r="K22">
-        <v>23.84861043136799</v>
+        <v>19.00616692075477</v>
       </c>
       <c r="L22">
-        <v>5.179470969794043</v>
+        <v>9.394827791164177</v>
       </c>
       <c r="M22">
-        <v>18.69768524573549</v>
+        <v>20.43416217276868</v>
       </c>
       <c r="N22">
-        <v>12.2773233137055</v>
+        <v>19.37143485634822</v>
       </c>
       <c r="O22">
-        <v>20.97854847504816</v>
+        <v>31.09181996022957</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>11.02956637595028</v>
+        <v>13.35647890523958</v>
       </c>
       <c r="D23">
-        <v>5.861919821632744</v>
+        <v>7.958837995823885</v>
       </c>
       <c r="E23">
-        <v>8.417417591846583</v>
+        <v>13.61577157020902</v>
       </c>
       <c r="F23">
-        <v>29.02162722090111</v>
+        <v>40.45278655332982</v>
       </c>
       <c r="G23">
-        <v>2.082009515165927</v>
+        <v>3.695780237819493</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>5.869250644832563</v>
+        <v>10.69216571075799</v>
       </c>
       <c r="K23">
-        <v>23.40102551738796</v>
+        <v>18.87047805190235</v>
       </c>
       <c r="L23">
-        <v>5.190798184929883</v>
+        <v>9.399851786944684</v>
       </c>
       <c r="M23">
-        <v>18.41905430893497</v>
+        <v>20.37726274661194</v>
       </c>
       <c r="N23">
-        <v>12.34650821359375</v>
+        <v>19.39193538396505</v>
       </c>
       <c r="O23">
-        <v>20.85918418333993</v>
+        <v>31.11224121398741</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>10.49682084758284</v>
+        <v>13.29694907514682</v>
       </c>
       <c r="D24">
-        <v>5.616272220703369</v>
+        <v>7.928939462874612</v>
       </c>
       <c r="E24">
-        <v>8.300647868917366</v>
+        <v>13.63749869891486</v>
       </c>
       <c r="F24">
-        <v>28.15788099170546</v>
+        <v>40.5074887847118</v>
       </c>
       <c r="G24">
-        <v>2.092149413616994</v>
+        <v>3.699270753771821</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>5.939471953735384</v>
+        <v>10.72682735119571</v>
       </c>
       <c r="K24">
-        <v>21.63337352378438</v>
+        <v>18.35122550192735</v>
       </c>
       <c r="L24">
-        <v>5.235149085170699</v>
+        <v>9.419757889637918</v>
       </c>
       <c r="M24">
-        <v>17.3362538403635</v>
+        <v>20.16488080445356</v>
       </c>
       <c r="N24">
-        <v>12.61457914859342</v>
+        <v>19.47280756392377</v>
       </c>
       <c r="O24">
-        <v>20.4456873624698</v>
+        <v>31.20115638136269</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>9.918366373470414</v>
+        <v>13.24198640533599</v>
       </c>
       <c r="D25">
-        <v>5.346272326509395</v>
+        <v>7.899833988377079</v>
       </c>
       <c r="E25">
-        <v>8.189002692825351</v>
+        <v>13.66722359765846</v>
       </c>
       <c r="F25">
-        <v>27.31367227543945</v>
+        <v>40.60036917400154</v>
       </c>
       <c r="G25">
-        <v>2.103426991288496</v>
+        <v>3.703318729775767</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>6.022439820064424</v>
+        <v>10.76769585219535</v>
       </c>
       <c r="K25">
-        <v>19.56877969117365</v>
+        <v>17.78260795448779</v>
       </c>
       <c r="L25">
-        <v>5.286134180092362</v>
+        <v>9.443118403444533</v>
       </c>
       <c r="M25">
-        <v>16.11272602716522</v>
+        <v>19.94326949067202</v>
       </c>
       <c r="N25">
-        <v>12.91646743214391</v>
+        <v>19.56697328540271</v>
       </c>
       <c r="O25">
-        <v>20.07776953611727</v>
+        <v>31.32168460738745</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_41/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_41/res_line/loading_percent.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>13.20963693679378</v>
+        <v>9.491735949196334</v>
       </c>
       <c r="D2">
-        <v>7.881186435122017</v>
+        <v>5.144397282034864</v>
       </c>
       <c r="E2">
-        <v>13.6945360507812</v>
+        <v>8.118701122183502</v>
       </c>
       <c r="F2">
-        <v>40.69777765117924</v>
+        <v>26.76525386425658</v>
       </c>
       <c r="G2">
-        <v>3.70654522015496</v>
+        <v>2.11206130911316</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>10.80080169445698</v>
+        <v>6.089512720713806</v>
       </c>
       <c r="K2">
-        <v>17.35962654059482</v>
+        <v>17.9377021009125</v>
       </c>
       <c r="L2">
-        <v>9.46195815782611</v>
+        <v>5.326432444616202</v>
       </c>
       <c r="M2">
-        <v>19.78728721444257</v>
+        <v>15.16837912674178</v>
       </c>
       <c r="N2">
-        <v>19.64231612616365</v>
+        <v>13.14964696738257</v>
       </c>
       <c r="O2">
-        <v>31.43149510503807</v>
+        <v>19.86930164749895</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,19 +471,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>13.19284855831593</v>
+        <v>9.203719049159236</v>
       </c>
       <c r="D3">
-        <v>7.870321294100675</v>
+        <v>5.00640918247819</v>
       </c>
       <c r="E3">
-        <v>13.7164388702485</v>
+        <v>8.07826328093987</v>
       </c>
       <c r="F3">
-        <v>40.78182227029627</v>
+        <v>26.43789096166724</v>
       </c>
       <c r="G3">
-        <v>3.708886641905894</v>
+        <v>2.11813663585265</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>10.8251291443859</v>
+        <v>6.138605180983893</v>
       </c>
       <c r="K3">
-        <v>17.07190179699658</v>
+        <v>16.84414182225184</v>
       </c>
       <c r="L3">
-        <v>9.475756496461733</v>
+        <v>5.355489554960801</v>
       </c>
       <c r="M3">
-        <v>19.68642967762725</v>
+        <v>14.50427891380938</v>
       </c>
       <c r="N3">
-        <v>19.69714928907865</v>
+        <v>13.3144886806364</v>
       </c>
       <c r="O3">
-        <v>31.51899584697338</v>
+        <v>19.76437031715584</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,19 +518,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>13.18509345778682</v>
+        <v>9.028018180877556</v>
       </c>
       <c r="D4">
-        <v>7.864535925870994</v>
+        <v>4.92138325852539</v>
       </c>
       <c r="E4">
-        <v>13.73156341128211</v>
+        <v>8.056910753675659</v>
       </c>
       <c r="F4">
-        <v>40.84229094211128</v>
+        <v>26.25818607029899</v>
       </c>
       <c r="G4">
-        <v>3.71040108481766</v>
+        <v>2.121982644585079</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>10.84100278575613</v>
+        <v>6.170514239006208</v>
       </c>
       <c r="K4">
-        <v>16.89527845037528</v>
+        <v>16.13986857376482</v>
       </c>
       <c r="L4">
-        <v>9.484739571326047</v>
+        <v>5.3742006861132</v>
       </c>
       <c r="M4">
-        <v>19.62701506254915</v>
+        <v>14.08591562407722</v>
       </c>
       <c r="N4">
-        <v>19.73268595868009</v>
+        <v>13.41907577639809</v>
       </c>
       <c r="O4">
-        <v>31.57915267924656</v>
+        <v>19.71695002949419</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>13.18257799541644</v>
+        <v>8.956802005588578</v>
       </c>
       <c r="D5">
-        <v>7.862402845898749</v>
+        <v>4.886704074040284</v>
       </c>
       <c r="E5">
-        <v>13.73814864460826</v>
+        <v>8.04907160341617</v>
       </c>
       <c r="F5">
-        <v>40.86915712363207</v>
+        <v>26.19021547801298</v>
       </c>
       <c r="G5">
-        <v>3.711037606983839</v>
+        <v>2.12357976917386</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>10.84770741606979</v>
+        <v>6.183957749713142</v>
       </c>
       <c r="K5">
-        <v>16.82340100110103</v>
+        <v>15.84476710755573</v>
       </c>
       <c r="L5">
-        <v>9.488529064689233</v>
+        <v>5.382045564361789</v>
       </c>
       <c r="M5">
-        <v>19.60345247203895</v>
+        <v>13.91299087734767</v>
       </c>
       <c r="N5">
-        <v>19.74763850268974</v>
+        <v>13.46254641346055</v>
       </c>
       <c r="O5">
-        <v>31.60528095185629</v>
+        <v>19.70176041784361</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,19 +612,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>13.1821993232159</v>
+        <v>8.945002656566951</v>
       </c>
       <c r="D6">
-        <v>7.862062257988418</v>
+        <v>4.880945147810642</v>
       </c>
       <c r="E6">
-        <v>13.73926760764684</v>
+        <v>8.047821625089565</v>
       </c>
       <c r="F6">
-        <v>40.87375245988213</v>
+        <v>26.17924368926625</v>
       </c>
       <c r="G6">
-        <v>3.711144473001485</v>
+        <v>2.123846794125598</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>10.8488349830907</v>
+        <v>6.186216524553453</v>
       </c>
       <c r="K6">
-        <v>16.81147430639786</v>
+        <v>15.79528146717174</v>
       </c>
       <c r="L6">
-        <v>9.489166098111774</v>
+        <v>5.383361518805502</v>
       </c>
       <c r="M6">
-        <v>19.59957963925804</v>
+        <v>13.88413687061383</v>
       </c>
       <c r="N6">
-        <v>19.75014984533354</v>
+        <v>13.46981612888513</v>
       </c>
       <c r="O6">
-        <v>31.6097169072676</v>
+        <v>19.69948364613644</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>13.18505691918646</v>
+        <v>9.027056052362019</v>
       </c>
       <c r="D7">
-        <v>7.86450624716548</v>
+        <v>4.920915624772174</v>
       </c>
       <c r="E7">
-        <v>13.73165051345283</v>
+        <v>8.056801557669088</v>
       </c>
       <c r="F7">
-        <v>40.84264426735887</v>
+        <v>26.25724823082207</v>
       </c>
       <c r="G7">
-        <v>3.71040959064923</v>
+        <v>2.122004062166601</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>10.84109225054927</v>
+        <v>6.170693764806788</v>
       </c>
       <c r="K7">
-        <v>16.8943085725756</v>
+        <v>16.13592131782449</v>
       </c>
       <c r="L7">
-        <v>9.484790155698636</v>
+        <v>5.374305592784258</v>
       </c>
       <c r="M7">
-        <v>19.62669463739339</v>
+        <v>14.08359304860178</v>
       </c>
       <c r="N7">
-        <v>19.73288570512218</v>
+        <v>13.41965858929587</v>
       </c>
       <c r="O7">
-        <v>31.57949852421233</v>
+        <v>19.71672862839622</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>13.20332024470788</v>
+        <v>9.392246673093728</v>
       </c>
       <c r="D8">
-        <v>7.877257348159977</v>
+        <v>5.096907752341419</v>
       </c>
       <c r="E8">
-        <v>13.70174050288348</v>
+        <v>8.10402961718296</v>
       </c>
       <c r="F8">
-        <v>40.72491377796565</v>
+        <v>26.64790623317833</v>
       </c>
       <c r="G8">
-        <v>3.707336639975736</v>
+        <v>2.114132519757873</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>10.80899573465157</v>
+        <v>6.106070855453549</v>
       </c>
       <c r="K8">
-        <v>17.26046287820109</v>
+        <v>17.56753153112601</v>
       </c>
       <c r="L8">
-        <v>9.466610018634803</v>
+        <v>5.336271496947641</v>
       </c>
       <c r="M8">
-        <v>19.75200090175288</v>
+        <v>14.94172503619912</v>
       </c>
       <c r="N8">
-        <v>19.66083538345036</v>
+        <v>13.20578533069474</v>
       </c>
       <c r="O8">
-        <v>31.46032869070396</v>
+        <v>19.82950748943405</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>13.25924971663992</v>
+        <v>10.11351992850928</v>
       </c>
       <c r="D9">
-        <v>7.909211036473248</v>
+        <v>5.437790854405952</v>
       </c>
       <c r="E9">
-        <v>13.65636895480938</v>
+        <v>8.224733920048108</v>
       </c>
       <c r="F9">
-        <v>40.56456558366426</v>
+        <v>27.58652657532736</v>
       </c>
       <c r="G9">
-        <v>3.701917130667086</v>
+        <v>2.099579192243547</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>10.75346237977541</v>
+        <v>5.993548348725754</v>
       </c>
       <c r="K9">
-        <v>17.97502642532358</v>
+        <v>20.28562272919396</v>
       </c>
       <c r="L9">
-        <v>9.434995716212743</v>
+        <v>5.268534810646814</v>
       </c>
       <c r="M9">
-        <v>20.0168530712047</v>
+        <v>16.53196236708435</v>
       </c>
       <c r="N9">
-        <v>19.53432313601002</v>
+        <v>12.81308190287554</v>
       </c>
       <c r="O9">
-        <v>31.27780453372159</v>
+        <v>20.19167603392427</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>13.31238740212929</v>
+        <v>10.64182328209889</v>
       </c>
       <c r="D10">
-        <v>7.936810972478272</v>
+        <v>5.683394735096554</v>
       </c>
       <c r="E10">
-        <v>13.63110742164126</v>
+        <v>8.331197516996994</v>
       </c>
       <c r="F10">
-        <v>40.48997118991144</v>
+        <v>28.38535377030804</v>
       </c>
       <c r="G10">
-        <v>3.698301206287086</v>
+        <v>2.089372342472933</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>10.71714644781798</v>
+        <v>5.919831888149508</v>
       </c>
       <c r="K10">
-        <v>18.4929687301218</v>
+        <v>22.12542888467728</v>
       </c>
       <c r="L10">
-        <v>9.414206980700369</v>
+        <v>5.222866151672393</v>
       </c>
       <c r="M10">
-        <v>20.22197428672398</v>
+        <v>17.63468310513642</v>
       </c>
       <c r="N10">
-        <v>19.45031355753176</v>
+        <v>12.54081143394865</v>
       </c>
       <c r="O10">
-        <v>31.1750806257956</v>
+        <v>20.55156260570641</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>13.33912161509298</v>
+        <v>10.88097453011851</v>
       </c>
       <c r="D11">
-        <v>7.950236157927526</v>
+        <v>5.79366450842027</v>
       </c>
       <c r="E11">
-        <v>13.62136257163345</v>
+        <v>8.383622646948401</v>
       </c>
       <c r="F11">
-        <v>40.46545616682551</v>
+        <v>28.77313735330574</v>
       </c>
       <c r="G11">
-        <v>3.696734811288499</v>
+        <v>2.084821901194457</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>10.70159249244172</v>
+        <v>5.888316830147009</v>
       </c>
       <c r="K11">
-        <v>18.7260696750887</v>
+        <v>22.91863101840866</v>
       </c>
       <c r="L11">
-        <v>9.405274290966682</v>
+        <v>5.202963105289263</v>
       </c>
       <c r="M11">
-        <v>20.31732415688667</v>
+        <v>18.12068407363595</v>
       </c>
       <c r="N11">
-        <v>19.41402179327268</v>
+        <v>12.42049706595894</v>
       </c>
       <c r="O11">
-        <v>31.13519754841904</v>
+        <v>20.7371985785313</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>13.34960811586207</v>
+        <v>10.97130801908853</v>
       </c>
       <c r="D12">
-        <v>7.955442599264165</v>
+        <v>5.835181900040809</v>
       </c>
       <c r="E12">
-        <v>13.61792309377881</v>
+        <v>8.404059039430194</v>
       </c>
       <c r="F12">
-        <v>40.45752925551705</v>
+        <v>28.92353144269532</v>
       </c>
       <c r="G12">
-        <v>3.696152883326093</v>
+        <v>2.083110991695134</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>10.69584107490874</v>
+        <v>5.876680620579444</v>
       </c>
       <c r="K12">
-        <v>18.8138988511379</v>
+        <v>23.21279364768428</v>
       </c>
       <c r="L12">
-        <v>9.401966727144726</v>
+        <v>5.195550358076181</v>
       </c>
       <c r="M12">
-        <v>20.35370179438007</v>
+        <v>18.30238603420984</v>
       </c>
       <c r="N12">
-        <v>19.4005547374367</v>
+        <v>12.37545101417891</v>
       </c>
       <c r="O12">
-        <v>31.12108196313059</v>
+        <v>20.81076426163589</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>13.34733361558141</v>
+        <v>10.95186405313213</v>
       </c>
       <c r="D13">
-        <v>7.954315885991556</v>
+        <v>5.826251469944276</v>
       </c>
       <c r="E13">
-        <v>13.61865270585277</v>
+        <v>8.399631562563334</v>
       </c>
       <c r="F13">
-        <v>40.45917610564456</v>
+        <v>28.89098292433417</v>
       </c>
       <c r="G13">
-        <v>3.696277713295416</v>
+        <v>2.083478940278503</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>10.69707359132527</v>
+        <v>5.879173309965771</v>
       </c>
       <c r="K13">
-        <v>18.79500411292172</v>
+        <v>23.14971510562857</v>
       </c>
       <c r="L13">
-        <v>9.402675737446389</v>
+        <v>5.197141326635927</v>
       </c>
       <c r="M13">
-        <v>20.34585554208939</v>
+        <v>18.26335834160205</v>
       </c>
       <c r="N13">
-        <v>19.40344285470668</v>
+        <v>12.3851295101816</v>
       </c>
       <c r="O13">
-        <v>31.12407805660665</v>
+        <v>20.79477335948085</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>13.33997710721931</v>
+        <v>10.88841118979042</v>
       </c>
       <c r="D14">
-        <v>7.950662052092411</v>
+        <v>5.79708512480064</v>
       </c>
       <c r="E14">
-        <v>13.62107458257851</v>
+        <v>8.38529219874917</v>
       </c>
       <c r="F14">
-        <v>40.46477682135287</v>
+        <v>28.7854390163413</v>
       </c>
       <c r="G14">
-        <v>3.696686710949609</v>
+        <v>2.08468090476341</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>10.70111654600612</v>
+        <v>5.887353496422322</v>
       </c>
       <c r="K14">
-        <v>18.7333047174227</v>
+        <v>22.94295583987072</v>
       </c>
       <c r="L14">
-        <v>9.405000673421837</v>
+        <v>5.20235077420547</v>
       </c>
       <c r="M14">
-        <v>20.32031167197025</v>
+        <v>18.1356800509763</v>
       </c>
       <c r="N14">
-        <v>19.41290832721536</v>
+        <v>12.41678075579264</v>
       </c>
       <c r="O14">
-        <v>31.13401644944959</v>
+        <v>20.74318469620431</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>13.33551811403863</v>
+        <v>10.84951322286871</v>
       </c>
       <c r="D15">
-        <v>7.948439866473117</v>
+        <v>5.77918789789782</v>
       </c>
       <c r="E15">
-        <v>13.62259068331779</v>
+        <v>8.376585283841766</v>
       </c>
       <c r="F15">
-        <v>40.4683841143878</v>
+        <v>28.72125365817655</v>
       </c>
       <c r="G15">
-        <v>3.696938694841525</v>
+        <v>2.085418703621836</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>10.70361100019431</v>
+        <v>5.892403125140774</v>
       </c>
       <c r="K15">
-        <v>18.69545231227378</v>
+        <v>22.81550416755077</v>
       </c>
       <c r="L15">
-        <v>9.406434528101096</v>
+        <v>5.20555783538781</v>
       </c>
       <c r="M15">
-        <v>20.30469989330123</v>
+        <v>18.05716693417631</v>
       </c>
       <c r="N15">
-        <v>19.41874209933876</v>
+        <v>12.43623522608415</v>
       </c>
       <c r="O15">
-        <v>31.1402326513296</v>
+        <v>20.71201430491179</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>13.3106913423569</v>
+        <v>10.62616527090517</v>
       </c>
       <c r="D16">
-        <v>7.935950899876857</v>
+        <v>5.676156392511664</v>
       </c>
       <c r="E16">
-        <v>13.63177937808123</v>
+        <v>8.327852623892836</v>
       </c>
       <c r="F16">
-        <v>40.49176301488083</v>
+        <v>28.36050565531597</v>
       </c>
       <c r="G16">
-        <v>3.698405148731462</v>
+        <v>2.089671498826496</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>10.71818234369291</v>
+        <v>5.921932722732227</v>
       </c>
       <c r="K16">
-        <v>18.47767756369105</v>
+        <v>22.07271824082942</v>
       </c>
       <c r="L16">
-        <v>9.414801273253353</v>
+        <v>5.224184298644277</v>
       </c>
       <c r="M16">
-        <v>20.21578206634896</v>
+        <v>17.60259921106561</v>
       </c>
       <c r="N16">
-        <v>19.45272395956431</v>
+        <v>12.54874592971293</v>
       </c>
       <c r="O16">
-        <v>31.17782508864963</v>
+        <v>20.53988210591481</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>13.29611321997203</v>
+        <v>10.48880236377524</v>
       </c>
       <c r="D17">
-        <v>7.928510387231495</v>
+        <v>5.612554355642818</v>
       </c>
       <c r="E17">
-        <v>13.63786338833766</v>
+        <v>8.298986740483578</v>
       </c>
       <c r="F17">
-        <v>40.50851913193257</v>
+        <v>28.14547666243329</v>
       </c>
       <c r="G17">
-        <v>3.69932483727287</v>
+        <v>2.092303445817881</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>10.72736858614957</v>
+        <v>5.940570373515039</v>
       </c>
       <c r="K17">
-        <v>18.34337819963264</v>
+        <v>21.60589976569183</v>
       </c>
       <c r="L17">
-        <v>9.420068028310819</v>
+        <v>5.235833438147189</v>
       </c>
       <c r="M17">
-        <v>20.16174025522437</v>
+        <v>17.31966323189175</v>
       </c>
       <c r="N17">
-        <v>19.47406301565646</v>
+        <v>12.61867792088322</v>
       </c>
       <c r="O17">
-        <v>31.20264242199855</v>
+        <v>20.43998425030697</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>13.28796973881888</v>
+        <v>10.40968701778613</v>
       </c>
       <c r="D18">
-        <v>7.924312828471362</v>
+        <v>5.575836593584759</v>
       </c>
       <c r="E18">
-        <v>13.64152719423973</v>
+        <v>8.282759243030668</v>
       </c>
       <c r="F18">
-        <v>40.51904322236257</v>
+        <v>28.02409155866751</v>
       </c>
       <c r="G18">
-        <v>3.699861210663121</v>
+        <v>2.093826067556248</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>10.73274325214302</v>
+        <v>5.951479788738953</v>
       </c>
       <c r="K18">
-        <v>18.26590070545619</v>
+        <v>21.3332764225594</v>
       </c>
       <c r="L18">
-        <v>9.423146687155057</v>
+        <v>5.242615855211333</v>
       </c>
       <c r="M18">
-        <v>20.13085015043798</v>
+        <v>17.15545839662037</v>
       </c>
       <c r="N18">
-        <v>19.48651788302217</v>
+        <v>12.65923401674604</v>
       </c>
       <c r="O18">
-        <v>31.21756097479534</v>
+        <v>20.38458239699641</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>13.28525412983401</v>
+        <v>10.38288334669444</v>
       </c>
       <c r="D19">
-        <v>7.922905768925172</v>
+        <v>5.563382281141883</v>
       </c>
       <c r="E19">
-        <v>13.64279595387711</v>
+        <v>8.277329066203908</v>
       </c>
       <c r="F19">
-        <v>40.52275866860359</v>
+        <v>27.98338530725688</v>
       </c>
       <c r="G19">
-        <v>3.70004408896556</v>
+        <v>2.094343143609678</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>10.73457866123824</v>
+        <v>5.955205865328946</v>
       </c>
       <c r="K19">
-        <v>18.239630788285</v>
+        <v>21.24026045393789</v>
       </c>
       <c r="L19">
-        <v>9.424197555947059</v>
+        <v>5.244926411028636</v>
       </c>
       <c r="M19">
-        <v>20.12042517338076</v>
+        <v>17.09961244892528</v>
       </c>
       <c r="N19">
-        <v>19.49076603763769</v>
+        <v>12.67302269869889</v>
       </c>
       <c r="O19">
-        <v>31.22272270859846</v>
+        <v>20.36617387649434</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>13.29764013347682</v>
+        <v>10.50343649620086</v>
       </c>
       <c r="D20">
-        <v>7.929293970532093</v>
+        <v>5.619339158716245</v>
       </c>
       <c r="E20">
-        <v>13.63719871918124</v>
+        <v>8.302020640047264</v>
       </c>
       <c r="F20">
-        <v>40.50664365716495</v>
+        <v>28.16812914791352</v>
       </c>
       <c r="G20">
-        <v>3.699226170140511</v>
+        <v>2.092022367901389</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>10.7263812817723</v>
+        <v>5.938566696047634</v>
       </c>
       <c r="K20">
-        <v>18.35769920122808</v>
+        <v>21.65601937742269</v>
       </c>
       <c r="L20">
-        <v>9.419502266995071</v>
+        <v>5.234584875288334</v>
       </c>
       <c r="M20">
-        <v>20.16747325268956</v>
+        <v>17.34993484165508</v>
       </c>
       <c r="N20">
-        <v>19.47177268914165</v>
+        <v>12.61119904055352</v>
       </c>
       <c r="O20">
-        <v>31.19993387337505</v>
+        <v>20.45040481718355</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>13.34212809094343</v>
+        <v>10.90705543869038</v>
       </c>
       <c r="D21">
-        <v>7.951731964105943</v>
+        <v>5.80565870394099</v>
       </c>
       <c r="E21">
-        <v>13.62035641927649</v>
+        <v>8.389488086919405</v>
       </c>
       <c r="F21">
-        <v>40.46309492995596</v>
+        <v>28.81634319282378</v>
       </c>
       <c r="G21">
-        <v>3.69656627405155</v>
+        <v>2.084327535420468</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>10.69992527601739</v>
+        <v>5.884942629242187</v>
       </c>
       <c r="K21">
-        <v>18.75143991295414</v>
+        <v>23.00385379190912</v>
       </c>
       <c r="L21">
-        <v>9.404315749087838</v>
+        <v>5.200817275214551</v>
       </c>
       <c r="M21">
-        <v>20.32780736024024</v>
+        <v>18.17324625731255</v>
       </c>
       <c r="N21">
-        <v>19.41012060920202</v>
+        <v>12.40747000827898</v>
       </c>
       <c r="O21">
-        <v>31.13107048758985</v>
+        <v>20.75824789986255</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>13.37331556172422</v>
+        <v>11.16949507279939</v>
       </c>
       <c r="D22">
-        <v>7.967109968602736</v>
+        <v>5.926022783098281</v>
       </c>
       <c r="E22">
-        <v>13.61080993285545</v>
+        <v>8.450062415186913</v>
       </c>
       <c r="F22">
-        <v>40.44253993837041</v>
+        <v>29.26069162799416</v>
       </c>
       <c r="G22">
-        <v>3.694893319560209</v>
+        <v>2.079369321384148</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>10.68344199694426</v>
+        <v>5.851636477400883</v>
       </c>
       <c r="K22">
-        <v>19.00616692075477</v>
+        <v>23.84861043136801</v>
       </c>
       <c r="L22">
-        <v>9.394827791164177</v>
+        <v>5.179470969793944</v>
       </c>
       <c r="M22">
-        <v>20.43416217276868</v>
+        <v>18.69768524573546</v>
       </c>
       <c r="N22">
-        <v>19.37143485634822</v>
+        <v>12.27732331370543</v>
       </c>
       <c r="O22">
-        <v>31.09181996022957</v>
+        <v>20.97854847504813</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>13.35647890523958</v>
+        <v>11.02956637595022</v>
       </c>
       <c r="D23">
-        <v>7.958837995823885</v>
+        <v>5.861919821632745</v>
       </c>
       <c r="E23">
-        <v>13.61577157020902</v>
+        <v>8.417417591846601</v>
       </c>
       <c r="F23">
-        <v>40.45278655332982</v>
+        <v>29.02162722090104</v>
       </c>
       <c r="G23">
-        <v>3.695780237819493</v>
+        <v>2.082009515165663</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>10.69216571075799</v>
+        <v>5.869250644832564</v>
       </c>
       <c r="K23">
-        <v>18.87047805190235</v>
+        <v>23.40102551738798</v>
       </c>
       <c r="L23">
-        <v>9.399851786944684</v>
+        <v>5.19079818492998</v>
       </c>
       <c r="M23">
-        <v>20.37726274661194</v>
+        <v>18.41905430893498</v>
       </c>
       <c r="N23">
-        <v>19.39193538396505</v>
+        <v>12.34650821359365</v>
       </c>
       <c r="O23">
-        <v>31.11224121398741</v>
+        <v>20.85918418333985</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>13.29694907514682</v>
+        <v>10.49682084758274</v>
       </c>
       <c r="D24">
-        <v>7.928939462874612</v>
+        <v>5.6162722207033</v>
       </c>
       <c r="E24">
-        <v>13.63749869891486</v>
+        <v>8.300647868917324</v>
       </c>
       <c r="F24">
-        <v>40.5074887847118</v>
+        <v>28.15788099170538</v>
       </c>
       <c r="G24">
-        <v>3.699270753771821</v>
+        <v>2.092149413616728</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>10.72682735119571</v>
+        <v>5.939471953735384</v>
       </c>
       <c r="K24">
-        <v>18.35122550192735</v>
+        <v>21.63337352378438</v>
       </c>
       <c r="L24">
-        <v>9.419757889637918</v>
+        <v>5.235149085170699</v>
       </c>
       <c r="M24">
-        <v>20.16488080445356</v>
+        <v>17.33625384036349</v>
       </c>
       <c r="N24">
-        <v>19.47280756392377</v>
+        <v>12.61457914859342</v>
       </c>
       <c r="O24">
-        <v>31.20115638136269</v>
+        <v>20.44568736246975</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>13.24198640533599</v>
+        <v>9.918366373470375</v>
       </c>
       <c r="D25">
-        <v>7.899833988377079</v>
+        <v>5.346272326509265</v>
       </c>
       <c r="E25">
-        <v>13.66722359765846</v>
+        <v>8.189002692825349</v>
       </c>
       <c r="F25">
-        <v>40.60036917400154</v>
+        <v>27.31367227543938</v>
       </c>
       <c r="G25">
-        <v>3.703318729775767</v>
+        <v>2.10342699128863</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>10.76769585219535</v>
+        <v>6.022439820064457</v>
       </c>
       <c r="K25">
-        <v>17.78260795448779</v>
+        <v>19.56877969117366</v>
       </c>
       <c r="L25">
-        <v>9.443118403444533</v>
+        <v>5.286134180092394</v>
       </c>
       <c r="M25">
-        <v>19.94326949067202</v>
+        <v>16.11272602716521</v>
       </c>
       <c r="N25">
-        <v>19.56697328540271</v>
+        <v>12.91646743214391</v>
       </c>
       <c r="O25">
-        <v>31.32168460738745</v>
+        <v>20.07776953611723</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_41/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_41/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,8 +415,14 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -424,46 +430,52 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>9.491735949196334</v>
+        <v>5.939738748796808</v>
       </c>
       <c r="D2">
-        <v>5.144397282034864</v>
+        <v>3.496086425882765</v>
       </c>
       <c r="E2">
-        <v>8.118701122183502</v>
+        <v>9.687349886160826</v>
       </c>
       <c r="F2">
-        <v>26.76525386425658</v>
+        <v>14.03992605313967</v>
       </c>
       <c r="G2">
-        <v>2.11206130911316</v>
+        <v>18.50229123598342</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>3.545227826790899</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>3.916994371689239</v>
       </c>
       <c r="J2">
-        <v>6.089512720713806</v>
+        <v>7.509822514826034</v>
       </c>
       <c r="K2">
-        <v>17.9377021009125</v>
+        <v>11.80140975985035</v>
       </c>
       <c r="L2">
-        <v>5.326432444616202</v>
+        <v>7.068853133215011</v>
       </c>
       <c r="M2">
-        <v>15.16837912674178</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>13.14964696738257</v>
+        <v>7.917828356910801</v>
       </c>
       <c r="O2">
-        <v>19.86930164749895</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>98.02013312925347</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>11.9599598742986</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -471,46 +483,52 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>9.203719049159236</v>
+        <v>6.024224102198962</v>
       </c>
       <c r="D3">
-        <v>5.00640918247819</v>
+        <v>3.672168194221817</v>
       </c>
       <c r="E3">
-        <v>8.07826328093987</v>
+        <v>9.410208078205965</v>
       </c>
       <c r="F3">
-        <v>26.43789096166724</v>
+        <v>14.30239680471153</v>
       </c>
       <c r="G3">
-        <v>2.11813663585265</v>
+        <v>18.05668807468107</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>3.02143393968116</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>3.590591769348629</v>
       </c>
       <c r="J3">
-        <v>6.138605180983893</v>
+        <v>7.644050771751494</v>
       </c>
       <c r="K3">
-        <v>16.84414182225184</v>
+        <v>12.03228827020397</v>
       </c>
       <c r="L3">
-        <v>5.355489554960801</v>
+        <v>6.845830690666438</v>
       </c>
       <c r="M3">
-        <v>14.50427891380938</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>13.3144886806364</v>
+        <v>7.361727423525669</v>
       </c>
       <c r="O3">
-        <v>19.76437031715584</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>91.04602640822756</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>12.04002696484099</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -518,46 +536,52 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>9.028018180877556</v>
+        <v>6.074191217989899</v>
       </c>
       <c r="D4">
-        <v>4.92138325852539</v>
+        <v>3.781299829180409</v>
       </c>
       <c r="E4">
-        <v>8.056910753675659</v>
+        <v>9.241749313696497</v>
       </c>
       <c r="F4">
-        <v>26.25818607029899</v>
+        <v>14.51032355357671</v>
       </c>
       <c r="G4">
-        <v>2.121982644585079</v>
+        <v>17.84738017670384</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2.701101433024172</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>3.389010572484524</v>
       </c>
       <c r="J4">
-        <v>6.170514239006208</v>
+        <v>7.735847891894339</v>
       </c>
       <c r="K4">
-        <v>16.13986857376482</v>
+        <v>12.19618420863016</v>
       </c>
       <c r="L4">
-        <v>5.3742006861132</v>
+        <v>6.752305306576027</v>
       </c>
       <c r="M4">
-        <v>14.08591562407722</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>13.41907577639809</v>
+        <v>7.004719001823581</v>
       </c>
       <c r="O4">
-        <v>19.71695002949419</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>86.58795366251557</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>12.11654655060492</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -565,46 +589,52 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>8.956802005588578</v>
+        <v>6.097112473648894</v>
       </c>
       <c r="D5">
-        <v>4.886704074040284</v>
+        <v>3.825745989224864</v>
       </c>
       <c r="E5">
-        <v>8.04907160341617</v>
+        <v>9.17529621357771</v>
       </c>
       <c r="F5">
-        <v>26.19021547801298</v>
+        <v>14.59841068000976</v>
       </c>
       <c r="G5">
-        <v>2.12357976917386</v>
+        <v>17.7627690044262</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2.570184455287991</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>3.306541393300265</v>
       </c>
       <c r="J5">
-        <v>6.183957749713142</v>
+        <v>7.773277271685856</v>
       </c>
       <c r="K5">
-        <v>15.84476710755573</v>
+        <v>12.26140262314435</v>
       </c>
       <c r="L5">
-        <v>5.382045564361789</v>
+        <v>6.715653327152224</v>
       </c>
       <c r="M5">
-        <v>13.91299087734767</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>13.46254641346055</v>
+        <v>6.852728047069649</v>
       </c>
       <c r="O5">
-        <v>19.70176041784361</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>84.72415868899074</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>12.14827390835016</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -612,46 +642,52 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>8.945002656566951</v>
+        <v>6.104494090931375</v>
       </c>
       <c r="D6">
-        <v>4.880945147810642</v>
+        <v>3.832747071920703</v>
       </c>
       <c r="E6">
-        <v>8.047821625089565</v>
+        <v>9.166512809857034</v>
       </c>
       <c r="F6">
-        <v>26.17924368926625</v>
+        <v>14.60525224387078</v>
       </c>
       <c r="G6">
-        <v>2.123846794125598</v>
+        <v>17.73219385147666</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2.547998588158687</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>3.293151401783951</v>
       </c>
       <c r="J6">
-        <v>6.186216524553453</v>
+        <v>7.777033711503553</v>
       </c>
       <c r="K6">
-        <v>15.79528146717174</v>
+        <v>12.26461576194245</v>
       </c>
       <c r="L6">
-        <v>5.383361518805502</v>
+        <v>6.711425259211312</v>
       </c>
       <c r="M6">
-        <v>13.88413687061383</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>13.46981612888513</v>
+        <v>6.824349688755446</v>
       </c>
       <c r="O6">
-        <v>19.69948364613644</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>84.411681975292</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>12.14706258936306</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -659,46 +695,52 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>9.027056052362019</v>
+        <v>6.084313992713917</v>
       </c>
       <c r="D7">
-        <v>4.920915624772174</v>
+        <v>3.78080177419179</v>
       </c>
       <c r="E7">
-        <v>8.056801557669088</v>
+        <v>9.246919311307622</v>
       </c>
       <c r="F7">
-        <v>26.25724823082207</v>
+        <v>14.48838924271162</v>
       </c>
       <c r="G7">
-        <v>2.122004062166601</v>
+        <v>17.79875907971204</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2.698161078758446</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>3.388472305179525</v>
       </c>
       <c r="J7">
-        <v>6.170693764806788</v>
+        <v>7.729238081001112</v>
       </c>
       <c r="K7">
-        <v>16.13592131782449</v>
+        <v>12.17524776487955</v>
       </c>
       <c r="L7">
-        <v>5.374305592784258</v>
+        <v>6.756883230922141</v>
       </c>
       <c r="M7">
-        <v>14.08359304860178</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>13.41965858929587</v>
+        <v>6.995033285385861</v>
       </c>
       <c r="O7">
-        <v>19.71672862839622</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>86.56277116536516</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>12.09817630999972</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -706,46 +748,52 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>9.392246673093728</v>
+        <v>5.982517783228432</v>
       </c>
       <c r="D8">
-        <v>5.096907752341419</v>
+        <v>3.555126009127545</v>
       </c>
       <c r="E8">
-        <v>8.10402961718296</v>
+        <v>9.599289221945957</v>
       </c>
       <c r="F8">
-        <v>26.64790623317833</v>
+        <v>14.08805369780537</v>
       </c>
       <c r="G8">
-        <v>2.114132519757873</v>
+        <v>18.2726273235712</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>3.362654631267275</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>3.804730654484033</v>
       </c>
       <c r="J8">
-        <v>6.106070855453549</v>
+        <v>7.544338990619334</v>
       </c>
       <c r="K8">
-        <v>17.56753153112601</v>
+        <v>11.84605323615432</v>
       </c>
       <c r="L8">
-        <v>5.336271496947641</v>
+        <v>6.952008135835774</v>
       </c>
       <c r="M8">
-        <v>14.94172503619912</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>13.20578533069474</v>
+        <v>7.719966553928143</v>
       </c>
       <c r="O8">
-        <v>19.82950748943405</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>95.64975061442929</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>11.95607202880684</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -753,46 +801,52 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>10.11351992850928</v>
+        <v>5.741917526208096</v>
       </c>
       <c r="D9">
-        <v>5.437790854405952</v>
+        <v>3.12111320844709</v>
       </c>
       <c r="E9">
-        <v>8.224733920048108</v>
+        <v>10.4866665631426</v>
       </c>
       <c r="F9">
-        <v>27.58652657532736</v>
+        <v>13.79963603520784</v>
       </c>
       <c r="G9">
-        <v>2.099579192243547</v>
+        <v>19.85164673110457</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>4.697210470650654</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>4.621615901950785</v>
       </c>
       <c r="J9">
-        <v>5.993548348725754</v>
+        <v>7.281682040229649</v>
       </c>
       <c r="K9">
-        <v>20.28562272919396</v>
+        <v>11.45407783924856</v>
       </c>
       <c r="L9">
-        <v>5.268534810646814</v>
+        <v>8.010455365142711</v>
       </c>
       <c r="M9">
-        <v>16.53196236708435</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>12.81308190287554</v>
+        <v>9.043002454004442</v>
       </c>
       <c r="O9">
-        <v>20.19167603392427</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>112.228399960364</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>11.9670006951743</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -800,46 +854,52 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>10.64182328209889</v>
+        <v>5.558608024181551</v>
       </c>
       <c r="D10">
-        <v>5.683394735096554</v>
+        <v>2.836240906303438</v>
       </c>
       <c r="E10">
-        <v>8.331197516996994</v>
+        <v>11.63261727988213</v>
       </c>
       <c r="F10">
-        <v>28.38535377030804</v>
+        <v>13.82987228966045</v>
       </c>
       <c r="G10">
-        <v>2.089372342472933</v>
+        <v>21.21565643030331</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>5.721752106938602</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>5.23684986866027</v>
       </c>
       <c r="J10">
-        <v>5.919831888149508</v>
+        <v>7.120047793530035</v>
       </c>
       <c r="K10">
-        <v>22.12542888467728</v>
+        <v>11.24869097310148</v>
       </c>
       <c r="L10">
-        <v>5.222866151672393</v>
+        <v>8.849641284101327</v>
       </c>
       <c r="M10">
-        <v>17.63468310513642</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>12.54081143394865</v>
+        <v>10.0500452418902</v>
       </c>
       <c r="O10">
-        <v>20.55156260570641</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>123.9308061342837</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>12.08625212546698</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -847,46 +907,52 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>10.88097453011851</v>
+        <v>5.675364440527423</v>
       </c>
       <c r="D11">
-        <v>5.79366450842027</v>
+        <v>3.011483822457135</v>
       </c>
       <c r="E11">
-        <v>8.383622646948401</v>
+        <v>13.35034403582411</v>
       </c>
       <c r="F11">
-        <v>28.77313735330574</v>
+        <v>12.58199534613465</v>
       </c>
       <c r="G11">
-        <v>2.084821901194457</v>
+        <v>20.1791759328579</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>6.465490424182367</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>5.506663670927068</v>
       </c>
       <c r="J11">
-        <v>5.888316830147009</v>
+        <v>6.709988983072333</v>
       </c>
       <c r="K11">
-        <v>22.91863101840866</v>
+        <v>10.30574353617255</v>
       </c>
       <c r="L11">
-        <v>5.202963105289263</v>
+        <v>9.912954947057232</v>
       </c>
       <c r="M11">
-        <v>18.12068407363595</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>12.42049706595894</v>
+        <v>11.20074275140597</v>
       </c>
       <c r="O11">
-        <v>20.7371985785313</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>129.2158357407247</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>11.34294524513145</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -894,46 +960,52 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>10.97130801908853</v>
+        <v>5.841823494735259</v>
       </c>
       <c r="D12">
-        <v>5.835181900040809</v>
+        <v>3.255596571699178</v>
       </c>
       <c r="E12">
-        <v>8.404059039430194</v>
+        <v>14.57025413480075</v>
       </c>
       <c r="F12">
-        <v>28.92353144269532</v>
+        <v>11.49341744174333</v>
       </c>
       <c r="G12">
-        <v>2.083110991695134</v>
+        <v>19.09177068282955</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>7.260396604967272</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>5.607328575392565</v>
       </c>
       <c r="J12">
-        <v>5.876680620579444</v>
+        <v>6.394382250426224</v>
       </c>
       <c r="K12">
-        <v>23.21279364768428</v>
+        <v>9.553214734724147</v>
       </c>
       <c r="L12">
-        <v>5.195550358076181</v>
+        <v>10.64602170610495</v>
       </c>
       <c r="M12">
-        <v>18.30238603420984</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>12.37545101417891</v>
+        <v>11.99043492990219</v>
       </c>
       <c r="O12">
-        <v>20.81076426163589</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>131.2195199861054</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>10.6822082461253</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -941,46 +1013,52 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>10.95186405313213</v>
+        <v>6.070651561431617</v>
       </c>
       <c r="D13">
-        <v>5.826251469944276</v>
+        <v>3.572063694385821</v>
       </c>
       <c r="E13">
-        <v>8.399631562563334</v>
+        <v>15.52838338268521</v>
       </c>
       <c r="F13">
-        <v>28.89098292433417</v>
+        <v>10.37007758543448</v>
       </c>
       <c r="G13">
-        <v>2.083478940278503</v>
+        <v>17.64132986089896</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>8.069869049290032</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>5.577329736700483</v>
       </c>
       <c r="J13">
-        <v>5.879173309965771</v>
+        <v>6.118996293357023</v>
       </c>
       <c r="K13">
-        <v>23.14971510562857</v>
+        <v>8.854852425139191</v>
       </c>
       <c r="L13">
-        <v>5.197141326635927</v>
+        <v>11.198434043236</v>
       </c>
       <c r="M13">
-        <v>18.26335834160205</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>12.3851295101816</v>
+        <v>12.564053020305</v>
       </c>
       <c r="O13">
-        <v>20.79477335948085</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>130.7726310673679</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>9.988451099220352</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -988,46 +1066,52 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>10.88841118979042</v>
+        <v>6.265349828608486</v>
       </c>
       <c r="D14">
-        <v>5.79708512480064</v>
+        <v>3.769230483850708</v>
       </c>
       <c r="E14">
-        <v>8.38529219874917</v>
+        <v>16.10069690825383</v>
       </c>
       <c r="F14">
-        <v>28.7854390163413</v>
+        <v>9.562479928665759</v>
       </c>
       <c r="G14">
-        <v>2.08468090476341</v>
+        <v>16.4126734601682</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>8.667972081515606</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>5.497584568426421</v>
       </c>
       <c r="J14">
-        <v>5.887353496422322</v>
+        <v>5.946263555696863</v>
       </c>
       <c r="K14">
-        <v>22.94295583987072</v>
+        <v>8.394824424953171</v>
       </c>
       <c r="L14">
-        <v>5.20235077420547</v>
+        <v>11.51573294575607</v>
       </c>
       <c r="M14">
-        <v>18.1356800509763</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>12.41678075579264</v>
+        <v>12.87853800578376</v>
       </c>
       <c r="O14">
-        <v>20.74318469620431</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>129.3495541137729</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>9.482662467379628</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1035,46 +1119,52 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>10.84951322286871</v>
+        <v>6.327434677828824</v>
       </c>
       <c r="D15">
-        <v>5.77918789789782</v>
+        <v>3.815959277474311</v>
       </c>
       <c r="E15">
-        <v>8.376585283841766</v>
+        <v>16.18851542648571</v>
       </c>
       <c r="F15">
-        <v>28.72125365817655</v>
+        <v>9.359979957203786</v>
       </c>
       <c r="G15">
-        <v>2.085418703621836</v>
+        <v>16.0089193783049</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>8.781392486475461</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>5.449948116331212</v>
       </c>
       <c r="J15">
-        <v>5.892403125140774</v>
+        <v>5.913374867664242</v>
       </c>
       <c r="K15">
-        <v>22.81550416755077</v>
+        <v>8.294767555509699</v>
       </c>
       <c r="L15">
-        <v>5.20555783538781</v>
+        <v>11.55679455991463</v>
       </c>
       <c r="M15">
-        <v>18.05716693417631</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>12.43623522608415</v>
+        <v>12.9070893106729</v>
       </c>
       <c r="O15">
-        <v>20.71201430491179</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>128.4814351941381</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>9.350687222268137</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1082,46 +1172,52 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>10.62616527090517</v>
+        <v>6.369629268117278</v>
       </c>
       <c r="D16">
-        <v>5.676156392511664</v>
+        <v>3.841160999651303</v>
       </c>
       <c r="E16">
-        <v>8.327852623892836</v>
+        <v>15.6140537561339</v>
       </c>
       <c r="F16">
-        <v>28.36050565531597</v>
+        <v>9.473355095850906</v>
       </c>
       <c r="G16">
-        <v>2.089671498826496</v>
+        <v>15.39549495816427</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>8.289661726443187</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>5.179354696787546</v>
       </c>
       <c r="J16">
-        <v>5.921932722732227</v>
+        <v>6.035624393269561</v>
       </c>
       <c r="K16">
-        <v>22.07271824082942</v>
+        <v>8.510617247546833</v>
       </c>
       <c r="L16">
-        <v>5.224184298644277</v>
+        <v>11.15425986949492</v>
       </c>
       <c r="M16">
-        <v>17.60259921106561</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>12.54874592971293</v>
+        <v>12.42397889509903</v>
       </c>
       <c r="O16">
-        <v>20.53988210591481</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>123.5277067760556</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>9.378562357450907</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1129,46 +1225,52 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>10.48880236377524</v>
+        <v>6.295137456756712</v>
       </c>
       <c r="D17">
-        <v>5.612554355642818</v>
+        <v>3.750430218222382</v>
       </c>
       <c r="E17">
-        <v>8.298986740483578</v>
+        <v>14.84082610191927</v>
       </c>
       <c r="F17">
-        <v>28.14547666243329</v>
+        <v>10.01342289440877</v>
       </c>
       <c r="G17">
-        <v>2.092303445817881</v>
+        <v>15.67431406529115</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>7.534937919396095</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>5.017220629861349</v>
       </c>
       <c r="J17">
-        <v>5.940570373515039</v>
+        <v>6.219864566736595</v>
       </c>
       <c r="K17">
-        <v>21.60589976569183</v>
+        <v>8.916300059832958</v>
       </c>
       <c r="L17">
-        <v>5.235833438147189</v>
+        <v>10.65909806133028</v>
       </c>
       <c r="M17">
-        <v>17.31966323189175</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>12.61867792088322</v>
+        <v>11.86698019079355</v>
       </c>
       <c r="O17">
-        <v>20.43998425030697</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>120.4953650893387</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>9.68230285103637</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1176,46 +1278,52 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>10.40968701778613</v>
+        <v>6.116180180951432</v>
       </c>
       <c r="D18">
-        <v>5.575836593584759</v>
+        <v>3.5596769581316</v>
       </c>
       <c r="E18">
-        <v>8.282759243030668</v>
+        <v>13.80765645400495</v>
       </c>
       <c r="F18">
-        <v>28.02409155866751</v>
+        <v>10.93775754087009</v>
       </c>
       <c r="G18">
-        <v>2.093826067556248</v>
+        <v>16.7032470571858</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>6.544075794128691</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>4.927813594460211</v>
       </c>
       <c r="J18">
-        <v>5.951479788738953</v>
+        <v>6.475864087709642</v>
       </c>
       <c r="K18">
-        <v>21.3332764225594</v>
+        <v>9.526573056107313</v>
       </c>
       <c r="L18">
-        <v>5.242615855211333</v>
+        <v>10.02891496811696</v>
       </c>
       <c r="M18">
-        <v>17.15545839662037</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>12.65923401674604</v>
+        <v>11.19377284779555</v>
       </c>
       <c r="O18">
-        <v>20.38458239699641</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>118.7551985547215</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>10.24294352328264</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1223,46 +1331,52 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>10.38288334669444</v>
+        <v>5.925482127407864</v>
       </c>
       <c r="D19">
-        <v>5.563382281141883</v>
+        <v>3.313111261967346</v>
       </c>
       <c r="E19">
-        <v>8.277329066203908</v>
+        <v>12.67480429965787</v>
       </c>
       <c r="F19">
-        <v>27.98338530725688</v>
+        <v>12.03928959707363</v>
       </c>
       <c r="G19">
-        <v>2.094343143609678</v>
+        <v>18.13006396253959</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>5.662610462496797</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>4.907362265673118</v>
       </c>
       <c r="J19">
-        <v>5.955205865328946</v>
+        <v>6.756199682929608</v>
       </c>
       <c r="K19">
-        <v>21.24026045393789</v>
+        <v>10.21615779642737</v>
       </c>
       <c r="L19">
-        <v>5.244926411028636</v>
+        <v>9.363326235005278</v>
       </c>
       <c r="M19">
-        <v>17.09961244892528</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>12.67302269869889</v>
+        <v>10.48534604641459</v>
       </c>
       <c r="O19">
-        <v>20.36617387649434</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>118.1756672224729</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>10.92041031724194</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1270,46 +1384,52 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>10.50343649620086</v>
+        <v>5.644163982441674</v>
       </c>
       <c r="D20">
-        <v>5.619339158716245</v>
+        <v>2.907266465814704</v>
       </c>
       <c r="E20">
-        <v>8.302020640047264</v>
+        <v>11.35827850713892</v>
       </c>
       <c r="F20">
-        <v>28.16812914791352</v>
+        <v>13.70175901874004</v>
       </c>
       <c r="G20">
-        <v>2.092022367901389</v>
+        <v>20.68015774111781</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>5.442338085951024</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>5.073796349882651</v>
       </c>
       <c r="J20">
-        <v>5.938566696047634</v>
+        <v>7.130235341401232</v>
       </c>
       <c r="K20">
-        <v>21.65601937742269</v>
+        <v>11.20556947395319</v>
       </c>
       <c r="L20">
-        <v>5.234584875288334</v>
+        <v>8.650766769094917</v>
       </c>
       <c r="M20">
-        <v>17.34993484165508</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>12.61119904055352</v>
+        <v>9.774549542072156</v>
       </c>
       <c r="O20">
-        <v>20.45040481718355</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>120.8685610596028</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>11.97176768500276</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1317,46 +1437,52 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>10.90705543869038</v>
+        <v>5.452368561090999</v>
       </c>
       <c r="D21">
-        <v>5.80565870394099</v>
+        <v>2.645442976006272</v>
       </c>
       <c r="E21">
-        <v>8.389488086919405</v>
+        <v>12.01650599080631</v>
       </c>
       <c r="F21">
-        <v>28.81634319282378</v>
+        <v>14.1558610857261</v>
       </c>
       <c r="G21">
-        <v>2.084327535420468</v>
+        <v>22.23683571627774</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>6.278061986844845</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>5.563338431756913</v>
       </c>
       <c r="J21">
-        <v>5.884942629242187</v>
+        <v>7.103108703784186</v>
       </c>
       <c r="K21">
-        <v>23.00385379190912</v>
+        <v>11.3011329449011</v>
       </c>
       <c r="L21">
-        <v>5.200817275214551</v>
+        <v>9.160362559338866</v>
       </c>
       <c r="M21">
-        <v>18.17324625731255</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>12.40747000827898</v>
+        <v>10.42190867512185</v>
       </c>
       <c r="O21">
-        <v>20.75824789986255</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>129.8316972767556</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>12.31326673294524</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1364,46 +1490,52 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>11.16949507279939</v>
+        <v>5.308384466637937</v>
       </c>
       <c r="D22">
-        <v>5.926022783098281</v>
+        <v>2.596194321069232</v>
       </c>
       <c r="E22">
-        <v>8.450062415186913</v>
+        <v>12.52082277511322</v>
       </c>
       <c r="F22">
-        <v>29.26069162799416</v>
+        <v>14.53208759291503</v>
       </c>
       <c r="G22">
-        <v>2.079369321384148</v>
+        <v>23.41719695381466</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>6.850189044713089</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>5.894660225781409</v>
       </c>
       <c r="J22">
-        <v>5.851636477400883</v>
+        <v>7.099640201233773</v>
       </c>
       <c r="K22">
-        <v>23.84861043136801</v>
+        <v>11.41020977081697</v>
       </c>
       <c r="L22">
-        <v>5.179470969793944</v>
+        <v>9.529697808006478</v>
       </c>
       <c r="M22">
-        <v>18.69768524573546</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>12.27732331370543</v>
+        <v>10.89874382193128</v>
       </c>
       <c r="O22">
-        <v>20.97854847504813</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>135.7586523795543</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>12.57685717417263</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1411,46 +1543,52 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>11.02956637595022</v>
+        <v>5.374224548926091</v>
       </c>
       <c r="D23">
-        <v>5.861919821632745</v>
+        <v>2.576369683965536</v>
       </c>
       <c r="E23">
-        <v>8.417417591846601</v>
+        <v>12.24410844582615</v>
       </c>
       <c r="F23">
-        <v>29.02162722090104</v>
+        <v>14.34785971875725</v>
       </c>
       <c r="G23">
-        <v>2.082009515165663</v>
+        <v>22.81378904544678</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>6.542605007307174</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>5.716022218374758</v>
       </c>
       <c r="J23">
-        <v>5.869250644832564</v>
+        <v>7.10853248399567</v>
       </c>
       <c r="K23">
-        <v>23.40102551738798</v>
+        <v>11.37473563382059</v>
       </c>
       <c r="L23">
-        <v>5.19079818492998</v>
+        <v>9.326990411747232</v>
       </c>
       <c r="M23">
-        <v>18.41905430893498</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>12.34650821359365</v>
+        <v>10.64926712745328</v>
       </c>
       <c r="O23">
-        <v>20.85918418333985</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>132.5844801306516</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>12.452530809424</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1458,46 +1596,52 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>10.49682084758274</v>
+        <v>5.61312634324517</v>
       </c>
       <c r="D24">
-        <v>5.6162722207033</v>
+        <v>2.890185299633028</v>
       </c>
       <c r="E24">
-        <v>8.300647868917324</v>
+        <v>11.22468399864749</v>
       </c>
       <c r="F24">
-        <v>28.15788099170538</v>
+        <v>13.86323370360195</v>
       </c>
       <c r="G24">
-        <v>2.092149413616728</v>
+        <v>20.89457487254555</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>5.439045606335935</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>5.067117696051529</v>
       </c>
       <c r="J24">
-        <v>5.939471953735384</v>
+        <v>7.175845244147375</v>
       </c>
       <c r="K24">
-        <v>21.63337352378438</v>
+        <v>11.32668525505563</v>
       </c>
       <c r="L24">
-        <v>5.235149085170699</v>
+        <v>8.569954150478129</v>
       </c>
       <c r="M24">
-        <v>17.33625384036349</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>12.61457914859342</v>
+        <v>9.707979078843474</v>
       </c>
       <c r="O24">
-        <v>20.44568736246975</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>120.7257818171173</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>12.07756844909126</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1505,43 +1649,49 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>9.918366373470375</v>
+        <v>5.829379470120981</v>
       </c>
       <c r="D25">
-        <v>5.346272326509265</v>
+        <v>3.235865829659892</v>
       </c>
       <c r="E25">
-        <v>8.189002692825349</v>
+        <v>10.12423335367592</v>
       </c>
       <c r="F25">
-        <v>27.31367227543938</v>
+        <v>13.77170632808454</v>
       </c>
       <c r="G25">
-        <v>2.10342699128863</v>
+        <v>19.27464090511157</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>4.327977094764753</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>4.399514946755755</v>
       </c>
       <c r="J25">
-        <v>6.022439820064457</v>
+        <v>7.327777061742556</v>
       </c>
       <c r="K25">
-        <v>19.56877969117366</v>
+        <v>11.48871506332069</v>
       </c>
       <c r="L25">
-        <v>5.286134180092394</v>
+        <v>7.733679640712065</v>
       </c>
       <c r="M25">
-        <v>16.11272602716521</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>12.91646743214391</v>
+        <v>8.683788198346246</v>
       </c>
       <c r="O25">
-        <v>20.07776953611723</v>
+        <v>107.8508120901405</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>11.89576537899905</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_41/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_41/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,8 +421,14 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -430,52 +436,58 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>5.939738748796808</v>
+        <v>6.129780003366842</v>
       </c>
       <c r="D2">
-        <v>3.496086425882765</v>
+        <v>3.421495399780909</v>
       </c>
       <c r="E2">
-        <v>9.687349886160826</v>
+        <v>9.78093159128785</v>
       </c>
       <c r="F2">
-        <v>14.03992605313967</v>
+        <v>13.71198022046424</v>
       </c>
       <c r="G2">
-        <v>18.50229123598342</v>
+        <v>17.07925506023596</v>
       </c>
       <c r="H2">
-        <v>3.545227826790899</v>
+        <v>3.465147389863063</v>
       </c>
       <c r="I2">
-        <v>3.916994371689239</v>
+        <v>3.827022025974743</v>
       </c>
       <c r="J2">
-        <v>7.509822514826034</v>
+        <v>8.12891388479059</v>
       </c>
       <c r="K2">
-        <v>11.80140975985035</v>
+        <v>11.48571685497626</v>
       </c>
       <c r="L2">
-        <v>7.068853133215011</v>
+        <v>11.07308844445264</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>6.118668368701549</v>
       </c>
       <c r="N2">
-        <v>7.917828356910801</v>
+        <v>7.187758203221192</v>
       </c>
       <c r="O2">
-        <v>98.02013312925347</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>7.799738813004209</v>
       </c>
       <c r="Q2">
-        <v>11.9599598742986</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>97.99633168260871</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>11.71482247866477</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -483,52 +495,58 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>6.024224102198962</v>
+        <v>6.088368573420114</v>
       </c>
       <c r="D3">
-        <v>3.672168194221817</v>
+        <v>3.614104001883166</v>
       </c>
       <c r="E3">
-        <v>9.410208078205965</v>
+        <v>9.48042021312788</v>
       </c>
       <c r="F3">
-        <v>14.30239680471153</v>
+        <v>14.03322912132856</v>
       </c>
       <c r="G3">
-        <v>18.05668807468107</v>
+        <v>16.72018189712586</v>
       </c>
       <c r="H3">
-        <v>3.02143393968116</v>
+        <v>2.973407257970398</v>
       </c>
       <c r="I3">
-        <v>3.590591769348629</v>
+        <v>3.541646113079016</v>
       </c>
       <c r="J3">
-        <v>7.644050771751494</v>
+        <v>8.220867662115499</v>
       </c>
       <c r="K3">
-        <v>12.03228827020397</v>
+        <v>11.75086219941527</v>
       </c>
       <c r="L3">
-        <v>6.845830690666438</v>
+        <v>11.30407527037586</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>6.193198343305824</v>
       </c>
       <c r="N3">
-        <v>7.361727423525669</v>
+        <v>6.912953198739112</v>
       </c>
       <c r="O3">
-        <v>91.04602640822756</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>7.248564592339221</v>
       </c>
       <c r="Q3">
-        <v>12.04002696484099</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>91.03451350065299</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>11.83537036678557</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -536,52 +554,58 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>6.074191217989899</v>
+        <v>6.061838871419967</v>
       </c>
       <c r="D4">
-        <v>3.781299829180409</v>
+        <v>3.733771081996098</v>
       </c>
       <c r="E4">
-        <v>9.241749313696497</v>
+        <v>9.297757429287081</v>
       </c>
       <c r="F4">
-        <v>14.51032355357671</v>
+        <v>14.26897820372164</v>
       </c>
       <c r="G4">
-        <v>17.84738017670384</v>
+        <v>16.56696219739204</v>
       </c>
       <c r="H4">
-        <v>2.701101433024172</v>
+        <v>2.67262258711672</v>
       </c>
       <c r="I4">
-        <v>3.389010572484524</v>
+        <v>3.365383771696733</v>
       </c>
       <c r="J4">
-        <v>7.735847891894339</v>
+        <v>8.281861332453227</v>
       </c>
       <c r="K4">
-        <v>12.19618420863016</v>
+        <v>11.92896873920813</v>
       </c>
       <c r="L4">
-        <v>6.752305306576027</v>
+        <v>11.44839884428266</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>6.297141311473655</v>
       </c>
       <c r="N4">
-        <v>7.004719001823581</v>
+        <v>6.806068994360364</v>
       </c>
       <c r="O4">
-        <v>86.58795366251557</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>6.896009560708784</v>
       </c>
       <c r="Q4">
-        <v>12.11654655060492</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>86.58213170539277</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>11.93115034880615</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -589,52 +613,58 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>6.097112473648894</v>
+        <v>6.054810136892116</v>
       </c>
       <c r="D5">
-        <v>3.825745989224864</v>
+        <v>3.782609629865339</v>
       </c>
       <c r="E5">
-        <v>9.17529621357771</v>
+        <v>9.225558367288777</v>
       </c>
       <c r="F5">
-        <v>14.59841068000976</v>
+        <v>14.36688132284185</v>
       </c>
       <c r="G5">
-        <v>17.7627690044262</v>
+        <v>16.50577989769997</v>
       </c>
       <c r="H5">
-        <v>2.570184455287991</v>
+        <v>2.549688108258781</v>
       </c>
       <c r="I5">
-        <v>3.306541393300265</v>
+        <v>3.293544955189503</v>
       </c>
       <c r="J5">
-        <v>7.773277271685856</v>
+        <v>8.305785417602774</v>
       </c>
       <c r="K5">
-        <v>12.26140262314435</v>
+        <v>11.99887917583582</v>
       </c>
       <c r="L5">
-        <v>6.715653327152224</v>
+        <v>11.50267604364965</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>6.348558244120521</v>
       </c>
       <c r="N5">
-        <v>6.852728047069649</v>
+        <v>6.763924691281965</v>
       </c>
       <c r="O5">
-        <v>84.72415868899074</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>6.746208874221418</v>
       </c>
       <c r="Q5">
-        <v>12.14827390835016</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>84.72026581547205</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>11.96969414987218</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -642,52 +672,58 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>6.104494090931375</v>
+        <v>6.058517584363677</v>
       </c>
       <c r="D6">
-        <v>3.832747071920703</v>
+        <v>3.790364824195146</v>
       </c>
       <c r="E6">
-        <v>9.166512809857034</v>
+        <v>9.215811355587689</v>
       </c>
       <c r="F6">
-        <v>14.60525224387078</v>
+        <v>14.37561526358328</v>
       </c>
       <c r="G6">
-        <v>17.73219385147666</v>
+        <v>16.47914821449454</v>
       </c>
       <c r="H6">
-        <v>2.547998588158687</v>
+        <v>2.528853763978354</v>
       </c>
       <c r="I6">
-        <v>3.293151401783951</v>
+        <v>3.282269324721861</v>
       </c>
       <c r="J6">
-        <v>7.777033711503553</v>
+        <v>8.307389101003992</v>
       </c>
       <c r="K6">
-        <v>12.26461576194245</v>
+        <v>12.00327188241755</v>
       </c>
       <c r="L6">
-        <v>6.711425259211312</v>
+        <v>11.50539750610698</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>6.352927643599234</v>
       </c>
       <c r="N6">
-        <v>6.824349688755446</v>
+        <v>6.758771244567667</v>
       </c>
       <c r="O6">
-        <v>84.411681975292</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>6.718265058351116</v>
       </c>
       <c r="Q6">
-        <v>12.14706258936306</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>84.40809228686319</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>11.96982455810105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -695,52 +731,58 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>6.084313992713917</v>
+        <v>6.072590857875997</v>
       </c>
       <c r="D7">
-        <v>3.78080177419179</v>
+        <v>3.731544390084106</v>
       </c>
       <c r="E7">
-        <v>9.246919311307622</v>
+        <v>9.300598808603244</v>
       </c>
       <c r="F7">
-        <v>14.48838924271162</v>
+        <v>14.23638700437143</v>
       </c>
       <c r="G7">
-        <v>17.79875907971204</v>
+        <v>16.61221326158125</v>
       </c>
       <c r="H7">
-        <v>2.698161078758446</v>
+        <v>2.669289521479097</v>
       </c>
       <c r="I7">
-        <v>3.388472305179525</v>
+        <v>3.365304668471513</v>
       </c>
       <c r="J7">
-        <v>7.729238081001112</v>
+        <v>8.238757651894367</v>
       </c>
       <c r="K7">
-        <v>12.17524776487955</v>
+        <v>11.90219170467596</v>
       </c>
       <c r="L7">
-        <v>6.756883230922141</v>
+        <v>11.42609416178388</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>6.278321655434567</v>
       </c>
       <c r="N7">
-        <v>6.995033285385861</v>
+        <v>6.810638055201728</v>
       </c>
       <c r="O7">
-        <v>86.56277116536516</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>6.886754483375408</v>
       </c>
       <c r="Q7">
-        <v>12.09817630999972</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>86.55687557600569</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>11.90303680865871</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -748,52 +790,58 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>5.982517783228432</v>
+        <v>6.125605772036965</v>
       </c>
       <c r="D8">
-        <v>3.555126009127545</v>
+        <v>3.479790908487129</v>
       </c>
       <c r="E8">
-        <v>9.599289221945957</v>
+        <v>9.67780755691383</v>
       </c>
       <c r="F8">
-        <v>14.08805369780537</v>
+        <v>13.74302839772647</v>
       </c>
       <c r="G8">
-        <v>18.2726273235712</v>
+        <v>17.18681976762198</v>
       </c>
       <c r="H8">
-        <v>3.362654631267275</v>
+        <v>3.292002027652194</v>
       </c>
       <c r="I8">
-        <v>3.804730654484033</v>
+        <v>3.728218003648288</v>
       </c>
       <c r="J8">
-        <v>7.544338990619334</v>
+        <v>8.027678447300771</v>
       </c>
       <c r="K8">
-        <v>11.84605323615432</v>
+        <v>11.52098127770137</v>
       </c>
       <c r="L8">
-        <v>6.952008135835774</v>
+        <v>11.11245791022128</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>6.088045530395951</v>
       </c>
       <c r="N8">
-        <v>7.719966553928143</v>
+        <v>7.033567455809678</v>
       </c>
       <c r="O8">
-        <v>95.64975061442929</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>7.604261950405669</v>
       </c>
       <c r="Q8">
-        <v>11.95607202880684</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>95.6301616641351</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>11.69129475747545</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -801,52 +849,58 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>5.741917526208096</v>
+        <v>6.19925205717795</v>
       </c>
       <c r="D9">
-        <v>3.12111320844709</v>
+        <v>3.005056259031043</v>
       </c>
       <c r="E9">
-        <v>10.4866665631426</v>
+        <v>10.66421283207861</v>
       </c>
       <c r="F9">
-        <v>13.79963603520784</v>
+        <v>13.23559961042612</v>
       </c>
       <c r="G9">
-        <v>19.85164673110457</v>
+        <v>18.63688474912581</v>
       </c>
       <c r="H9">
-        <v>4.697210470650654</v>
+        <v>4.543784896567389</v>
       </c>
       <c r="I9">
-        <v>4.621615901950785</v>
+        <v>4.440624727642235</v>
       </c>
       <c r="J9">
-        <v>7.281682040229649</v>
+        <v>7.794352704506263</v>
       </c>
       <c r="K9">
-        <v>11.45407783924856</v>
+        <v>10.9841700059481</v>
       </c>
       <c r="L9">
-        <v>8.010455365142711</v>
+        <v>10.56571561247059</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>6.291216414924595</v>
       </c>
       <c r="N9">
-        <v>9.043002454004442</v>
+        <v>8.159570778089488</v>
       </c>
       <c r="O9">
-        <v>112.228399960364</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>8.92411452651916</v>
       </c>
       <c r="Q9">
-        <v>11.9670006951743</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>112.1628254124315</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>11.55158178129808</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -854,52 +908,58 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>5.558608024181551</v>
+        <v>6.247856327294517</v>
       </c>
       <c r="D10">
-        <v>2.836240906303438</v>
+        <v>2.682592511435288</v>
       </c>
       <c r="E10">
-        <v>11.63261727988213</v>
+        <v>11.83313400255962</v>
       </c>
       <c r="F10">
-        <v>13.82987228966045</v>
+        <v>12.98241329165896</v>
       </c>
       <c r="G10">
-        <v>21.21565643030331</v>
+        <v>20.42169178641286</v>
       </c>
       <c r="H10">
-        <v>5.721752106938602</v>
+        <v>5.500499681915</v>
       </c>
       <c r="I10">
-        <v>5.23684986866027</v>
+        <v>4.974134714225171</v>
       </c>
       <c r="J10">
-        <v>7.120047793530035</v>
+        <v>7.395077487959684</v>
       </c>
       <c r="K10">
-        <v>11.24869097310148</v>
+        <v>10.58330466820405</v>
       </c>
       <c r="L10">
-        <v>8.849641284101327</v>
+        <v>10.08945126207567</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>6.964858094881691</v>
       </c>
       <c r="N10">
-        <v>10.0500452418902</v>
+        <v>9.018609152621185</v>
       </c>
       <c r="O10">
-        <v>123.9308061342837</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>9.940548669093827</v>
       </c>
       <c r="Q10">
-        <v>12.08625212546698</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>123.8079241312106</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>11.46576687003961</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -907,52 +967,58 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>5.675364440527423</v>
+        <v>6.470048315595216</v>
       </c>
       <c r="D11">
-        <v>3.011483822457135</v>
+        <v>2.823568715329046</v>
       </c>
       <c r="E11">
-        <v>13.35034403582411</v>
+        <v>13.52038398548826</v>
       </c>
       <c r="F11">
-        <v>12.58199534613465</v>
+        <v>11.57773999975272</v>
       </c>
       <c r="G11">
-        <v>20.1791759328579</v>
+        <v>20.66280443129537</v>
       </c>
       <c r="H11">
-        <v>6.465490424182367</v>
+        <v>6.224565124377459</v>
       </c>
       <c r="I11">
-        <v>5.506663670927068</v>
+        <v>5.205955154089185</v>
       </c>
       <c r="J11">
-        <v>6.709988983072333</v>
+        <v>6.607600144926806</v>
       </c>
       <c r="K11">
-        <v>10.30574353617255</v>
+        <v>9.595889527474347</v>
       </c>
       <c r="L11">
-        <v>9.912954947057232</v>
+        <v>9.3957102221255</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>6.944207177585586</v>
       </c>
       <c r="N11">
-        <v>11.20074275140597</v>
+        <v>10.07568873510262</v>
       </c>
       <c r="O11">
-        <v>129.2158357407247</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>11.10660195570194</v>
       </c>
       <c r="Q11">
-        <v>11.34294524513145</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>129.0573878037969</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>10.59931317859348</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -960,52 +1026,58 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>5.841823494735259</v>
+        <v>6.656689175181777</v>
       </c>
       <c r="D12">
-        <v>3.255596571699178</v>
+        <v>3.183730635573653</v>
       </c>
       <c r="E12">
-        <v>14.57025413480075</v>
+        <v>14.71492831431724</v>
       </c>
       <c r="F12">
-        <v>11.49341744174333</v>
+        <v>10.46808163393967</v>
       </c>
       <c r="G12">
-        <v>19.09177068282955</v>
+        <v>20.19840175914283</v>
       </c>
       <c r="H12">
-        <v>7.260396604967272</v>
+        <v>7.030337695353701</v>
       </c>
       <c r="I12">
-        <v>5.607328575392565</v>
+        <v>5.291744519638196</v>
       </c>
       <c r="J12">
-        <v>6.394382250426224</v>
+        <v>6.1976505014578</v>
       </c>
       <c r="K12">
-        <v>9.553214734724147</v>
+        <v>8.886378155523518</v>
       </c>
       <c r="L12">
-        <v>10.64602170610495</v>
+        <v>8.961606047169212</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>6.727286779682368</v>
       </c>
       <c r="N12">
-        <v>11.99043492990219</v>
+        <v>10.79784240017998</v>
       </c>
       <c r="O12">
-        <v>131.2195199861054</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>11.90681494094821</v>
       </c>
       <c r="Q12">
-        <v>10.6822082461253</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>131.0460188318987</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>9.922059248390525</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1013,52 +1085,58 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>6.070651561431617</v>
+        <v>6.859591351568441</v>
       </c>
       <c r="D13">
-        <v>3.572063694385821</v>
+        <v>3.502131758182908</v>
       </c>
       <c r="E13">
-        <v>15.52838338268521</v>
+        <v>15.65362139246432</v>
       </c>
       <c r="F13">
-        <v>10.37007758543448</v>
+        <v>9.481045081125854</v>
       </c>
       <c r="G13">
-        <v>17.64132986089896</v>
+        <v>18.78435613738988</v>
       </c>
       <c r="H13">
-        <v>8.069869049290032</v>
+        <v>7.868852246228982</v>
       </c>
       <c r="I13">
-        <v>5.577329736700483</v>
+        <v>5.266880705499796</v>
       </c>
       <c r="J13">
-        <v>6.118996293357023</v>
+        <v>6.081690534932512</v>
       </c>
       <c r="K13">
-        <v>8.854852425139191</v>
+        <v>8.335080034823559</v>
       </c>
       <c r="L13">
-        <v>11.198434043236</v>
+        <v>8.684051117627906</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>6.284506041855306</v>
       </c>
       <c r="N13">
-        <v>12.564053020305</v>
+        <v>11.33423568468861</v>
       </c>
       <c r="O13">
-        <v>130.7726310673679</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>12.48874472583007</v>
       </c>
       <c r="Q13">
-        <v>9.988451099220352</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>130.6039303309486</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>9.332899454270876</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1066,52 +1144,58 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>6.265349828608486</v>
+        <v>7.016541046049412</v>
       </c>
       <c r="D14">
-        <v>3.769230483850708</v>
+        <v>3.707774520818552</v>
       </c>
       <c r="E14">
-        <v>16.10069690825383</v>
+        <v>16.21484291195673</v>
       </c>
       <c r="F14">
-        <v>9.562479928665759</v>
+        <v>8.844597121496152</v>
       </c>
       <c r="G14">
-        <v>16.4126734601682</v>
+        <v>17.33170978283242</v>
       </c>
       <c r="H14">
-        <v>8.667972081515606</v>
+        <v>8.492669680963889</v>
       </c>
       <c r="I14">
-        <v>5.497584568426421</v>
+        <v>5.199935491986447</v>
       </c>
       <c r="J14">
-        <v>5.946263555696863</v>
+        <v>6.114302497982778</v>
       </c>
       <c r="K14">
-        <v>8.394824424953171</v>
+        <v>8.023738407085387</v>
       </c>
       <c r="L14">
-        <v>11.51573294575607</v>
+        <v>8.555567905580846</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>5.855872877413042</v>
       </c>
       <c r="N14">
-        <v>12.87853800578376</v>
+        <v>11.63773883741851</v>
       </c>
       <c r="O14">
-        <v>129.3495541137729</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>12.80903547002007</v>
       </c>
       <c r="Q14">
-        <v>9.482662467379628</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>129.1928919451576</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>8.955463964152763</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1119,52 +1203,58 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>6.327434677828824</v>
+        <v>7.062947531833216</v>
       </c>
       <c r="D15">
-        <v>3.815959277474311</v>
+        <v>3.746291014258918</v>
       </c>
       <c r="E15">
-        <v>16.18851542648571</v>
+        <v>16.30100574920474</v>
       </c>
       <c r="F15">
-        <v>9.359979957203786</v>
+        <v>8.71572640887479</v>
       </c>
       <c r="G15">
-        <v>16.0089193783049</v>
+        <v>16.76460959084313</v>
       </c>
       <c r="H15">
-        <v>8.781392486475461</v>
+        <v>8.615002065258714</v>
       </c>
       <c r="I15">
-        <v>5.449948116331212</v>
+        <v>5.160058180721522</v>
       </c>
       <c r="J15">
-        <v>5.913374867664242</v>
+        <v>6.17087297408289</v>
       </c>
       <c r="K15">
-        <v>8.294767555509699</v>
+        <v>7.978265692055185</v>
       </c>
       <c r="L15">
-        <v>11.55679455991463</v>
+        <v>8.549505629300947</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>5.686984556612535</v>
       </c>
       <c r="N15">
-        <v>12.9070893106729</v>
+        <v>11.67438094659881</v>
       </c>
       <c r="O15">
-        <v>128.4814351941381</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>12.83877465113267</v>
       </c>
       <c r="Q15">
-        <v>9.350687222268137</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>128.3316006732054</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>8.878030772214434</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1172,52 +1262,58 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>6.369629268117278</v>
+        <v>7.043547661517414</v>
       </c>
       <c r="D16">
-        <v>3.841160999651303</v>
+        <v>3.716614605605163</v>
       </c>
       <c r="E16">
-        <v>15.6140537561339</v>
+        <v>15.734911317535</v>
       </c>
       <c r="F16">
-        <v>9.473355095850906</v>
+        <v>9.077724353050707</v>
       </c>
       <c r="G16">
-        <v>15.39549495816427</v>
+        <v>15.10534140064514</v>
       </c>
       <c r="H16">
-        <v>8.289661726443187</v>
+        <v>8.149785658062608</v>
       </c>
       <c r="I16">
-        <v>5.179354696787546</v>
+        <v>4.929869587835069</v>
       </c>
       <c r="J16">
-        <v>6.035624393269561</v>
+        <v>6.628137574098557</v>
       </c>
       <c r="K16">
-        <v>8.510617247546833</v>
+        <v>8.329851364829519</v>
       </c>
       <c r="L16">
-        <v>11.15425986949492</v>
+        <v>8.817587660870844</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>5.133970568612803</v>
       </c>
       <c r="N16">
-        <v>12.42397889509903</v>
+        <v>11.26336955271918</v>
       </c>
       <c r="O16">
-        <v>123.5277067760556</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>12.35148414526814</v>
       </c>
       <c r="Q16">
-        <v>9.378562357450907</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>123.4119013611636</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>9.090649776386933</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1225,52 +1321,58 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>6.295137456756712</v>
+        <v>6.935953742567692</v>
       </c>
       <c r="D17">
-        <v>3.750430218222382</v>
+        <v>3.640128296791443</v>
       </c>
       <c r="E17">
-        <v>14.84082610191927</v>
+        <v>14.97151659426942</v>
       </c>
       <c r="F17">
-        <v>10.01342289440877</v>
+        <v>9.683103295894577</v>
       </c>
       <c r="G17">
-        <v>15.67431406529115</v>
+        <v>14.8776676433576</v>
       </c>
       <c r="H17">
-        <v>7.534937919396095</v>
+        <v>7.402129288981103</v>
       </c>
       <c r="I17">
-        <v>5.017220629861349</v>
+        <v>4.790916089857404</v>
       </c>
       <c r="J17">
-        <v>6.219864566736595</v>
+        <v>6.932446571441092</v>
       </c>
       <c r="K17">
-        <v>8.916300059832958</v>
+        <v>8.74666413839131</v>
       </c>
       <c r="L17">
-        <v>10.65909806133028</v>
+        <v>9.090398801801706</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>4.957236870201906</v>
       </c>
       <c r="N17">
-        <v>11.86698019079355</v>
+        <v>10.76962133819141</v>
       </c>
       <c r="O17">
-        <v>120.4953650893387</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>11.78762968909103</v>
       </c>
       <c r="Q17">
-        <v>9.68230285103637</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>120.3968657891643</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>9.444721224841501</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1278,52 +1380,58 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>6.116180180951432</v>
+        <v>6.742161575461155</v>
       </c>
       <c r="D18">
-        <v>3.5596769581316</v>
+        <v>3.451217186462997</v>
       </c>
       <c r="E18">
-        <v>13.80765645400495</v>
+        <v>13.95394092274661</v>
       </c>
       <c r="F18">
-        <v>10.93775754087009</v>
+        <v>10.56838920526217</v>
       </c>
       <c r="G18">
-        <v>16.7032470571858</v>
+        <v>15.62967111240329</v>
       </c>
       <c r="H18">
-        <v>6.544075794128691</v>
+        <v>6.402775803609216</v>
       </c>
       <c r="I18">
-        <v>4.927813594460211</v>
+        <v>4.712622588732211</v>
       </c>
       <c r="J18">
-        <v>6.475864087709642</v>
+        <v>7.203351795745741</v>
       </c>
       <c r="K18">
-        <v>9.526573056107313</v>
+        <v>9.291610106042736</v>
       </c>
       <c r="L18">
-        <v>10.02891496811696</v>
+        <v>9.426732316949446</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>5.126820912069963</v>
       </c>
       <c r="N18">
-        <v>11.19377284779555</v>
+        <v>10.1491568111523</v>
       </c>
       <c r="O18">
-        <v>118.7551985547215</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>11.1036888774347</v>
       </c>
       <c r="Q18">
-        <v>10.24294352328264</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>118.6651635588731</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>9.979188495028183</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1331,52 +1439,58 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>5.925482127407864</v>
+        <v>6.548008560111198</v>
       </c>
       <c r="D19">
-        <v>3.313111261967346</v>
+        <v>3.199476083671231</v>
       </c>
       <c r="E19">
-        <v>12.67480429965787</v>
+        <v>12.84124883104879</v>
       </c>
       <c r="F19">
-        <v>12.03928959707363</v>
+        <v>11.57351468532366</v>
       </c>
       <c r="G19">
-        <v>18.13006396253959</v>
+        <v>16.87928714096613</v>
       </c>
       <c r="H19">
-        <v>5.662610462496797</v>
+        <v>5.500826465718348</v>
       </c>
       <c r="I19">
-        <v>4.907362265673118</v>
+        <v>4.694858757307983</v>
       </c>
       <c r="J19">
-        <v>6.756199682929608</v>
+        <v>7.444687637242488</v>
       </c>
       <c r="K19">
-        <v>10.21615779642737</v>
+        <v>9.87469432169401</v>
       </c>
       <c r="L19">
-        <v>9.363326235005278</v>
+        <v>9.779920421430102</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>5.631543133254198</v>
       </c>
       <c r="N19">
-        <v>10.48534604641459</v>
+        <v>9.498371768027155</v>
       </c>
       <c r="O19">
-        <v>118.1756672224729</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>10.3835474303789</v>
       </c>
       <c r="Q19">
-        <v>10.92041031724194</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>118.0875229518813</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>10.58739496963401</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1384,52 +1498,58 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>5.644163982441674</v>
+        <v>6.293847842219602</v>
       </c>
       <c r="D20">
-        <v>2.907266465814704</v>
+        <v>2.771501508170813</v>
       </c>
       <c r="E20">
-        <v>11.35827850713892</v>
+        <v>11.55805330724709</v>
       </c>
       <c r="F20">
-        <v>13.70175901874004</v>
+        <v>12.98525786319837</v>
       </c>
       <c r="G20">
-        <v>20.68015774111781</v>
+        <v>19.47991227134524</v>
       </c>
       <c r="H20">
-        <v>5.442338085951024</v>
+        <v>5.241369686882779</v>
       </c>
       <c r="I20">
-        <v>5.073796349882651</v>
+        <v>4.837339526687192</v>
       </c>
       <c r="J20">
-        <v>7.130235341401232</v>
+        <v>7.61366966751982</v>
       </c>
       <c r="K20">
-        <v>11.20556947395319</v>
+        <v>10.63297782471918</v>
       </c>
       <c r="L20">
-        <v>8.650766769094917</v>
+        <v>10.18620624430926</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>6.574516963432618</v>
       </c>
       <c r="N20">
-        <v>9.774549542072156</v>
+        <v>8.813358059376904</v>
       </c>
       <c r="O20">
-        <v>120.8685610596028</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>9.661899682384806</v>
       </c>
       <c r="Q20">
-        <v>11.97176768500276</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>120.7641634900173</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>11.45235014285172</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1437,52 +1557,58 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>5.452368561090999</v>
+        <v>6.22887658664484</v>
       </c>
       <c r="D21">
-        <v>2.645442976006272</v>
+        <v>2.436712620615433</v>
       </c>
       <c r="E21">
-        <v>12.01650599080631</v>
+        <v>12.20924490824089</v>
       </c>
       <c r="F21">
-        <v>14.1558610857261</v>
+        <v>12.92411664726934</v>
       </c>
       <c r="G21">
-        <v>22.23683571627774</v>
+        <v>22.94325531377219</v>
       </c>
       <c r="H21">
-        <v>6.278061986844845</v>
+        <v>6.012813618869337</v>
       </c>
       <c r="I21">
-        <v>5.563338431756913</v>
+        <v>5.252631540596638</v>
       </c>
       <c r="J21">
-        <v>7.103108703784186</v>
+        <v>6.680007284735737</v>
       </c>
       <c r="K21">
-        <v>11.3011329449011</v>
+        <v>10.36881992302827</v>
       </c>
       <c r="L21">
-        <v>9.160362559338866</v>
+        <v>9.819568344714289</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>7.602957883185129</v>
       </c>
       <c r="N21">
-        <v>10.42190867512185</v>
+        <v>9.345082028211261</v>
       </c>
       <c r="O21">
-        <v>129.8316972767556</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>10.32229343099212</v>
       </c>
       <c r="Q21">
-        <v>12.31326673294524</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>129.6646654426555</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>11.38857442049263</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1490,52 +1616,58 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>5.308384466637937</v>
+        <v>6.167001962217178</v>
       </c>
       <c r="D22">
-        <v>2.596194321069232</v>
+        <v>2.523426562661914</v>
       </c>
       <c r="E22">
-        <v>12.52082277511322</v>
+        <v>12.70624341970542</v>
       </c>
       <c r="F22">
-        <v>14.53208759291503</v>
+        <v>12.93434290501673</v>
       </c>
       <c r="G22">
-        <v>23.41719695381466</v>
+        <v>25.35161716803796</v>
       </c>
       <c r="H22">
-        <v>6.850189044713089</v>
+        <v>6.54021769954221</v>
       </c>
       <c r="I22">
-        <v>5.894660225781409</v>
+        <v>5.532429582000101</v>
       </c>
       <c r="J22">
-        <v>7.099640201233773</v>
+        <v>6.062977543169682</v>
       </c>
       <c r="K22">
-        <v>11.41020977081697</v>
+        <v>10.2115787283316</v>
       </c>
       <c r="L22">
-        <v>9.529697808006478</v>
+        <v>9.566923612287754</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>8.286709133275679</v>
       </c>
       <c r="N22">
-        <v>10.89874382193128</v>
+        <v>9.726393926140881</v>
       </c>
       <c r="O22">
-        <v>135.7586523795543</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>10.81038714099779</v>
       </c>
       <c r="Q22">
-        <v>12.57685717417263</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>135.537266952941</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>11.36161464256706</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1543,52 +1675,58 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>5.374224548926091</v>
+        <v>6.190127498611648</v>
       </c>
       <c r="D23">
-        <v>2.576369683965536</v>
+        <v>2.447575707699623</v>
       </c>
       <c r="E23">
-        <v>12.24410844582615</v>
+        <v>12.43736516426521</v>
       </c>
       <c r="F23">
-        <v>14.34785971875725</v>
+        <v>12.9809291491338</v>
       </c>
       <c r="G23">
-        <v>22.81378904544678</v>
+        <v>23.90178960127897</v>
       </c>
       <c r="H23">
-        <v>6.542605007307174</v>
+        <v>6.257719957920894</v>
       </c>
       <c r="I23">
-        <v>5.716022218374758</v>
+        <v>5.381439447045995</v>
       </c>
       <c r="J23">
-        <v>7.10853248399567</v>
+        <v>6.477107449618567</v>
       </c>
       <c r="K23">
-        <v>11.37473563382059</v>
+        <v>10.34057422530434</v>
       </c>
       <c r="L23">
-        <v>9.326990411747232</v>
+        <v>9.729783011041535</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>7.956772481928141</v>
       </c>
       <c r="N23">
-        <v>10.64926712745328</v>
+        <v>9.516791941802898</v>
       </c>
       <c r="O23">
-        <v>132.5844801306516</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>10.55396741945431</v>
       </c>
       <c r="Q23">
-        <v>12.452530809424</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>132.3942666842773</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>11.42262649569617</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1596,52 +1734,58 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>5.61312634324517</v>
+        <v>6.249618529791034</v>
       </c>
       <c r="D24">
-        <v>2.890185299633028</v>
+        <v>2.754490832285698</v>
       </c>
       <c r="E24">
-        <v>11.22468399864749</v>
+        <v>11.42680821641557</v>
       </c>
       <c r="F24">
-        <v>13.86323370360195</v>
+        <v>13.1388198457887</v>
       </c>
       <c r="G24">
-        <v>20.89457487254555</v>
+        <v>19.66324477843393</v>
       </c>
       <c r="H24">
-        <v>5.439045606335935</v>
+        <v>5.238409300938825</v>
       </c>
       <c r="I24">
-        <v>5.067117696051529</v>
+        <v>4.829648117263004</v>
       </c>
       <c r="J24">
-        <v>7.175845244147375</v>
+        <v>7.658566080937837</v>
       </c>
       <c r="K24">
-        <v>11.32668525505563</v>
+        <v>10.74185421303559</v>
       </c>
       <c r="L24">
-        <v>8.569954150478129</v>
+        <v>10.25553170390176</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>6.648080450963942</v>
       </c>
       <c r="N24">
-        <v>9.707979078843474</v>
+        <v>8.733935665371135</v>
       </c>
       <c r="O24">
-        <v>120.7257818171173</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>9.594118996344566</v>
       </c>
       <c r="Q24">
-        <v>12.07756844909126</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>120.6219112474098</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>11.55206362597727</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1649,49 +1793,55 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>5.829379470120981</v>
+        <v>6.211664331043483</v>
       </c>
       <c r="D25">
-        <v>3.235865829659892</v>
+        <v>3.133268180495842</v>
       </c>
       <c r="E25">
-        <v>10.12423335367592</v>
+        <v>10.29029830868845</v>
       </c>
       <c r="F25">
-        <v>13.77170632808454</v>
+        <v>13.29726882636571</v>
       </c>
       <c r="G25">
-        <v>19.27464090511157</v>
+        <v>17.96597682470019</v>
       </c>
       <c r="H25">
-        <v>4.327977094764753</v>
+        <v>4.198363877158998</v>
       </c>
       <c r="I25">
-        <v>4.399514946755755</v>
+        <v>4.249326814689526</v>
       </c>
       <c r="J25">
-        <v>7.327777061742556</v>
+        <v>7.894730226204183</v>
       </c>
       <c r="K25">
-        <v>11.48871506332069</v>
+        <v>11.08151818748521</v>
       </c>
       <c r="L25">
-        <v>7.733679640712065</v>
+        <v>10.69302067205975</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>6.146370460523783</v>
       </c>
       <c r="N25">
-        <v>8.683788198346246</v>
+        <v>7.87366786652602</v>
       </c>
       <c r="O25">
-        <v>107.8508120901405</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>8.564250906945331</v>
       </c>
       <c r="Q25">
-        <v>11.89576537899905</v>
+        <v>107.8009219101081</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>11.54512215181341</v>
       </c>
     </row>
   </sheetData>
